--- a/A549_TGFB1/GO_Enrichment_Results.xlsx
+++ b/A549_TGFB1/GO_Enrichment_Results.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'ECH1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'KRT8', 'ECE1', 'SERPINB1', 'CD9', 'SLC3A2', 'ANXA2', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'WNT7A', 'ADH5', 'PDGFC', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'PCMT1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'B2M', 'CNTN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'TM7SF3', 'TXN', 'KRT18', 'G6PD', 'ANXA1', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'GAPDH', 'HSP90AA1', 'APP', 'YWHAE', 'RRAS', 'CD44', 'PSMD7', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'ALDH7A1', 'CDC42', 'HSPA5', 'CSRP1', 'MUC5AC', 'KRT19', 'S100A4', 'PPP1CB', 'SPP1', 'MYL12A', 'LDHA', 'LGALS3', 'DDX5', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GPX3', 'TGM2', 'ITM2B', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'HSPA1A', 'PLOD2', 'CAPG', 'CTSL', 'RDX', 'NUCB2', 'RPL28', 'TUBB4B', 'AKR1B1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'AKR1C1', 'UBC', 'C1GALT1C1', 'PSMC6', 'CLU', 'GLA', 'TUBA4A', 'CBR1', 'PYGL', 'CDK1', 'ZNHIT6', 'SLC2A3', 'FTL', 'SLC26A2', 'AKR1C3', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'ITM2B', 'PTGR1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'PYGB', 'ZNHIT6', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'SLC3A2', 'CSRP1', 'AKR1B1', 'MYL12A', 'RPL28', 'HSP90AB1', 'PLOD2', 'PSMB3', 'IGFBP7', 'B4GALT1', 'CTSB', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'KRT7', 'PRCP', 'TKT', 'ATP6AP2', 'B2M', 'PGK1', 'MFGE8', 'FTL', 'S100A10', 'KRT8', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'KRT18', 'PCMT1', 'YWHAE', 'ANXA4', 'ALDH1A1', 'G6PD', 'MYOF', 'ALDH2', 'NUCB2', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'CDC42', 'MYL6', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'PYGL', 'ADH5', 'ANXA2', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'SERPINB1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'ECE1', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PSMC6', 'SIRPA', 'AKR1C1', 'PDGFC', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'C1GALT1C1', 'TUBB4B', 'CCT3', 'CTNNB1', 'DDX5', 'LMAN1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'ST3GAL1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'CALM2', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'ECH1', 'PHLDA1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'KRT8', 'PTP4A1', 'BMP1', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'SLC3A2', 'ANXA2', 'NPTX1', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'COL1A1', 'CTTN', 'WNT7A', 'ADH5', 'PDGFC', 'DNER', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'NTS', 'PCMT1', 'CAV1', 'PSMD1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'B2M', 'MT3', 'CNTN1', 'ATP1B1', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'ULK1', 'TM7SF3', 'TXN', 'KRT18', 'SPHK1', 'G6PD', 'ANXA1', 'TSPAN4', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'GAPDH', 'ANTXR1', 'HSP90AA1', 'WIPI1', 'APP', 'YWHAE', 'RRAS', 'CD44', 'ADA', 'PSMD7', 'AP1M2', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'TMSB4X', 'ALDH7A1', 'CDC42', 'HSPA5', 'FGFR1', 'CSRP1', 'MUC5AC', 'KRT19', 'S100A4', 'RAP1GAP', 'PPP1CB', 'SPP1', 'UBR4', 'LAPTM4A', 'MYL12A', 'LDHA', 'LGALS3', 'SKIL', 'PYCARD', 'DDX5', 'ACTB', 'PSMC2', 'NPC2', 'IGFBP7', 'ANXA3', 'PSMD11', 'FABP5', 'HILPDA', 'GPX3', 'DERL1', 'TGM2', 'ITM2B', 'BCL2L1', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'TIMP2', 'HSPA1A', 'DYNLL1', 'PLOD2', 'CAPG', 'CTSL', 'MGST1', 'OCIAD2', 'GAL', 'F2R', 'RDX', 'NUCB2', 'RPL28', 'TUBB4B', 'AKR1B1', 'F2RL1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'AKR1C1', 'AREG', 'UBC', 'NAP1L1', 'C1GALT1C1', 'VPS29', 'SERPINE2', 'PSMC6', 'CLU', 'PMEPA1', 'GLA', 'TUBA4A', 'CBR1', 'TSPAN15', 'PYGL', 'CDK1', 'ZNHIT6', 'SLC2A3', 'FTL', 'SLC26A2', 'AKR1C3', 'ILF2', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'ITM2B', 'PTGR1', 'DYNLL1', 'EDN1', 'OCIAD2', 'UBB', 'SDC4', 'CLU', 'CAV1', 'HSPA1A', 'NAP1L1', 'PYGB', 'ZNHIT6', 'DERL1', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'TSPAN4', 'SLC3A2', 'CSRP1', 'AKR1B1', 'UBR4', 'MYL12A', 'RPL28', 'HSP90AB1', 'BMP1', 'PLOD2', 'PSMB3', 'CTTN', 'TIMP2', 'IGFBP7', 'B4GALT1', 'CTSB', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'BCL2L1', 'KRT7', 'PRCP', 'PSMC2', 'WIPI1', 'TKT', 'ATP6AP2', 'B2M', 'PGK1', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'DNER', 'S100A10', 'KRT8', 'LAPTM4A', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'GAL', 'KRT18', 'HILPDA', 'F2RL1', 'PCMT1', 'YWHAE', 'PMEPA1', 'PHLDA1', 'SERPINE2', 'ANXA4', 'PSMD11', 'ALDH1A1', 'G6PD', 'MYOF', 'ALDH2', 'NUCB2', 'FABP5', 'AREG', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'FGFR1', 'CDC42', 'MT3', 'ILF2', 'MYL6', 'CALM2', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'ULK1', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'PTP4A1', 'BDNF', 'PYGL', 'NPTX1', 'ADH5', 'ANXA2', 'ANTXR1', 'S100A6', 'TUBA4A', 'MGST1', 'CDK1', 'SERPINE1', 'SERPINB1', 'SPHK1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'SKIL', 'ECE1', 'PSMA4', 'CBR1', 'F2R', 'TAGLN2', 'AP1M2', 'TUBA1C', 'KRT19', 'CAPG', 'PSMC6', 'TSPAN15', 'SIRPA', 'AKR1C1', 'PDGFC', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'ADA', 'C1GALT1C1', 'TUBB4B', 'TMSB4X', 'CCT3', 'PSMD1', 'CTNNB1', 'COL1A1', 'RAP1GAP', 'PYCARD', 'DDX5', 'LMAN1', 'VIM', 'HSP90AA1', 'VPS29', 'PPP1CB', 'SPP1', 'ST3GAL1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IBA'], ['TAS'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['TAS'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IBA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['TAS'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'TAS'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['TAS'], ['HDA'], ['IEA'], ['IEA'], ['TAS'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'ECH1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'KRT8', 'ECE1', 'SERPINB1', 'CD9', 'SLC3A2', 'ANXA2', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'WNT7A', 'ADH5', 'PDGFC', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'PCMT1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'B2M', 'CNTN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'TM7SF3', 'TXN', 'KRT18', 'G6PD', 'ANXA1', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'GAPDH', 'HSP90AA1', 'APP', 'YWHAE', 'RRAS', 'CD44', 'PSMD7', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'ALDH7A1', 'CDC42', 'HSPA5', 'CSRP1', 'MUC5AC', 'KRT19', 'S100A4', 'PPP1CB', 'SPP1', 'MYL12A', 'LDHA', 'LGALS3', 'DDX5', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GPX3', 'TGM2', 'ITM2B', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'HSPA1A', 'PLOD2', 'CAPG', 'CTSL', 'RDX', 'NUCB2', 'RPL28', 'TUBB4B', 'AKR1B1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'AKR1C1', 'UBC', 'C1GALT1C1', 'SERPINE2', 'PSMC6', 'CLU', 'GLA', 'TUBA4A', 'CBR1', 'PYGL', 'CDK1', 'ZNHIT6', 'SLC2A3', 'FTL', 'SLC26A2', 'AKR1C3', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'ITM2B', 'PTGR1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'PYGB', 'ZNHIT6', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'SLC3A2', 'CSRP1', 'AKR1B1', 'MYL12A', 'RPL28', 'HSP90AB1', 'PLOD2', 'PSMB3', 'IGFBP7', 'B4GALT1', 'CTSB', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'KRT7', 'PRCP', 'TKT', 'ATP6AP2', 'B2M', 'PGK1', 'MFGE8', 'FTL', 'S100A10', 'KRT8', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'KRT18', 'PCMT1', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'G6PD', 'MYOF', 'ALDH2', 'NUCB2', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'CDC42', 'MYL6', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'PYGL', 'ADH5', 'ANXA2', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'SERPINB1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'ECE1', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PSMC6', 'SIRPA', 'AKR1C1', 'PDGFC', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'C1GALT1C1', 'TUBB4B', 'CCT3', 'CTNNB1', 'DDX5', 'LMAN1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'ST3GAL1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -772,12 +772,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'ECH1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'KRT8', 'ECE1', 'SERPINB1', 'CD9', 'SLC3A2', 'ANXA2', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'WNT7A', 'ADH5', 'PDGFC', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'PCMT1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'B2M', 'CNTN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'TM7SF3', 'TXN', 'KRT18', 'G6PD', 'ANXA1', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'GAPDH', 'HSP90AA1', 'APP', 'YWHAE', 'RRAS', 'CD44', 'PSMD7', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'ALDH7A1', 'CDC42', 'HSPA5', 'CSRP1', 'MUC5AC', 'KRT19', 'S100A4', 'PPP1CB', 'SPP1', 'MYL12A', 'LDHA', 'LGALS3', 'DDX5', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GPX3', 'TGM2', 'ITM2B', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'HSPA1A', 'PLOD2', 'CAPG', 'CTSL', 'RDX', 'NUCB2', 'RPL28', 'TUBB4B', 'AKR1B1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'AKR1C1', 'UBC', 'C1GALT1C1', 'SERPINE2', 'PSMC6', 'CLU', 'GLA', 'TUBA4A', 'CBR1', 'PYGL', 'CDK1', 'ZNHIT6', 'SLC2A3', 'FTL', 'SLC26A2', 'AKR1C3', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'ITM2B', 'PTGR1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'PYGB', 'ZNHIT6', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'SLC3A2', 'CSRP1', 'AKR1B1', 'MYL12A', 'RPL28', 'HSP90AB1', 'PLOD2', 'PSMB3', 'IGFBP7', 'B4GALT1', 'CTSB', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'KRT7', 'PRCP', 'TKT', 'ATP6AP2', 'B2M', 'PGK1', 'MFGE8', 'FTL', 'S100A10', 'KRT8', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'KRT18', 'PCMT1', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'G6PD', 'MYOF', 'ALDH2', 'NUCB2', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'CDC42', 'MYL6', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'PYGL', 'ADH5', 'ANXA2', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'SERPINB1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'ECE1', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PSMC6', 'SIRPA', 'AKR1C1', 'PDGFC', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'C1GALT1C1', 'TUBB4B', 'CCT3', 'CTNNB1', 'DDX5', 'LMAN1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'ST3GAL1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -838,12 +838,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'ECH1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'KRT8', 'ECE1', 'SERPINB1', 'CD9', 'SLC3A2', 'ANXA2', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'WNT7A', 'ADH5', 'PDGFC', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'PCMT1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'B2M', 'CNTN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'TM7SF3', 'TXN', 'KRT18', 'G6PD', 'ANXA1', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'GAPDH', 'HSP90AA1', 'APP', 'YWHAE', 'RRAS', 'CD44', 'PSMD7', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'ALDH7A1', 'CDC42', 'HSPA5', 'CSRP1', 'MUC5AC', 'KRT19', 'S100A4', 'PPP1CB', 'SPP1', 'MYL12A', 'LDHA', 'LGALS3', 'DDX5', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GPX3', 'TGM2', 'ITM2B', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'HSPA1A', 'PLOD2', 'CAPG', 'CTSL', 'RDX', 'NUCB2', 'RPL28', 'TUBB4B', 'AKR1B1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'AKR1C1', 'UBC', 'C1GALT1C1', 'SERPINE2', 'PSMC6', 'CLU', 'GLA', 'TUBA4A', 'CBR1', 'PYGL', 'CDK1', 'ZNHIT6', 'SLC2A3', 'FTL', 'SLC26A2', 'AKR1C3', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'ITM2B', 'PTGR1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'PYGB', 'ZNHIT6', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'SLC3A2', 'CSRP1', 'AKR1B1', 'MYL12A', 'RPL28', 'HSP90AB1', 'PLOD2', 'PSMB3', 'IGFBP7', 'B4GALT1', 'CTSB', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'KRT7', 'PRCP', 'TKT', 'ATP6AP2', 'B2M', 'PGK1', 'MFGE8', 'FTL', 'S100A10', 'KRT8', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'KRT18', 'PCMT1', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'G6PD', 'MYOF', 'ALDH2', 'NUCB2', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'CDC42', 'MYL6', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'PYGL', 'ADH5', 'ANXA2', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'SERPINB1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'ECE1', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PSMC6', 'SIRPA', 'AKR1C1', 'PDGFC', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'C1GALT1C1', 'TUBB4B', 'CCT3', 'CTNNB1', 'DDX5', 'LMAN1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'ST3GAL1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'CLCF1', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'STC1', 'ECH1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'VCAN', 'KRT8', 'BMP1', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'ANXA2', 'ATXN10', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'IL18', 'COL1A1', 'WNT7A', 'ADH5', 'PDGFC', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'PCMT1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'COL4A1', 'FN1', 'B2M', 'MT3', 'CNTN1', 'ATP1B1', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'IGFBP6', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'CXCL5', 'TM7SF3', 'TXN', 'KRT18', 'G6PD', 'ALDH3A1', 'ANXA1', 'CXCL8', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'IGFL3', 'PRDX1', 'RAB3B', 'GAPDH', 'HSP90AA1', 'TIMP4', 'APP', 'YWHAE', 'RRAS', 'TNFRSF1A', 'CD44', 'PSMD7', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'AIMP1', 'ALDH7A1', 'CDC42', 'IGFBP3', 'HSPA5', 'CSRP1', 'MUC5AC', 'KRT19', 'S100A4', 'HMGB2', 'PPP1CB', 'SPP1', 'ANGPTL4', 'MYL12A', 'LDHA', 'LGALS3', 'DDX5', 'ACTB', 'LAMC2', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'HILPDA', 'GPX3', 'TGM2', 'ITM2B', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'TIMP2', 'HSPA1A', 'PLOD2', 'CAPG', 'CTSL', 'GAL', 'IL11', 'IL32', 'RDX', 'NUCB2', 'RPL28', 'CCL2', 'TUBB4B', 'AKR1B1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'DMKN', 'AKR1C1', 'AREG', 'UBC', 'C1GALT1C1', 'KRT81', 'SERPINE2', 'PSMC6', 'CLU', 'LTBP4', 'GLA', 'TUBA4A', 'CBR1', 'PYGL', 'CDK1', 'NMI', 'ZNHIT6', 'SLC2A3', 'AGR2', 'FTL', 'SLC26A2', 'AKR1C3', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'LAMC2', 'ITM2B', 'PTGR1', 'EDN1', 'UBB', 'SDC4', 'CLU', 'CCL2', 'HSPA1A', 'IL32', 'PYGB', 'ZNHIT6', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'SLC3A2', 'CSRP1', 'CXCL5', 'DMKN', 'AKR1B1', 'MYL12A', 'RPL28', 'HSP90AB1', 'BMP1', 'PLOD2', 'PSMB3', 'IGFBP3', 'TIMP2', 'IGFBP7', 'B4GALT1', 'CTSB', 'CLCF1', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'KRT7', 'PRCP', 'IGFL3', 'COL4A1', 'LTBP4', 'TKT', 'IGFBP4', 'ATP6AP2', 'B2M', 'PGK1', 'CXCL1', 'MFGE8', 'FTL', 'S100A10', 'KRT8', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'GAL', 'KRT18', 'HILPDA', 'PCMT1', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'TIMP4', 'G6PD', 'MYOF', 'ALDH2', 'ALDH3A1', 'NUCB2', 'FABP5', 'ANGPTL4', 'AREG', 'AIMP1', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'CDC42', 'MT3', 'NMI', 'MYL6', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'BDNF', 'PYGL', 'ADH5', 'ANXA2', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'SERPINB1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'ECE1', 'HMGB2', 'PSMA4', 'IL18', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PSMC6', 'TNFRSF1A', 'SIRPA', 'AKR1C1', 'PDGFC', 'VCAN', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'ATXN10', 'IGFBP6', 'C1GALT1C1', 'TUBB4B', 'IL11', 'CCT3', 'CTNNB1', 'COL1A1', 'DDX5', 'AGR2', 'LMAN1', 'VIM', 'KRT81', 'HSP90AA1', 'CXCL8', 'PPP1CB', 'SPP1', 'ST3GAL1', 'STC1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IMP', 'HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['IBA'], ['HDA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['IMP', 'HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IBA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'CLCF1', 'SVIP', 'ITGB4', 'ST3GAL1', 'MYOF', 'STC1', 'ECH1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'VCAN', 'KRT8', 'BMP1', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'ANXA2', 'NPTX1', 'ATXN10', 'FUCA2', 'TKT', 'ATIC', 'PSMA4', 'VIM', 'IL18', 'COL1A1', 'WNT7A', 'ADH5', 'PDGFC', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'CCT3', 'SIRPA', 'S100A6', 'NTS', 'PCMT1', 'RSPO3', 'PSMD1', 'LYPD1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'COL4A1', 'FN1', 'B2M', 'MT3', 'CNTN1', 'ATP1B1', 'AKR1B10', 'CCDC80', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'IGFBP6', 'ACP2', 'SERINC2', 'PSMB3', 'UBB', 'CXCL5', 'TM7SF3', 'TXN', 'KRT18', 'G6PD', 'ALDH3A1', 'ANXA1', 'CXCL8', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'IGFL3', 'PRDX1', 'RAB3B', 'GAPDH', 'HSP90AA1', 'TIMP4', 'APP', 'YWHAE', 'RRAS', 'TNFRSF1A', 'CD44', 'PSMD7', 'CTNNB1', 'CTSB', 'PRCP', 'PTGR1', 'TMSB4X', 'AIMP1', 'ALDH7A1', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'CSRP1', 'PGRMC2', 'MUC5AC', 'KRT19', 'S100A4', 'HMGB2', 'PPP1CB', 'SPP1', 'ANGPTL4', 'MYL12A', 'LDHA', 'LGALS3', 'PYCARD', 'DDX5', 'ACTB', 'PSMC2', 'LAMC2', 'NPC2', 'IGFBP7', 'ANXA3', 'PSMD11', 'FABP5', 'HILPDA', 'C1orf56', 'GPX3', 'TGM2', 'ITM2B', 'SULT2B1', 'RPL26', 'LDHB', 'ALDH2', 'TGFBI', 'TUBA1A', 'SFRP1', 'TIMP2', 'HSPA1A', 'PLOD2', 'CAPG', 'CTSL', 'GAL', 'IL11', 'F2R', 'IL32', 'RDX', 'NUCB2', 'RPL28', 'CCL2', 'TUBB4B', 'AKR1B1', 'PGK1', 'LGALS1', 'S100A10', 'HPGD', 'DMKN', 'AKR1C1', 'AREG', 'UBC', 'C1GALT1C1', 'KRT81', 'SERPINE2', 'PSMC6', 'CLU', 'LTBP4', 'GLA', 'TUBA4A', 'CBR1', 'PYGL', 'CDK1', 'NMI', 'ZNHIT6', 'SLC2A3', 'AGR2', 'FTL', 'SLC26A2', 'AKR1C3', 'ILF2', 'ALDH1A1', 'COTL1', 'DNAJA1', 'SDC1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'LAMC2', 'ITM2B', 'PTGR1', 'EDN1', 'UBB', 'LYPD1', 'SDC4', 'CLU', 'CCL2', 'HSPA1A', 'IL32', 'CCDC80', 'PYGB', 'ZNHIT6', 'RSPO3', 'MUC5AC', 'ACTB', 'FUCA2', 'HSPA5', 'CNTN1', 'SLC3A2', 'CSRP1', 'CXCL5', 'DMKN', 'AKR1B1', 'MYL12A', 'RPL28', 'HSP90AB1', 'BMP1', 'PLOD2', 'PSMB3', 'IGFBP3', 'TIMP2', 'AKR1B10', 'IGFBP7', 'B4GALT1', 'CTSB', 'CLCF1', 'HPGD', 'ATIC', 'RPL26', 'GPX3', 'KRT7', 'PRCP', 'PSMC2', 'IGFL3', 'COL4A1', 'LTBP4', 'TKT', 'IGFBP4', 'ATP6AP2', 'B2M', 'PGK1', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'S100A10', 'KRT8', 'HSPB1', 'LGALS3', 'GLA', 'ITGB4', 'SDC1', 'AKR1C3', 'C1orf56', 'GAL', 'KRT18', 'HILPDA', 'PCMT1', 'YWHAE', 'SERPINE2', 'ANXA4', 'PSMD11', 'ALDH1A1', 'TIMP4', 'G6PD', 'PGRMC2', 'MYOF', 'ALDH2', 'ALDH3A1', 'NUCB2', 'FABP5', 'ANGPTL4', 'AREG', 'AIMP1', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'ALDH7A1', 'SLC26A2', 'APP', 'TUBA1A', 'APLP2', 'FGFR1', 'CDC42', 'MT3', 'NMI', 'ILF2', 'MYL6', 'S100A4', 'LGALS1', 'SVIP', 'CTSL', 'GAPDH', 'CD9', 'MYL12B', 'SULT2B1', 'SERINC2', 'JUP', 'ACP2', 'TGFBI', 'COTL1', 'BDNF', 'PYGL', 'NPTX1', 'ADH5', 'ANXA2', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'SERPINB1', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'ECE1', 'HMGB2', 'PSMA4', 'IL18', 'CBR1', 'F2R', 'TAGLN2', 'KRT19', 'CAPG', 'PSMC6', 'TNFRSF1A', 'SIRPA', 'AKR1C1', 'PDGFC', 'VCAN', 'NPC2', 'FN1', 'DNAJA1', 'RDX', 'ATXN10', 'IGFBP6', 'C1GALT1C1', 'TUBB4B', 'IL11', 'TMSB4X', 'CCT3', 'PSMD1', 'CTNNB1', 'COL1A1', 'PYCARD', 'DDX5', 'AGR2', 'LMAN1', 'VIM', 'KRT81', 'HSP90AA1', 'CXCL8', 'PPP1CB', 'SPP1', 'ST3GAL1', 'STC1', 'RAB3B', 'COL4A2', 'WNT7A', 'GSTP1', 'PACSIN3', 'RRAS', 'SLC2A3', 'SQSTM1', 'ATP1B1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['NAS'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA']]</t>
+          <t>[['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['NAS'], ['HDA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'HSD17B11', 'NIFK', 'CALM2', 'SVIP', 'ST3GAL1', 'FRMD6', 'HMGA1', 'MYOF', 'MAP1B', 'STC1', 'ECH1', 'BIRC3', 'PHLDA1', 'TXNRD2', 'HCFC1R1', 'FHL1', 'FA2H', 'CCT4', 'PHLDA2', 'SQSTM1', 'MFGE8', 'PYGB', 'REEP5', 'VCAN', 'LRRC75A', 'RASSF1', 'KRT8', 'PTP4A1', 'BMP1', 'OSBPL8', 'EDN1', 'GPX2', 'LBH', 'ECE1', 'SERPINB1', 'HNRNPH2', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'AIMP2', 'NNMT', 'ANXA2', 'NPTX1', 'ATXN10', 'FUCA2', 'TKT', 'TRIB3', 'TK1', 'ATIC', 'PHLDA3', 'PSMA4', 'VIM', 'IL18', 'COL1A1', 'CTTN', 'WNT7A', 'ADH5', 'BAMBI', 'ATP5G1', 'PDGFC', 'LACTB2', 'SPDL1', 'RBP1', 'DNER', 'CNN3', 'KLF6', 'MGST3', 'ATP6AP2', 'TAGLN2', 'MYL12B', 'TPM1', 'CCT3', 'SIRPA', 'S100A6', 'CCNB1', 'NTS', 'PCMT1', 'VRK1', 'NFKBIZ', 'CAV1', 'MT2A', 'LAS1L', 'TSC22D1', 'TMBIM6', 'MRPL13', 'RND3', 'PSMD1', 'ZFP36', 'ANXA4', 'B4GALT1', 'APLP2', 'HSPB1', 'SFPQ', 'DHRS3', 'HSP90AB1', 'MYL6', 'COL4A1', 'SCD', 'FN1', 'B2M', 'FBXO22', 'MT3', 'AKR1B10', 'ID3', 'SDC4', 'CDK5RAP1', 'JUP', 'TMPO', 'BDNF', 'GSTP1', 'CCDC85B', 'PRMT5', 'FDXR', 'ACP2', 'LACTB', 'CREM', 'PSMB3', 'PERP', 'UBB', 'PLEK2', 'ULK1', 'TUBA1B', 'NEK7', 'KYNU', 'ETFB', 'NFKB2', 'TXN', 'KRT18', 'DUSP1', 'SPHK1', 'MLXIP', 'POLR2L', 'G6PD', 'ALDH3A1', 'ANXA1', 'SOX4', 'NUP37', 'AHNAK2', 'LMAN1', 'CD63', 'COL4A2', 'PACSIN3', 'KRT7', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'LCE3D', 'GAPDH', 'LMNA', 'GALNT14', 'MT1F', 'DHRS2', 'TMSB10', 'ANTXR1', 'HSP90AA1', 'WIPI1', 'BZW1', 'APP', 'YWHAE', 'TNFRSF1A', 'CD44', 'ADA', 'PSMD7', 'AP1M2', 'CTNNB1', 'CTSB', 'NUDT19', 'MT-ND6', 'PRCP', 'RGS3', 'PDHA1', 'HACD3', 'PTGR1', 'TMSB4X', 'AIMP1', 'EPHX1', 'CALB2', 'FEN1', 'ALDH7A1', 'TROAP', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'CSRP1', 'PGRMC2', 'BLOC1S2', 'PUS1', 'MUC5AC', 'ZFAS1', 'KRT19', 'S100A4', 'UPF3B', 'RAP1GAP', 'EIF1', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'CHCHD10', 'SPP1', 'UBR4', 'BCL2A1', 'LAPTM4A', 'MYL12A', 'TPM2', 'LDHA', 'LGALS3', 'CPLX2', 'PDLIM5', 'SKIL', 'PYCARD', 'DDX5', 'ACTB', 'PTTG1', 'PSMC2', 'LAMC2', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'ANXA3', 'CDC42SE1', 'PSMD11', 'FABP5', 'SPATS2', 'PDLIM2', 'CALD1', 'KPNA2', 'HILPDA', 'NPM1', 'DERL1', 'EPAS1', 'TGM2', 'ITM2B', 'BCL2L1', 'SULT2B1', 'KIF23', 'RPL26', 'NEK6', 'SAT1', 'SRP54', 'NUAK1', 'LDHB', 'ALDH2', 'CCND1', 'TGFBI', 'TUBA1A', 'SFRP1', 'ODC1', 'TP53I3', 'TIMP2', 'HSPA1A', 'DYNLL1', 'PLOD2', 'TPD52', 'CAPG', 'CTSL', 'ARHGAP29', 'RNF182', 'MGST1', 'BCCIP', 'OCIAD2', 'GAL', 'CXXC5', 'IL11', 'PLK2', 'F2R', 'CYB5A', 'IL32', 'PTGES3', 'PGM2L1', 'RDX', 'NUCB2', 'AIFM1', 'CDK2AP2', 'RPL28', 'PLK1', 'TUBB4B', 'CKAP2L', 'AKR1B1', 'F2RL1', 'PGK1', 'AATF', 'LGALS1', 'S100A10', 'HPGD', 'AKR1C1', 'MT1X', 'DRAM1', 'AREG', 'UBC', 'UBE2C', 'NAP1L1', 'TSFM', 'MYO10', 'C1GALT1C1', 'KRT81', 'VPS29', 'SERPINE2', 'PSMC6', 'CLU', 'PMEPA1', 'NQO1', 'GLA', 'TUBA4A', 'TOP2A', 'CBR1', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'PYGL', 'CDK1', 'TIGAR', 'NMI', 'SLC2A3', 'AGR2', 'DHRS7', 'FTL', 'ELF3', 'AKR1C3', 'ILF2', 'ALDH1A1', 'ETHE1', 'COTL1', 'CYP24A1', 'DNAJA1', 'FILIP1', 'CDKN1A', 'SDC1']</t>
+          <t>['CD44', 'MRPL13', 'LDHB', 'CD63', 'ANXA3', 'CCT4', 'LDHA', 'LAMC2', 'ITM2B', 'NQO1', 'PTGR1', 'DYNLL1', 'PDHA1', 'EDN1', 'OCIAD2', 'UBB', 'HNRNPH1', 'NNMT', 'ETHE1', 'KLF6', 'KIF23', 'SDC4', 'CLU', 'CAV1', 'HSPA1A', 'PDLIM5', 'REEP5', 'TMSB10', 'IL32', 'NAP1L1', 'PYGB', 'ATP5G1', 'TOP2A', 'RASSF1', 'TUBA1B', 'NFKBIZ', 'DERL1', 'MAP1B', 'CDK2AP2', 'MUC5AC', 'AATF', 'ACTB', 'FUCA2', 'HSPA5', 'RND1', 'CHCHD10', 'GALNT14', 'SLC3A2', 'CSRP1', 'UPF3B', 'AKR1B1', 'UBR4', 'MYL12A', 'RPL28', 'TPD52', 'TMBIM6', 'ID3', 'POLR2L', 'HSP90AB1', 'BMP1', 'DRAM1', 'PLOD2', 'PSMB3', 'CTTN', 'IGFBP3', 'TIMP2', 'AKR1B10', 'IGFBP7', 'B4GALT1', 'CTSB', 'CALB2', 'HPGD', 'ATIC', 'RPL26', 'CDC42SE1', 'BCL2L1', 'CCNB1', 'KRT7', 'PRCP', 'NUP37', 'FRMD6', 'SPDL1', 'MT2A', 'PSMC2', 'FILIP1', 'COL4A1', 'SCD', 'WIPI1', 'TKT', 'CCND1', 'IGFBP4', 'ATP6AP2', 'B2M', 'PTTG1', 'RBP1', 'PGK1', 'OSBPL8', 'UBE2S', 'HMGA1', 'CKAP2L', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'CPLX2', 'FBXO22', 'DNER', 'S100A10', 'KRT8', 'PLK2', 'LAPTM4A', 'HSPB1', 'LGALS3', 'GLA', 'LCE3D', 'SDC1', 'C15orf48', 'AKR1C3', 'EPHX1', 'HACD3', 'GAL', 'NUDT19', 'KRT18', 'NUAK1', 'HILPDA', 'CYP24A1', 'F2RL1', 'BAMBI', 'PCMT1', 'RND3', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'PHLDA1', 'SERPINE2', 'ANXA4', 'PSMD11', 'NIFK', 'ALDH1A1', 'G6PD', 'MYO10', 'PGRMC2', 'ETFB', 'MYOF', 'PERP', 'ALDH2', 'ALDH3A1', 'PGM2L1', 'NUCB2', 'ARHGAP29', 'FABP5', 'AREG', 'AIMP1', 'TXN', 'HSPA2', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TSFM', 'TGM2', 'ALDH7A1', 'ODC1', 'APP', 'PHLDA2', 'PDLIM2', 'TUBA1A', 'APLP2', 'EIF1', 'NEK6', 'FGFR1', 'MICAL2', 'LMNA', 'CDC42', 'FDXR', 'AIMP2', 'CREM', 'MT3', 'CDKN1A', 'AHNAK2', 'DHRS3', 'NMI', 'CXXC5', 'ILF2', 'CALD1', 'MYL6', 'CALM2', 'S100A4', 'LGALS1', 'CYB5A', 'SVIP', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'DHRS7', 'TK1', 'NPM1', 'CD9', 'LRRC75A', 'MYL12B', 'ZFAS1', 'SULT2B1', 'LBH', 'FHL1', 'JUP', 'TIGAR', 'LAS1L', 'ACP2', 'TGFBI', 'RNF182', 'TXNRD2', 'TSC22D1', 'COTL1', 'PTP4A1', 'NFKB2', 'BDNF', 'SFPQ', 'PYGL', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'ADH5', 'SAT1', 'BLOC1S2', 'HSD17B11', 'TRIB3', 'ANXA2', 'ELF3', 'ANTXR1', 'S100A6', 'CNN3', 'TUBA4A', 'MGST1', 'CDK1', 'MT-ND6', 'SERPINE1', 'PRMT5', 'SERPINB1', 'TROAP', 'SPHK1', 'HNRNPH2', 'SRP54', 'ECH1', 'SFRP1', 'PSMD7', 'MOB3B', 'UBC', 'SKIL', 'ECE1', 'SPATS2', 'HMGB2', 'PSMA4', 'CCDC85B', 'BIRC3', 'IL18', 'LACTB2', 'CBR1', 'F2R', 'TAGLN2', 'MT1X', 'AP1M2', 'TUBA1C', 'KRT19', 'CAPG', 'PSMC6', 'RGS3', 'TSPAN15', 'TNFRSF1A', 'SIRPA', 'AKR1C1', 'PDGFC', 'VCAN', 'NPC2', 'DUSP1', 'TMPO', 'FN1', 'DNAJA1', 'RDX', 'EPAS1', 'BCCIP', 'AIFM1', 'ADA', 'ATXN10', 'TP53I3', 'VRK1', 'C1GALT1C1', 'LACTB', 'TUBB4B', 'IL11', 'TMSB4X', 'CCT3', 'PSMD1', 'CDK5RAP1', 'CTNNB1', 'COL1A1', 'RAP1GAP', 'HCFC1R1', 'PYCARD', 'DDX5', 'AGR2', 'FA2H', 'LMAN1', 'GPX2', 'BCL2A1', 'VIM', 'KRT81', 'FEN1', 'HSP90AA1', 'VPS29', 'BZW1', 'PPP1CB', 'SPP1', 'ST3GAL1', 'STC1', 'ZFP36', 'RAB3B', 'COL4A2', 'MLXIP', 'CDKN3', 'TPM1', 'WNT7A', 'SOX4', 'GSTP1', 'KPNA2', 'PACSIN3', 'PHLDA3', 'NEK7', 'SLC2A3', 'PTGES3', 'SQSTM1', 'PLEK2', 'MT1F', 'PRDX1', 'PLK1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IBA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IC'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['HTP'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS']]</t>
+          <t>[['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['HTP', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1102,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'SVIP', 'MYOF', 'PHLDA1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'PTP4A1', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'SLC3A2', 'ANXA2', 'NPTX1', 'FUCA2', 'VIM', 'COL1A1', 'CTTN', 'WNT7A', 'DNER', 'ATP6AP2', 'SIRPA', 'NTS', 'CAV1', 'PSMD1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSP90AB1', 'FN1', 'B2M', 'MT3', 'JUP', 'BDNF', 'GSTP1', 'UBB', 'ULK1', 'SPHK1', 'ANXA1', 'LMAN1', 'CD63', 'PACSIN3', 'PRDX1', 'RAB3B', 'ANTXR1', 'HSP90AA1', 'WIPI1', 'APP', 'YWHAE', 'CD44', 'ADA', 'PSMD7', 'AP1M2', 'CTSB', 'PRCP', 'TMSB4X', 'CDC42', 'HSPA5', 'FGFR1', 'RAP1GAP', 'UBR4', 'LAPTM4A', 'LGALS3', 'SKIL', 'PYCARD', 'PSMC2', 'NPC2', 'ANXA3', 'PSMD11', 'FABP5', 'HILPDA', 'DERL1', 'ITM2B', 'BCL2L1', 'TUBA1A', 'TIMP2', 'HSPA1A', 'DYNLL1', 'CAPG', 'CTSL', 'MGST1', 'OCIAD2', 'GAL', 'F2R', 'TUBB4B', 'F2RL1', 'AREG', 'UBC', 'NAP1L1', 'VPS29', 'SERPINE2', 'CLU', 'PMEPA1', 'GLA', 'TSPAN15', 'PYGL', 'SLC2A3', 'FTL', 'ILF2', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'CCT4', 'ITM2B', 'DYNLL1', 'EDN1', 'OCIAD2', 'UBB', 'CLU', 'CAV1', 'HSPA1A', 'NAP1L1', 'PYGB', 'DERL1', 'FUCA2', 'HSPA5', 'SLC3A2', 'UBR4', 'HSP90AB1', 'CTTN', 'TIMP2', 'B4GALT1', 'CTSB', 'BCL2L1', 'PRCP', 'PSMC2', 'WIPI1', 'ATP6AP2', 'B2M', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'DNER', 'LAPTM4A', 'LGALS3', 'GLA', 'GAL', 'HILPDA', 'F2RL1', 'YWHAE', 'PMEPA1', 'PHLDA1', 'SERPINE2', 'ANXA4', 'PSMD11', 'MYOF', 'FABP5', 'AREG', 'ANXA1', 'APP', 'TUBA1A', 'APLP2', 'FGFR1', 'CDC42', 'MT3', 'ILF2', 'SVIP', 'CTSL', 'ULK1', 'CD9', 'JUP', 'COTL1', 'PTP4A1', 'BDNF', 'PYGL', 'NPTX1', 'ANXA2', 'ANTXR1', 'MGST1', 'SERPINE1', 'SERPINB1', 'SPHK1', 'PSMD7', 'UBC', 'SKIL', 'ECE1', 'F2R', 'AP1M2', 'CAPG', 'TSPAN15', 'SIRPA', 'NPC2', 'FN1', 'ADA', 'TUBB4B', 'TMSB4X', 'PSMD1', 'COL1A1', 'RAP1GAP', 'PYCARD', 'LMAN1', 'VIM', 'HSP90AA1', 'VPS29', 'RAB3B', 'WNT7A', 'GSTP1', 'PACSIN3', 'SLC2A3', 'SQSTM1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['IDA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS']]</t>
+          <t>[['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS'], ['IBA'], ['TAS'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'SVIP', 'MYOF', 'PHLDA1', 'CCT4', 'SQSTM1', 'MFGE8', 'PYGB', 'PTP4A1', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'SLC3A2', 'ANXA2', 'NPTX1', 'FUCA2', 'VIM', 'COL1A1', 'CTTN', 'WNT7A', 'DNER', 'ATP6AP2', 'SIRPA', 'NTS', 'CAV1', 'PSMD1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSP90AB1', 'FN1', 'B2M', 'MT3', 'JUP', 'BDNF', 'GSTP1', 'UBB', 'ULK1', 'SPHK1', 'ANXA1', 'LMAN1', 'CD63', 'PACSIN3', 'PRDX1', 'RAB3B', 'ANTXR1', 'HSP90AA1', 'WIPI1', 'APP', 'YWHAE', 'CD44', 'ADA', 'PSMD7', 'AP1M2', 'CTSB', 'PRCP', 'TMSB4X', 'CDC42', 'HSPA5', 'FGFR1', 'RAP1GAP', 'UBR4', 'LAPTM4A', 'LGALS3', 'SKIL', 'PYCARD', 'PSMC2', 'NPC2', 'ANXA3', 'PSMD11', 'FABP5', 'HILPDA', 'DERL1', 'ITM2B', 'BCL2L1', 'TUBA1A', 'TIMP2', 'HSPA1A', 'DYNLL1', 'CAPG', 'CTSL', 'MGST1', 'OCIAD2', 'GAL', 'F2R', 'TUBB4B', 'F2RL1', 'AREG', 'UBC', 'NAP1L1', 'VPS29', 'SERPINE2', 'CLU', 'PMEPA1', 'GLA', 'TSPAN15', 'PYGL', 'SLC2A3', 'FTL', 'ILF2', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'CCT4', 'ITM2B', 'DYNLL1', 'EDN1', 'OCIAD2', 'UBB', 'CLU', 'CAV1', 'HSPA1A', 'NAP1L1', 'PYGB', 'DERL1', 'FUCA2', 'HSPA5', 'SLC3A2', 'UBR4', 'HSP90AB1', 'CTTN', 'TIMP2', 'B4GALT1', 'CTSB', 'BCL2L1', 'PRCP', 'PSMC2', 'WIPI1', 'ATP6AP2', 'B2M', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'DNER', 'LAPTM4A', 'LGALS3', 'GLA', 'GAL', 'HILPDA', 'F2RL1', 'YWHAE', 'PMEPA1', 'PHLDA1', 'SERPINE2', 'ANXA4', 'PSMD11', 'MYOF', 'FABP5', 'AREG', 'ANXA1', 'APP', 'TUBA1A', 'APLP2', 'FGFR1', 'CDC42', 'MT3', 'ILF2', 'SVIP', 'CTSL', 'ULK1', 'CD9', 'JUP', 'COTL1', 'PTP4A1', 'BDNF', 'PYGL', 'NPTX1', 'ANXA2', 'ANTXR1', 'MGST1', 'SERPINE1', 'SERPINB1', 'SPHK1', 'PSMD7', 'UBC', 'SKIL', 'ECE1', 'F2R', 'AP1M2', 'CAPG', 'TSPAN15', 'SIRPA', 'NPC2', 'FN1', 'ADA', 'TUBB4B', 'TMSB4X', 'PSMD1', 'COL1A1', 'RAP1GAP', 'PYCARD', 'LMAN1', 'VIM', 'HSP90AA1', 'VPS29', 'RAB3B', 'WNT7A', 'GSTP1', 'PACSIN3', 'SLC2A3', 'SQSTM1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['IDA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS']]</t>
+          <t>[['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS'], ['IBA'], ['TAS'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'SVIP', 'MFGE8', 'PYGB', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'ANXA2', 'FUCA2', 'COL1A1', 'ATP6AP2', 'SIRPA', 'CAV1', 'PSMD1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSP90AB1', 'FN1', 'B2M', 'JUP', 'GSTP1', 'CD63', 'HSP90AA1', 'APP', 'CD44', 'PSMD7', 'CTSB', 'PRCP', 'TMSB4X', 'CDC42', 'UBR4', 'LGALS3', 'SKIL', 'PYCARD', 'PSMC2', 'NPC2', 'ANXA3', 'PSMD11', 'FABP5', 'HILPDA', 'TIMP2', 'HSPA1A', 'DYNLL1', 'CTSL', 'MGST1', 'GAL', 'TUBB4B', 'SERPINE2', 'CLU', 'GLA', 'PYGL', 'SLC2A3', 'FTL', 'ILF2', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'DYNLL1', 'EDN1', 'CLU', 'CAV1', 'HSPA1A', 'PYGB', 'FUCA2', 'UBR4', 'HSP90AB1', 'TIMP2', 'B4GALT1', 'CTSB', 'PRCP', 'PSMC2', 'ATP6AP2', 'B2M', 'CXCL1', 'MFGE8', 'FTL', 'LGALS3', 'GLA', 'GAL', 'HILPDA', 'SERPINE2', 'ANXA4', 'PSMD11', 'FABP5', 'APP', 'APLP2', 'CDC42', 'ILF2', 'SVIP', 'CTSL', 'CD9', 'JUP', 'COTL1', 'PYGL', 'ANXA2', 'MGST1', 'SERPINE1', 'SERPINB1', 'PSMD7', 'SKIL', 'ECE1', 'SIRPA', 'NPC2', 'FN1', 'TUBB4B', 'TMSB4X', 'PSMD1', 'COL1A1', 'PYCARD', 'HSP90AA1', 'GSTP1', 'SLC2A3']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['HSPA2', 'HSD17B11', 'CALM2', 'HMGA1', 'MAP1B', 'ECH1', 'BIRC3', 'PHLDA1', 'TXNRD2', 'FHL1', 'CCT4', 'SQSTM1', 'KRT8', 'OSBPL8', 'GPX2', 'HNRNPH2', 'AIMP2', 'NNMT', 'ANXA2', 'ATXN10', 'TKT', 'TRIB3', 'TK1', 'ATIC', 'PSMA4', 'VIM', 'IL18', 'CTTN', 'ADH5', 'PDGFC', 'SPDL1', 'RBP1', 'CNN3', 'KLF6', 'TAGLN2', 'MYL12B', 'TPM1', 'CCT3', 'S100A6', 'CCNB1', 'PCMT1', 'VRK1', 'MT2A', 'LAS1L', 'TSC22D1', 'RND3', 'PSMD1', 'ZFP36', 'HSPB1', 'SFPQ', 'HSP90AB1', 'MYL6', 'B2M', 'FBXO22', 'MT3', 'AKR1B10', 'CDK5RAP1', 'JUP', 'GSTP1', 'PRMT5', 'LACTB', 'PSMB3', 'UBB', 'ULK1', 'KYNU', 'NFKB2', 'TXN', 'KRT18', 'SPHK1', 'POLR2L', 'G6PD', 'ALDH3A1', 'ANXA1', 'NUP37', 'AHNAK2', 'PACSIN3', 'KRT7', 'PRDX1', 'RND1', 'LCE3D', 'GAPDH', 'LMNA', 'HSP90AA1', 'WIPI1', 'APP', 'YWHAE', 'CD44', 'ADA', 'PSMD7', 'AP1M2', 'CTNNB1', 'NUDT19', 'RGS3', 'TMSB4X', 'AIMP1', 'CALB2', 'ALDH7A1', 'CDC42', 'HSPA5', 'FGFR1', 'BLOC1S2', 'KRT19', 'S100A4', 'UPF3B', 'RAP1GAP', 'ARL6IP1', 'PPP1CB', 'UBR4', 'BCL2A1', 'MYL12A', 'TPM2', 'LDHA', 'LGALS3', 'CPLX2', 'PDLIM5', 'PYCARD', 'DDX5', 'ACTB', 'PTTG1', 'PSMC2', 'CDKN3', 'PSMD11', 'FABP5', 'SPATS2', 'CALD1', 'KPNA2', 'HILPDA', 'NPM1', 'EPAS1', 'TGM2', 'BCL2L1', 'SULT2B1', 'KIF23', 'RPL26', 'NEK6', 'SAT1', 'SRP54', 'LDHB', 'CCND1', 'TUBA1A', 'SFRP1', 'ODC1', 'TP53I3', 'HSPA1A', 'DYNLL1', 'ARHGAP29', 'BCCIP', 'CXXC5', 'PLK2', 'CYB5A', 'IL32', 'PTGES3', 'PGM2L1', 'NUCB2', 'AIFM1', 'RPL28', 'PLK1', 'TUBB4B', 'CKAP2L', 'AKR1B1', 'PGK1', 'LGALS1', 'HPGD', 'AKR1C1', 'UBC', 'UBE2C', 'MYO10', 'KRT81', 'VPS29', 'SERPINE2', 'PSMC6', 'CLU', 'NQO1', 'TUBA4A', 'CBR1', 'HNRNPH1', 'UBE2S', 'TSPAN15', 'PYGL', 'CDK1', 'TIGAR', 'NMI', 'FTL', 'ELF3', 'AKR1C3', 'ILF2', 'ALDH1A1', 'COTL1', 'DNAJA1', 'FILIP1', 'CDKN1A']</t>
+          <t>['CD44', 'LDHB', 'CCT4', 'LDHA', 'NQO1', 'DYNLL1', 'UBB', 'HNRNPH1', 'NNMT', 'KLF6', 'KIF23', 'CLU', 'HSPA1A', 'PDLIM5', 'IL32', 'MAP1B', 'ACTB', 'HSPA5', 'RND1', 'UPF3B', 'AKR1B1', 'UBR4', 'MYL12A', 'RPL28', 'POLR2L', 'HSP90AB1', 'PSMB3', 'CTTN', 'AKR1B10', 'CALB2', 'HPGD', 'ATIC', 'RPL26', 'BCL2L1', 'CCNB1', 'KRT7', 'NUP37', 'SPDL1', 'MT2A', 'PSMC2', 'FILIP1', 'WIPI1', 'TKT', 'CCND1', 'B2M', 'PTTG1', 'RBP1', 'PGK1', 'OSBPL8', 'UBE2S', 'HMGA1', 'CKAP2L', 'FTL', 'CPLX2', 'FBXO22', 'KRT8', 'PLK2', 'HSPB1', 'LGALS3', 'LCE3D', 'AKR1C3', 'NUDT19', 'KRT18', 'HILPDA', 'PCMT1', 'RND3', 'KYNU', 'YWHAE', 'PHLDA1', 'SERPINE2', 'PSMD11', 'ALDH1A1', 'G6PD', 'MYO10', 'ALDH3A1', 'PGM2L1', 'NUCB2', 'ARHGAP29', 'FABP5', 'AIMP1', 'TXN', 'HSPA2', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'ALDH7A1', 'ODC1', 'APP', 'TUBA1A', 'NEK6', 'FGFR1', 'LMNA', 'CDC42', 'AIMP2', 'MT3', 'CDKN1A', 'AHNAK2', 'NMI', 'CXXC5', 'ILF2', 'CALD1', 'MYL6', 'CALM2', 'S100A4', 'LGALS1', 'CYB5A', 'GAPDH', 'ULK1', 'TK1', 'NPM1', 'MYL12B', 'SULT2B1', 'FHL1', 'JUP', 'TIGAR', 'LAS1L', 'TXNRD2', 'TSC22D1', 'COTL1', 'NFKB2', 'SFPQ', 'PYGL', 'TPM2', 'ADH5', 'SAT1', 'BLOC1S2', 'HSD17B11', 'TRIB3', 'ANXA2', 'ELF3', 'S100A6', 'CNN3', 'TUBA4A', 'CDK1', 'PRMT5', 'SPHK1', 'HNRNPH2', 'SRP54', 'ECH1', 'SFRP1', 'PSMD7', 'UBC', 'SPATS2', 'PSMA4', 'BIRC3', 'IL18', 'CBR1', 'TAGLN2', 'AP1M2', 'KRT19', 'PSMC6', 'RGS3', 'TSPAN15', 'AKR1C1', 'PDGFC', 'DNAJA1', 'EPAS1', 'BCCIP', 'AIFM1', 'ADA', 'ATXN10', 'TP53I3', 'VRK1', 'LACTB', 'TUBB4B', 'TMSB4X', 'CCT3', 'PSMD1', 'CDK5RAP1', 'CTNNB1', 'RAP1GAP', 'PYCARD', 'DDX5', 'GPX2', 'BCL2A1', 'VIM', 'KRT81', 'HSP90AA1', 'VPS29', 'PPP1CB', 'ZFP36', 'CDKN3', 'TPM1', 'GSTP1', 'KPNA2', 'PACSIN3', 'PTGES3', 'SQSTM1', 'PRDX1', 'PLK1']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IEA'], ['IBA'], ['IBA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS', 'IEA']]</t>
+          <t>[['IDA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA'], ['IBA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['BIRC3', 'RASSF1', 'AIMP2', 'TRIB3', 'CAV1', 'UBB', 'SPHK1', 'HSPA5', 'DERL1', 'PLK1', 'UBE2C', 'UBE2S', 'NMI']</t>
+          <t>['UBB', 'CAV1', 'RASSF1', 'DERL1', 'HSPA5', 'UBE2S', 'UBE2C', 'AIMP2', 'NMI', 'TRIB3', 'SPHK1', 'BIRC3', 'PLK1']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS'], ['IMP'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['TAS'], ['IDA'], ['IEA']]</t>
+          <t>[['IDA', 'IMP'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['IEA'], ['IEA'], ['ISS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP']]</t>
         </is>
       </c>
     </row>
@@ -1432,12 +1432,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'CLCF1', 'ST3GAL1', 'BIRC3', 'PHLDA1', 'PHLDA2', 'SQSTM1', 'KRT8', 'EMP3', 'EDN1', 'AIMP2', 'ANXA2', 'NPTX1', 'ITGA6', 'TRIB3', 'HMGA2', 'PHLDA3', 'CTTN', 'WNT7A', 'CD24', 'HELLS', 'NFKBIZ', 'CAV1', 'TSC22D1', 'TMBIM6', 'ZFP36', 'ANXA4', 'B4GALT1', 'HSPB1', 'SFPQ', 'HSP90AB1', 'MT3', 'ID3', 'BDNF', 'GSTP1', 'PERP', 'UBB', 'TM7SF3', 'KRT18', 'SPHK1', 'JUN', 'G6PD', 'ANXA1', 'SOX4', 'AMIGO2', 'GAPDH', 'LMNA', 'DHRS2', 'HSP90AA1', 'APP', 'TNFRSF1A', 'CD44', 'ADA', 'CTNNB1', 'CTSB', 'AIMP1', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'BLOC1S2', 'SLC7A11', 'ARL6IP1', 'HMGB2', 'CHCHD10', 'ANGPTL4', 'BCL2A1', 'LGALS3', 'SKIL', 'PYCARD', 'DDX5', 'ACTB', 'NPM1', 'TGM2', 'BCL2L1', 'RPL26', 'NEK6', 'CCND1', 'TUBA1A', 'SFRP1', 'HSPA1A', 'DYNLL1', 'CTSL', 'GAL', 'PLK2', 'F2R', 'AIFM1', 'CCL2', 'PLK1', 'AKR1B1', 'F2RL1', 'AATF', 'LGALS1', 'HPGD', 'DRAM1', 'CLU', 'NQO1', 'TOP2A', 'PYGL', 'CDK1', 'TIGAR', 'AKR1C3', 'DNAJA1', 'CDKN1A']</t>
+          <t>['CD44', 'TM7SF3', 'NQO1', 'DYNLL1', 'EDN1', 'UBB', 'CLU', 'CAV1', 'CCL2', 'HSPA1A', 'JUN', 'TOP2A', 'NFKBIZ', 'AATF', 'ACTB', 'HSPA5', 'CHCHD10', 'AKR1B1', 'TMBIM6', 'EMP3', 'ID3', 'HSP90AB1', 'DRAM1', 'CTTN', 'IGFBP3', 'B4GALT1', 'CTSB', 'CLCF1', 'HPGD', 'ITGA6', 'RPL26', 'BCL2L1', 'CCND1', 'CD24', 'KRT8', 'PLK2', 'HSPB1', 'LGALS3', 'AKR1C3', 'GAL', 'KRT18', 'F2RL1', 'DHRS2', 'PHLDA1', 'ANXA4', 'G6PD', 'PERP', 'SLC7A11', 'ANGPTL4', 'AIMP1', 'ANXA1', 'ARL6IP1', 'TGM2', 'APP', 'PHLDA2', 'TUBA1A', 'NEK6', 'FGFR1', 'LMNA', 'CDC42', 'AIMP2', 'MT3', 'CDKN1A', 'HELLS', 'LGALS1', 'CTSL', 'GAPDH', 'NPM1', 'TIGAR', 'TSC22D1', 'BDNF', 'SFPQ', 'PYGL', 'NPTX1', 'BLOC1S2', 'TRIB3', 'ANXA2', 'HMGA2', 'CDK1', 'SERPINE1', 'SPHK1', 'SFRP1', 'SKIL', 'HMGB2', 'BIRC3', 'F2R', 'TNFRSF1A', 'DNAJA1', 'AMIGO2', 'AIFM1', 'ADA', 'CTNNB1', 'PYCARD', 'DDX5', 'BCL2A1', 'HSP90AA1', 'ST3GAL1', 'ZFP36', 'WNT7A', 'SOX4', 'GSTP1', 'PHLDA3', 'SQSTM1', 'PLK1']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IGI'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'NAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['IBA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['TAS', 'IEA']]</t>
+          <t>[['IDA', 'IMP'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['NAS'], ['IMP', 'TAS'], ['IMP'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IMP', 'IGI'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'CLCF1', 'ST3GAL1', 'BIRC3', 'PHLDA1', 'PHLDA2', 'SQSTM1', 'KRT8', 'EMP3', 'EDN1', 'AIMP2', 'ANXA2', 'NPTX1', 'ITGA6', 'TRIB3', 'HMGA2', 'PHLDA3', 'CTTN', 'WNT7A', 'CD24', 'HELLS', 'NFKBIZ', 'CAV1', 'TSC22D1', 'TMBIM6', 'ZFP36', 'ANXA4', 'B4GALT1', 'HSPB1', 'SFPQ', 'HSP90AB1', 'MT3', 'ID3', 'BDNF', 'GSTP1', 'PERP', 'UBB', 'TM7SF3', 'KRT18', 'SPHK1', 'JUN', 'G6PD', 'ANXA1', 'SOX4', 'AMIGO2', 'GAPDH', 'LMNA', 'DHRS2', 'HSP90AA1', 'APP', 'TNFRSF1A', 'CD44', 'ADA', 'CTNNB1', 'CTSB', 'AIMP1', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'BLOC1S2', 'SLC7A11', 'ARL6IP1', 'HMGB2', 'CHCHD10', 'ANGPTL4', 'BCL2A1', 'LGALS3', 'SKIL', 'PYCARD', 'DDX5', 'ACTB', 'NPM1', 'TGM2', 'BCL2L1', 'RPL26', 'NEK6', 'CCND1', 'TUBA1A', 'SFRP1', 'HSPA1A', 'DYNLL1', 'CTSL', 'GAL', 'PLK2', 'F2R', 'AIFM1', 'CCL2', 'PLK1', 'AKR1B1', 'F2RL1', 'AATF', 'LGALS1', 'HPGD', 'DRAM1', 'CLU', 'NQO1', 'TOP2A', 'PYGL', 'CDK1', 'TIGAR', 'AKR1C3', 'DNAJA1', 'CDKN1A']</t>
+          <t>['CD44', 'TM7SF3', 'NQO1', 'DYNLL1', 'EDN1', 'UBB', 'CLU', 'CAV1', 'CCL2', 'HSPA1A', 'JUN', 'TOP2A', 'NFKBIZ', 'AATF', 'ACTB', 'HSPA5', 'CHCHD10', 'AKR1B1', 'TMBIM6', 'EMP3', 'ID3', 'HSP90AB1', 'DRAM1', 'CTTN', 'IGFBP3', 'B4GALT1', 'CTSB', 'CLCF1', 'HPGD', 'ITGA6', 'RPL26', 'BCL2L1', 'CCND1', 'CD24', 'KRT8', 'PLK2', 'HSPB1', 'LGALS3', 'AKR1C3', 'GAL', 'KRT18', 'F2RL1', 'DHRS2', 'PHLDA1', 'ANXA4', 'G6PD', 'PERP', 'SLC7A11', 'ANGPTL4', 'AIMP1', 'ANXA1', 'ARL6IP1', 'TGM2', 'APP', 'PHLDA2', 'TUBA1A', 'NEK6', 'FGFR1', 'LMNA', 'CDC42', 'AIMP2', 'MT3', 'CDKN1A', 'HELLS', 'LGALS1', 'CTSL', 'GAPDH', 'NPM1', 'TIGAR', 'TSC22D1', 'BDNF', 'SFPQ', 'PYGL', 'NPTX1', 'BLOC1S2', 'TRIB3', 'ANXA2', 'HMGA2', 'CDK1', 'SERPINE1', 'SPHK1', 'SFRP1', 'SKIL', 'HMGB2', 'BIRC3', 'F2R', 'TNFRSF1A', 'DNAJA1', 'AMIGO2', 'AIFM1', 'ADA', 'CTNNB1', 'PYCARD', 'DDX5', 'BCL2A1', 'HSP90AA1', 'ST3GAL1', 'ZFP36', 'WNT7A', 'SOX4', 'GSTP1', 'PHLDA3', 'SQSTM1', 'PLK1']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IGI'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'NAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['IBA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['TAS', 'IEA']]</t>
+          <t>[['IDA', 'IMP'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['NAS'], ['IMP', 'TAS'], ['IMP'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IMP', 'IGI'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'SVIP', 'MYOF', 'MFGE8', 'PYGB', 'EDN1', 'ECE1', 'SERPINB1', 'CXCL1', 'CD9', 'ANXA2', 'FUCA2', 'COL1A1', 'ATP6AP2', 'SIRPA', 'CAV1', 'PSMD1', 'ANXA4', 'B4GALT1', 'APLP2', 'HSP90AB1', 'FN1', 'B2M', 'MT3', 'JUP', 'BDNF', 'GSTP1', 'CD63', 'RAB3B', 'HSP90AA1', 'APP', 'CD44', 'PSMD7', 'CTSB', 'PRCP', 'TMSB4X', 'CDC42', 'UBR4', 'LGALS3', 'SKIL', 'PYCARD', 'PSMC2', 'NPC2', 'ANXA3', 'PSMD11', 'FABP5', 'HILPDA', 'BCL2L1', 'TIMP2', 'HSPA1A', 'DYNLL1', 'CTSL', 'MGST1', 'GAL', 'TUBB4B', 'SERPINE2', 'CLU', 'GLA', 'PYGL', 'SLC2A3', 'FTL', 'ILF2', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'DYNLL1', 'EDN1', 'CLU', 'CAV1', 'HSPA1A', 'PYGB', 'FUCA2', 'UBR4', 'HSP90AB1', 'TIMP2', 'B4GALT1', 'CTSB', 'BCL2L1', 'PRCP', 'PSMC2', 'ATP6AP2', 'B2M', 'CXCL1', 'MFGE8', 'FTL', 'LGALS3', 'GLA', 'GAL', 'HILPDA', 'SERPINE2', 'ANXA4', 'PSMD11', 'MYOF', 'FABP5', 'APP', 'APLP2', 'CDC42', 'MT3', 'ILF2', 'SVIP', 'CTSL', 'CD9', 'JUP', 'COTL1', 'BDNF', 'PYGL', 'ANXA2', 'MGST1', 'SERPINE1', 'SERPINB1', 'PSMD7', 'SKIL', 'ECE1', 'SIRPA', 'NPC2', 'FN1', 'TUBB4B', 'TMSB4X', 'PSMD1', 'COL1A1', 'PYCARD', 'HSP90AA1', 'RAB3B', 'GSTP1', 'SLC2A3']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['IBA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['IBA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.864244082801096e-14</v>
+        <v>2.263196102740603e-14</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>465</v>
       </c>
       <c r="H2" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I2" t="n">
         <v>153</v>
@@ -1714,7 +1714,7 @@
         <v>2717</v>
       </c>
       <c r="K2" t="n">
-        <v>0.31875</v>
+        <v>0.3194154488517745</v>
       </c>
       <c r="L2" t="n">
         <v>0.3290322580645161</v>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'PSMB1', 'SVIP', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'SQSTM1', 'PSMA5', 'TUBB', 'HSPD1', 'FLOT1', 'KRT8', 'LTBP3', 'NT5E', 'CD9', 'SLC3A2', 'ENO3', 'ANXA2', 'TKT', 'ANPEP', 'VIM', 'PSMA4', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'S100A6', 'FH', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'MTHFD1', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'G6PD', 'ANXA1', 'COL4A2', 'CD63', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'ENO1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'CD44', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'BLVRA', 'S100A16', 'CDC42', 'HSPA5', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'AP2M1', 'KRT19', 'S100A4', 'PPP1CB', 'AXL', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GNG4', 'PSMD2', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'PGD', 'GLRX', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'UBC', 'CLU', 'ACTG1', 'NME1', 'CBR1', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'SLC26A2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'LDHA', 'PTGR1', 'PGD', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'GLRX', 'TMEM59', 'ACTB', 'RAN', 'HSPA5', 'F12', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'HSP90AB1', 'PLOD2', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'HSPD1', 'RPL26', 'KRT7', 'PSME2', 'PKM', 'TKT', 'S100A16', 'PGK1', 'CCT2', 'ATP1B1', 'FTL', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'EIF2S1', 'KRT18', 'YWHAE', 'ANXA4', 'ALDH1A1', 'ENO3', 'G6PD', 'PRNP', 'MYOF', 'STMN1', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'AXL', 'CDC42', 'FH', 'SH3BGRL3', 'PDCD5', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'ARPC3', 'ADH5', 'ANXA2', 'S100A6', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'RSU1', 'UBC', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PDGFC', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'CCT3', 'PTPRJ', 'CTNNB1', 'SFN', 'VIM', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'SQSTM1', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.375136797758984e-14</v>
+        <v>4.247259661300412e-14</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>472</v>
       </c>
       <c r="H3" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I3" t="n">
         <v>154</v>
@@ -1780,7 +1780,7 @@
         <v>2717</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.3215031315240083</v>
       </c>
       <c r="L3" t="n">
         <v>0.326271186440678</v>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'PSMB1', 'SVIP', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'SQSTM1', 'PSMA5', 'TUBB', 'HSPD1', 'FLOT1', 'KRT8', 'LTBP3', 'NT5E', 'CD9', 'SLC3A2', 'ENO3', 'ANXA2', 'TKT', 'ANPEP', 'VIM', 'PSMA4', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'S100A6', 'FH', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'MTHFD1', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'G6PD', 'ANXA1', 'COL4A2', 'CD63', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'ENO1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'CD44', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'BLVRA', 'S100A16', 'CDC42', 'HSPA5', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'AP2M1', 'KRT19', 'S100A4', 'PPP1CB', 'AXL', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GNG4', 'PSMD2', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'PGD', 'GLRX', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'UBC', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'CBR1', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'SLC26A2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'LDHA', 'PTGR1', 'PGD', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'GLRX', 'TMEM59', 'ACTB', 'RAN', 'HSPA5', 'F12', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'HSP90AB1', 'PLOD2', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'HSPD1', 'RPL26', 'KRT7', 'PSME2', 'PKM', 'TKT', 'S100A16', 'PGK1', 'CCT2', 'ATP1B1', 'FTL', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'EIF2S1', 'KRT18', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'G6PD', 'PRNP', 'MYOF', 'STMN1', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'AXL', 'CDC42', 'FH', 'SH3BGRL3', 'PDCD5', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'ARPC3', 'ADH5', 'ANXA2', 'S100A6', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'RSU1', 'UBC', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PDGFC', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'CCT3', 'PTPRJ', 'CTNNB1', 'SFN', 'VIM', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'SQSTM1', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.825814636962582e-14</v>
+        <v>5.396292516247356e-14</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>473</v>
       </c>
       <c r="H4" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I4" t="n">
         <v>154</v>
@@ -1846,7 +1846,7 @@
         <v>2717</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.3215031315240083</v>
       </c>
       <c r="L4" t="n">
         <v>0.3255813953488372</v>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'PSMB1', 'SVIP', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'SQSTM1', 'PSMA5', 'TUBB', 'HSPD1', 'FLOT1', 'KRT8', 'LTBP3', 'NT5E', 'CD9', 'SLC3A2', 'ENO3', 'ANXA2', 'TKT', 'ANPEP', 'VIM', 'PSMA4', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'S100A6', 'FH', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'MTHFD1', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'G6PD', 'ANXA1', 'COL4A2', 'CD63', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'ENO1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'CD44', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'BLVRA', 'S100A16', 'CDC42', 'HSPA5', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'AP2M1', 'KRT19', 'S100A4', 'PPP1CB', 'AXL', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GNG4', 'PSMD2', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'PGD', 'GLRX', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'UBC', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'CBR1', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'SLC26A2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'LDHA', 'PTGR1', 'PGD', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'GLRX', 'TMEM59', 'ACTB', 'RAN', 'HSPA5', 'F12', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'HSP90AB1', 'PLOD2', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'HSPD1', 'RPL26', 'KRT7', 'PSME2', 'PKM', 'TKT', 'S100A16', 'PGK1', 'CCT2', 'ATP1B1', 'FTL', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'EIF2S1', 'KRT18', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'G6PD', 'PRNP', 'MYOF', 'STMN1', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'AXL', 'CDC42', 'FH', 'SH3BGRL3', 'PDCD5', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'ARPC3', 'ADH5', 'ANXA2', 'S100A6', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'RSU1', 'UBC', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PDGFC', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'CCT3', 'PTPRJ', 'CTNNB1', 'SFN', 'VIM', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'SQSTM1', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.825814636962582e-14</v>
+        <v>5.396292516247356e-14</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>473</v>
       </c>
       <c r="H5" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I5" t="n">
         <v>154</v>
@@ -1912,7 +1912,7 @@
         <v>2717</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.3215031315240083</v>
       </c>
       <c r="L5" t="n">
         <v>0.3255813953488372</v>
@@ -1929,12 +1929,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'PSMB1', 'SVIP', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'SQSTM1', 'PSMA5', 'TUBB', 'HSPD1', 'FLOT1', 'KRT8', 'LTBP3', 'NT5E', 'CD9', 'SLC3A2', 'ENO3', 'ANXA2', 'TKT', 'ANPEP', 'VIM', 'PSMA4', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'S100A6', 'FH', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'ATP1B1', 'SDC4', 'JUP', 'GSTP1', 'ACP2', 'MTHFD1', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'G6PD', 'ANXA1', 'COL4A2', 'CD63', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'ENO1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'CD44', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'BLVRA', 'S100A16', 'CDC42', 'HSPA5', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'AP2M1', 'KRT19', 'S100A4', 'PPP1CB', 'AXL', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'ACTB', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GNG4', 'PSMD2', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'PGD', 'GLRX', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'UBC', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'CBR1', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'SLC26A2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'LDHA', 'PTGR1', 'PGD', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'HSPA1A', 'GLRX', 'TMEM59', 'ACTB', 'RAN', 'HSPA5', 'F12', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'HSP90AB1', 'PLOD2', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'HSPD1', 'RPL26', 'KRT7', 'PSME2', 'PKM', 'TKT', 'S100A16', 'PGK1', 'CCT2', 'ATP1B1', 'FTL', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'EIF2S1', 'KRT18', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'G6PD', 'PRNP', 'MYOF', 'STMN1', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'AXL', 'CDC42', 'FH', 'SH3BGRL3', 'PDCD5', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'ARPC3', 'ADH5', 'ANXA2', 'S100A6', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'RSU1', 'UBC', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'PDGFC', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'CCT3', 'PTPRJ', 'CTNNB1', 'SFN', 'VIM', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'SQSTM1', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.348908244644965e-12</v>
+        <v>1.012359712615224e-12</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>696</v>
       </c>
       <c r="H6" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I6" t="n">
         <v>199</v>
@@ -1978,7 +1978,7 @@
         <v>2717</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4145833333333334</v>
+        <v>0.4154488517745303</v>
       </c>
       <c r="L6" t="n">
         <v>0.2859195402298851</v>
@@ -1995,12 +1995,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'PSMB1', 'SVIP', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'STC1', 'SQSTM1', 'PSMA5', 'TUBB', 'VCAN', 'OLFM2', 'HSPD1', 'CMTM3', 'FLOT1', 'KRT8', 'LTBP3', 'EDN1', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'ANXA2', 'TKT', 'TFPI2', 'ANPEP', 'SPOCK1', 'VIM', 'PSMA4', 'COL1A1', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'PRSS3', 'S100A6', 'NRG1', 'FH', 'RAET1G', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'ATP1B1', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'IGFBP6', 'ACP2', 'MTHFD1', 'UBB', 'HBEGF', 'PSME2', 'CXCL5', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'MTHFD2', 'G6PD', 'ALDH3A1', 'ANXA1', 'CXCL8', 'COL4A2', 'CD63', 'PCSK1N', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'FIBCD1', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'HMGB1', 'ENO1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'PVR', 'BLVRA', 'S100A16', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'AP2M1', 'KRT19', 'S100A4', 'HMGB2', 'PPP1CB', 'AXL', 'ANGPTL4', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'TNFAIP6', 'ACTB', 'LAMC2', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'FSTL3', 'GNG4', 'PSMD2', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'COL5A2', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'PGD', 'GLRX', 'GAL', 'IL11', 'IL32', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'CCL2', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'DMKN', 'AREG', 'UBC', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'CBR1', 'TUBA4A', 'CDK1', 'NMI', 'SLC2A3', 'AGR2', 'FTL', 'SLC26A2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['OLFM2', 'CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'SPOCK1', 'LDHA', 'LAMC2', 'PTGR1', 'EDN1', 'PGD', 'ACTG1', 'UBB', 'GNL3', 'SDC4', 'CLU', 'HSPA1A', 'CCL2', 'IL32', 'GLRX', 'TMEM59', 'ACTB', 'RAN', 'HSPA5', 'EREG', 'F12', 'CSRP1', 'SLC3A2', 'GNG4', 'DMKN', 'S100A11', 'CXCL5', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'TFPI2', 'HSP90AB1', 'PLOD2', 'IGFBP3', 'TIMP2', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'FIBCD1', 'HSPD1', 'RPL26', 'KRT7', 'PSME2', 'COL4A1', 'PKM', 'TKT', 'S100A16', 'IGFBP4', 'PCSK1N', 'PGK1', 'CCT2', 'CXCL1', 'ATP1B1', 'FTL', 'CMTM3', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'EIF2S1', 'NRG1', 'GAL', 'KRT18', 'MTHFD2', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'G6PD', 'PRNP', 'MYOF', 'ALDH3A1', 'STMN1', 'FABP5', 'AREG', 'TXN', 'ANGPTL4', 'HMGB1', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'AXL', 'CDC42', 'FH', 'SH3BGRL3', 'PDCD5', 'NMI', 'RAET1G', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'BDNF', 'ARPC3', 'ADH5', 'ANXA2', 'COL5A2', 'S100A6', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'SERPINE1', 'PVR', 'ECH1', 'RSU1', 'UBC', 'HMGB2', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'TNFRSF1A', 'PRSS3', 'PDGFC', 'VCAN', 'NPC2', 'FN1', 'RDX', 'IGFBP6', 'EIF2S3', 'TUBB4B', 'FLOT1', 'IL11', 'PSMA5', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'SFN', 'AGR2', 'VIM', 'KRT81', 'HEXA', 'HSP90AA1', 'GSN', 'CXCL8', 'TUBB2A', 'PPP1CB', 'STC1', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'HBEGF', 'SQSTM1', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IBA'], ['IDA', 'HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['IBA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'ISS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IEA'], ['IMP', 'HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA'], ['IMP', 'HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.361115394545817e-11</v>
+        <v>1.133831928302618e-10</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2035,19 +2035,19 @@
         <v>732</v>
       </c>
       <c r="H7" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I7" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J7" t="n">
         <v>2717</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4208333333333333</v>
+        <v>0.4196242171189979</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2759562841530054</v>
+        <v>0.2745901639344263</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'PSMB1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'SQSTM1', 'PSMA5', 'TUBB', 'GRAMD1A', 'HSPD1', 'CMTM3', 'FLOT1', 'KRT8', 'LTBP3', 'PLAUR', 'EDN1', 'RIN2', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'NPTX1', 'ANXA2', 'TKT', 'ANPEP', 'VIM', 'PSMA4', 'COL1A1', 'CTTN', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'DNER', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'PRSS3', 'S100A6', 'FH', 'CAV1', 'PSMD1', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'ATP1B1', 'DSE', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'ACP2', 'RHOU', 'MTHFD1', 'UBB', 'HBEGF', 'PSME2', 'ULK1', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'G6PD', 'ANXA1', 'TSPAN4', 'COL4A2', 'CD63', 'PCSK1N', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'HMGB1', 'ENO1', 'ANTXR1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'CD44', 'AP1M2', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'TMSB4X', 'BLVRA', 'S100A16', 'CDC42', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'AP2M1', 'KRT19', 'S100A4', 'PPP1CB', 'AXL', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'TNFAIP6', 'PYCARD', 'ACTB', 'KCNN4', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'GNG4', 'SCG5', 'PSMD2', 'DERL1', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'CYBA', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'DYNLL1', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'MGST1', 'PGD', 'OCIAD2', 'GLRX', 'GAL', 'MAP1LC3A', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'CDA', 'AREG', 'UBC', 'NAP1L1', 'SYT1', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'PMEPA1', 'CBR1', 'TUBA4A', 'TSPAN15', 'CDK1', 'SLC2A3', 'FTL', 'IFITM2', 'SLC26A2', 'RBP4', 'AKR1C3', 'COPB1', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'LDHA', 'PTGR1', 'DYNLL1', 'EDN1', 'OCIAD2', 'PGD', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'HSPA1A', 'GLRX', 'NAP1L1', 'DERL1', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'HSPA5', 'EREG', 'F12', 'TSPAN4', 'SCG5', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'HSP90AB1', 'PLOD2', 'CTTN', 'TIMP2', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'HSPD1', 'GRAMD1A', 'RPL26', 'KRT7', 'PSME2', 'PKM', 'TKT', 'S100A16', 'PCSK1N', 'PGK1', 'CCT2', 'CXCL1', 'ATP1B1', 'FTL', 'CMTM3', 'DNER', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'EIF2S1', 'RHOU', 'GAL', 'CYBA', 'KRT18', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'G6PD', 'PRNP', 'MYOF', 'STMN1', 'FABP5', 'AREG', 'TXN', 'HMGB1', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'FGFR1', 'AXL', 'CDC42', 'FH', 'KCNN4', 'SH3BGRL3', 'PDCD5', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'LTBP3', 'RIN2', 'COPB1', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'BDNF', 'ARPC3', 'NPTX1', 'ADH5', 'ANXA2', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'MGST1', 'SERPINE1', 'CDA', 'ECH1', 'RSU1', 'UBC', 'PSMA4', 'CBR1', 'TAGLN2', 'AP1M2', 'TUBA1C', 'KRT19', 'CAPG', 'TSPAN15', 'PRSS3', 'PDGFC', 'SYT1', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'PSMA5', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'PYCARD', 'SFN', 'VIM', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'HBEGF', 'SQSTM1', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['TAS', 'IEA'], ['IBA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['TAS'], ['HDA'], ['IDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['HDA'], ['ISS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['ISS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['TAS'], ['HDA', 'TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA']]</t>
+          <t>[['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['TAS'], ['HDA'], ['IDA'], ['ISS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA'], ['TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['TAS'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IBA'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.82227061178045e-10</v>
+        <v>2.107278590104843e-10</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>811</v>
       </c>
       <c r="H8" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I8" t="n">
         <v>216</v>
@@ -2110,7 +2110,7 @@
         <v>2717</v>
       </c>
       <c r="K8" t="n">
-        <v>0.45</v>
+        <v>0.4509394572025052</v>
       </c>
       <c r="L8" t="n">
         <v>0.2663378545006165</v>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'PSMB1', 'SVIP', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'MYOF', 'RSU1', 'RHOF', 'ECH1', 'STC1', 'SQSTM1', 'PSMA5', 'TUBB', 'VCAN', 'OLFM2', 'HSPD1', 'CMTM3', 'FLOT1', 'KRT8', 'LTBP3', 'PLAUR', 'EDN1', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'ANXA2', 'TKT', 'TFPI2', 'ANPEP', 'SPOCK1', 'VIM', 'PSMA4', 'COL1A1', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'TAGLN2', 'CCT5', 'MYL12B', 'CCT3', 'PRSS3', 'S100A6', 'NRG1', 'FH', 'RAET1G', 'RSPO3', 'NRP2', 'PSMD1', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'ATP1B1', 'AKR1B10', 'CCDC80', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'IGFBP6', 'ACP2', 'MTHFD1', 'UBB', 'HBEGF', 'PSME2', 'CXCL5', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'MTHFD2', 'G6PD', 'ALDH3A1', 'ANXA1', 'CXCL8', 'COL4A2', 'CD63', 'PCSK1N', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'FIBCD1', 'SEMA3C', 'GAPDH', 'GSN', 'CCT2', 'HMGB1', 'ENO1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CTNNB1', 'FSCN1', 'ACTN1', 'SRSF7', 'PTGR1', 'TMSB4X', 'PVR', 'BLVRA', 'S100A16', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'KRT19', 'S100A4', 'HMGB2', 'PPP1CB', 'AXL', 'EPHB2', 'ANGPTL4', 'PRNP', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'TNFAIP6', 'PYCARD', 'ACTB', 'LAMC2', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'FSTL3', 'GNG4', 'C1orf56', 'SCG5', 'PSMD2', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'COL5A2', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'PLOD2', 'CAPG', 'CTSL', 'SLC35F6', 'PGD', 'GLRX', 'GAL', 'GALNT1', 'IL11', 'IL32', 'NTN4', 'RDX', 'HLA-C', 'RPL28', 'STMN1', 'CCL2', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'DMKN', 'CDA', 'AREG', 'UBC', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'CBR1', 'TUBA4A', 'CDK1', 'NMI', 'SLC2A3', 'AGR2', 'FTL', 'SLC26A2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'SDC1']</t>
+          <t>['OLFM2', 'CD44', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'SPOCK1', 'LDHA', 'LAMC2', 'PTGR1', 'EDN1', 'PGD', 'ACTG1', 'UBB', 'GNL3', 'SDC4', 'CLU', 'PLAUR', 'HSPA1A', 'CCL2', 'IL32', 'CCDC80', 'GLRX', 'RSPO3', 'TMEM59', 'ACTB', 'RAN', 'HSPA5', 'EREG', 'F12', 'SCG5', 'CSRP1', 'SLC3A2', 'GNG4', 'DMKN', 'S100A11', 'CXCL5', 'ANPEP', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'RPL28', 'HLA-C', 'SEMA3C', 'MTHFD1', 'ENO1', 'TFPI2', 'HSP90AB1', 'PLOD2', 'IGFBP3', 'TIMP2', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'HSP90B1', 'HPGD', 'FIBCD1', 'HSPD1', 'RPL26', 'KRT7', 'NRP2', 'PSME2', 'COL4A1', 'PKM', 'TKT', 'S100A16', 'IGFBP4', 'PCSK1N', 'PGK1', 'CCT2', 'CXCL1', 'ATP1B1', 'FTL', 'CMTM3', 'S100A10', 'KRT8', 'PRSS23', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'SDC1', 'AKR1C3', 'C1orf56', 'EIF2S1', 'NRG1', 'GAL', 'KRT18', 'MTHFD2', 'YWHAE', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'G6PD', 'PRNP', 'MYOF', 'ALDH3A1', 'STMN1', 'FABP5', 'AREG', 'TXN', 'ANGPTL4', 'HMGB1', 'HSPA2', 'ANXA1', 'TGM2', 'VTN', 'SLC26A2', 'FSCN1', 'NTN4', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'FGFR1', 'AXL', 'CDC42', 'FH', 'SH3BGRL3', 'PDCD5', 'NMI', 'RAET1G', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'SULT2B1', 'MYL12B', 'JUP', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'PSMB1', 'COTL1', 'PSMD2', 'BDNF', 'ARPC3', 'NPTX1', 'ADH5', 'ANXA2', 'COL5A2', 'S100A6', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'GALNT1', 'SERPINE1', 'CDA', 'PVR', 'ECH1', 'RSU1', 'UBC', 'HMGB2', 'PSMA4', 'CBR1', 'TAGLN2', 'KRT19', 'CAPG', 'TNFRSF1A', 'PRSS3', 'PDGFC', 'VCAN', 'NPC2', 'FN1', 'RDX', 'IGFBP6', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'IL11', 'PSMA5', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'PYCARD', 'SFN', 'AGR2', 'VIM', 'KRT81', 'HEXA', 'HSP90AA1', 'GSN', 'CXCL8', 'TUBB2A', 'PPP1CB', 'STC1', 'RAB3B', 'COL4A2', 'BLVRA', 'GSTP1', 'PACSIN3', 'SLC2A3', 'HBEGF', 'SQSTM1', 'C1QBP', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['NAS'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['NAS'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.050425726087899e-07</v>
+        <v>1.365704372556127e-06</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2167,19 +2167,19 @@
         <v>960</v>
       </c>
       <c r="H9" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I9" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J9" t="n">
         <v>2717</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4875</v>
+        <v>0.4864300626304802</v>
       </c>
       <c r="L9" t="n">
-        <v>0.24375</v>
+        <v>0.2427083333333333</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['HSPA2', 'PSMB1', 'AJUBA', 'CALM2', 'RAN', 'FTH1', 'HSP90B1', 'HMGA1', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'PPP1R14A', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'KRT8', 'NUDC', 'OSBPL8', 'CDK6', 'UPP1', 'GPX2', 'RIN2', 'NT5E', 'ENO3', 'NNMT', 'ANXA2', 'TKT', 'TRIB3', 'TK1', 'SRGAP1', 'SMAD3', 'VIM', 'PSMA4', 'CTTN', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'PDGFC', 'RBP1', 'CNN3', 'TAGLN2', 'CCT5', 'PRC1', 'MYL12B', 'TPM1', 'CCT3', 'S100A6', 'CCNB1', 'FH', 'PHKG1', 'MT2A', 'PSMD1', 'SFN', 'HSPB1', 'SFPQ', 'HSP90AB1', 'MYL6', 'AKR1B10', 'JUP', 'GSTP1', 'CES1', 'PRMT5', 'RHOU', 'MTHFD1', 'UBB', 'PSME2', 'ULK1', 'NUP93', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TXN', 'KRT18', 'EIF2S1', 'IER3', 'POLR2L', 'G6PD', 'ALDH3A1', 'ANXA1', 'NUP37', 'AHNAK2', 'CCNB2', 'PACSIN3', 'KRT7', 'THRA', 'PRDX1', 'RND1', 'LCE3D', 'GAPDH', 'GSN', 'S100A3', 'AKAP12', 'MGLL', 'LMNA', 'CCT2', 'MALSU1', 'NEMF', 'DDX56', 'ENO1', 'PSMC4', 'CTPS1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'CD44', 'CDC20', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'CDCA4', 'RGS3', 'ACTN1', 'CTNNAL1', 'TMSB4X', 'PPP3CA', 'PRMT1', 'GPX1', 'BLVRA', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'HSPA5', 'FGFR1', 'FLNB', 'BCL3', 'BLOC1S2', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ARL4A', 'KRT19', 'S100A4', 'ARL6IP1', 'PPP1CB', 'TNS3', 'EPHB2', 'PRNP', 'BCL2A1', 'GSTO1', 'PKM', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'PDLIM5', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'CDKN3', 'FBXO2', 'FABP5', 'KPNA2', 'NPM1', 'CCNE1', 'PSMD2', 'DOCK5', 'HNRNPD', 'RASSF10', 'TGM2', 'SULT2B1', 'RPL26', 'SAT1', 'ARHGAP11A', 'LDHB', 'TUBA1A', 'HSPA1A', 'TP53I3', 'PDCD5', 'DYNLL1', 'ETS2', 'PSMD8', 'ARHGAP29', 'SLC35F6', 'PGD', 'GLRX', 'PLK2', 'MAP1LC3A', 'CYB5A', 'ATF4', 'IL32', 'PGM2L1', 'UBXN4', 'RPL28', 'STMN1', 'TXNDC9', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'CENPA', 'PGK1', 'LGALS1', 'HPGD', 'CDA', 'UBC', 'UBE2C', 'SYT1', 'MYO10', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'NQO1', 'CBR1', 'TUBA4A', 'HNRNPH1', 'UBE2S', 'TSPAN15', 'CDK1', 'NMI', 'ELF3', 'FTL', 'AKR1C3', 'COPB1', 'ALDH1A1', 'COTL1']</t>
+          <t>['TXNDC9', 'CD44', 'LDHB', 'LDHA', 'NQO1', 'DYNLL1', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'NNMT', 'IER3', 'CLU', 'PDLIM5', 'HSPA1A', 'IL32', 'GLRX', 'MAP1B', 'ACTB', 'RAN', 'MAP1LC3A', 'PPP1R14A', 'RND1', 'HSPA5', 'CTPS1', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'PSMD8', 'MTHFD1', 'ENO1', 'NUDC', 'TNS3', 'POLR2L', 'HSP90AB1', 'CTTN', 'AKR1B10', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'HSPD1', 'GRAMD1A', 'S100A3', 'RPL26', 'CCNB1', 'KRT7', 'NUP37', 'MT2A', 'PSME2', 'PKM', 'TKT', 'S100A16', 'PTTG1', 'NUP93', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'FTL', 'CPLX2', 'CMTM3', 'MGLL', 'KRT8', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'LCE3D', 'AKR1C3', 'CES1', 'EIF2S1', 'RHOU', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'KYNU', 'YWHAE', 'SERPINE2', 'ALDH1A1', 'ENO3', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'PGM2L1', 'ALDH3A1', 'STMN1', 'DLGAP5', 'CEP170', 'ARHGAP29', 'FABP5', 'TXN', 'HSPA2', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'AJUBA', 'FSCN1', 'FBXO2', 'TUBA1A', 'FLNB', 'RHOF', 'FGFR1', 'GPX1', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'SH3BGRL3', 'PDCD5', 'AHNAK2', 'NMI', 'RASSF10', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'CYB5A', 'GAPDH', 'ULK1', 'PSMC4', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'COPB1', 'SULT2B1', 'MYL12B', 'PPP3CA', 'CDC20', 'ILK', 'JUP', 'ARHGAP11A', 'MAP2K3', 'GSTO1', 'NME1', 'TXNRD1', 'TXNRD2', 'PSMB1', 'COTL1', 'PSMD2', 'ARPC3', 'SFPQ', 'TPM2', 'UBXN4', 'SAT1', 'ADH5', 'TRIB3', 'BLOC1S2', 'ANXA2', 'ATF4', 'ELF3', 'S100A6', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'ECH1', 'RSU1', 'PRC1', 'UBC', 'NEMF', 'PSMA4', 'ETS2', 'CBR1', 'TAGLN2', 'PHKG1', 'AP1M2', 'KRT19', 'RGS3', 'SRGAP1', 'TSPAN15', 'PDGFC', 'SYT1', 'TP53I3', 'EIF2S3', 'TUBB4B', 'TMSB4X', 'PSMA5', 'PSMD1', 'CCT3', 'CTNNB1', 'HNRNPD', 'PYCARD', 'SFN', 'THRA', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'KRT81', 'HEXA', 'HSP90AA1', 'GSN', 'PPP1CB', 'LIMD2', 'ARL4A', 'UPP1', 'BCL3', 'CDKN3', 'BLVRA', 'TPM1', 'GSTP1', 'AURKB', 'PACSIN3', 'KPNA2', 'CENPA', 'CDCA4', 'SQSTM1', 'C1QBP', 'AP2M1', 'PRDX1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IGI', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA']]</t>
+          <t>[['IDA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IBA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IGI', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'NAS'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.007778194756279e-05</v>
+        <v>4.659445229023141e-05</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2233,19 +2233,19 @@
         <v>2112</v>
       </c>
       <c r="H10" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I10" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J10" t="n">
         <v>2717</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8770833333333333</v>
+        <v>0.8768267223382046</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1993371212121212</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['TCEAL1', 'SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'ZBED2', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'NSMCE2', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'OSBPL8', 'LTBP3', 'PLAUR', 'CDK6', 'EDN1', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'ANXA2', 'TKT', 'ANPEP', 'SAP30BP', 'TRIB3', 'TK1', 'SPOCK1', 'HMGA2', 'P4HA3', 'CKS1B', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'CSTF3', 'CNN3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MYL12B', 'TPM1', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'CDH2', 'NEAT1', 'CAV1', 'MT2A', 'MRPL13', 'TMEM92', 'PSMD1', 'SFN', 'CCDC59', 'ANXA4', 'WDR43', 'SAMD11', 'APLP2', 'MORC4', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'ATP1B1', 'DSE', 'AKR1B10', 'ID3', 'SDC4', 'JUP', 'CADM1', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'FDXR', 'ACP2', 'PRMT5', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'SMTN', 'HBEGF', 'PSME2', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'MTHFD2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'AMIGO2', 'TSPAN4', 'NUP37', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'SEMA3C', 'GAPDH', 'GSN', 'S100A3', 'DUSP4', 'RPL22L1', 'AKAP12', 'MGLL', 'SNRPA1', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'CHST11', 'DHRS2', 'ENO1', 'TMSB10', 'PSMC4', 'ANTXR1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'CDCA4', 'RGS3', 'ACTN1', 'SRSF7', 'CTNNAL1', 'HACD3', 'PTGR1', 'TMSB4X', 'PPP3CA', 'DDX10', 'PRMT1', 'GPX1', 'TSPAN5', 'BLVRA', 'INO80C', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'MRPS22', 'TNS3', 'EPHB2', 'TCEAL8', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PDLIM5', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'GNG4', 'KPNA2', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DOCK5', 'DERL1', 'HNRNPD', 'FKBP3', 'RASSF10', 'TGM2', 'TMEM59', 'SULT2B1', 'BOP1', 'SNAPC1', 'RPL26', 'PRSS23', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'LDHB', 'TGFBI', 'TUBA1A', 'FOXM1', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'SNHG10', 'HMGB3', 'PSMD8', 'CAPG', 'CTSL', 'SLC35F6', 'MGST1', 'PGD', 'OCIAD2', 'GLRX', 'HOXB8', 'PLK2', 'GAL', 'MAP1LC3A', 'ISG20', 'GALNT1', 'CYB5A', 'ATF4', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'BTG1', 'CENPA', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'TUBB2A', 'HPGD', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'NQO1', 'CBR1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'EBNA1BP2', 'SLC2A3', 'AGR2', 'ELF3', 'FTL', 'DHRS7', 'SPTSSA', 'IFITM2', 'SLC26A2', 'RBP4', 'AKR1C3', 'COPB1', 'PHF19', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'EZH2', 'MRPL13', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'SPOCK1', 'FKBP3', 'LDHA', 'NQO1', 'PTGR1', 'DYNLL1', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'BOP1', 'IER3', 'GNL3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'PDLIM5', 'HSPA1A', 'REEP5', 'JUN', 'TMSB10', 'GLRX', 'NAP1L1', 'NOL7', 'TMEM92', 'ATP5G1', 'TOP2A', 'TUBA1B', 'DERL1', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'RND1', 'HSPA5', 'EREG', 'F12', 'TSPAN4', 'SCG5', 'CHCHD10', 'GALNT14', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'TSPAN5', 'CSTF3', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'SEMA3C', 'MTHFD1', 'ENO1', 'NUDC', 'TNS3', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'TIMP2', 'TRAM1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'MORC4', 'S100A3', 'RPL26', 'CDC42SE1', 'ASPH', 'CCNB1', 'KRT7', 'NUP37', 'MT2A', 'PSME2', 'COL4A1', 'PKM', 'TKT', 'S100A16', 'CD24', 'IGFBP4', 'TCEAL8', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'ATP1B1', 'FTL', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'MRPS22', 'SNHG10', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'NEAT1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'PERP', 'DDX10', 'ALDH3A1', 'STMN1', 'DLGAP5', 'CEP170', 'FABP5', 'AREG', 'TXN', 'HMGB1', 'HSPA2', 'SMTN', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'ADAM19', 'VTN', 'SLC26A2', 'FSCN1', 'FBXO2', 'CADM1', 'TUBA1A', 'APLP2', 'RBP4', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'WDR43', 'MICAL2', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'SAMD11', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'HELLS', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'ZBED2', 'CYB5A', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'LTBP3', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'CD9', 'SULT2B1', 'MYL12B', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'GSTO1', 'FOXD1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'PSMB1', 'COTL1', 'PBX1', 'PHF19', 'SAP30BP', 'PSMD2', 'BDNF', 'ARPC3', 'SFPQ', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'UBXN4', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'HOXB8', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'EBNA1BP2', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'SNAPC1', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'ECH1', 'RSU1', 'TCEAL1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'SNRPA1', 'CBR1', 'TAGLN2', 'MT1X', 'AP1M2', 'TUBA1C', 'KRT19', 'NSMCE2', 'RGS3', 'CAPG', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'P4HA3', 'FN1', 'AMIGO2', 'RDX', 'JUNB', 'RPL22L1', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'THRA', 'AGR2', 'NSMCE4A', 'DDX39A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'KRT81', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'MKI67', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'CCDC59', 'BCL3', 'CDKN3', 'MLXIP', 'BLVRA', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'AURKB', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'CDCA4', 'HBEGF', 'INO80C', 'SQSTM1', 'PLEK2', 'C1QBP', 'AP2M1', 'FDXR', 'CKS1B', 'PRDX1']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IDA', 'TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS'], ['IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IGI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IGI', 'HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'ISS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['HDA', 'TAS']]</t>
+          <t>[['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['NAS'], ['IEA'], ['HDA', 'IBA'], ['IEA'], ['HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IGI', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['EXP', 'IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['ISA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.040064102521118e-05</v>
+        <v>4.845621561145374e-05</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2299,19 +2299,19 @@
         <v>1924</v>
       </c>
       <c r="H11" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I11" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J11" t="n">
         <v>2717</v>
       </c>
       <c r="K11" t="n">
-        <v>0.81875</v>
+        <v>0.8183716075156576</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2042619542619543</v>
+        <v>0.2037422037422038</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2325,12 +2325,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'PPP1R14A', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'LRRC75A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'OSBPL8', 'PLAUR', 'CDK6', 'EDN1', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'NNMT', 'ANXA2', 'TKT', 'ANPEP', 'TRIB3', 'TK1', 'SPOCK1', 'SRGAP1', 'P4HA3', 'PHLDA3', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'PDGFC', 'RBP1', 'DNER', 'CNN3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MYL12B', 'TPM1', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'FH', 'RAET1G', 'TOB1', 'PHKG1', 'CDH2', 'CAV1', 'MT2A', 'MRPL13', 'PSMD1', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'DSE', 'AKR1B10', 'ID3', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'FDXR', 'ACP2', 'PRMT5', 'TRIML2', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'SMTN', 'HBEGF', 'PSME2', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TXN', 'KRT18', 'EIF2S1', 'IER3', 'MTHFD2', 'MLXIP', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'NUP37', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'LCE3D', 'GAPDH', 'GSN', 'S100A3', 'DUSP4', 'AKAP12', 'MGLL', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'CHST11', 'DHRS2', 'ENO1', 'TMSB10', 'PSMC4', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'CDCA4', 'RGS3', 'ACTN1', 'SRSF7', 'CTNNAL1', 'HACD3', 'PTGR1', 'TMSB4X', 'PPP3CA', 'PRMT1', 'GPX1', 'PVR', 'TSPAN5', 'BLVRA', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'CA8', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'CHCHD10', 'MRPS22', 'TNS3', 'EPHB2', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PDLIM5', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'LAMC2', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'KPNA2', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DOCK5', 'DERL1', 'HNRNPD', 'RASSF10', 'TGM2', 'TMEM59', 'SULT2B1', 'RPL26', 'PRSS23', 'FAM89B', 'SAT1', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'TAGLN', 'LDHB', 'TGFBI', 'TUBA1A', 'HSPA1A', 'TP53I3', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'HMGB3', 'PSMD8', 'CAPG', 'BICC1', 'CTSL', 'ARHGAP29', 'SLC35F6', 'MGST1', 'PGD', 'OCIAD2', 'GLRX', 'PLK2', 'GAL', 'MAP1LC3A', 'ISG20', 'GALNT1', 'IL11', 'CYB5A', 'ATF4', 'IL32', 'PGM2L1', 'RDX', 'UBXN4', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'BTG1', 'CENPA', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'TUBB2A', 'HPGD', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'NQO1', 'CBR1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'SLC2A3', 'AGR2', 'ELF3', 'FTL', 'DHRS7', 'SPTSSA', 'IFITM2', 'AKR1C3', 'COPB1', 'ALDH1A1', 'COTL1', 'CYP24A1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'MRPL13', 'LDHB', 'SRSF7', 'TAGLN', 'CD63', 'ANXA3', 'SPOCK1', 'LDHA', 'LAMC2', 'NQO1', 'PTGR1', 'DYNLL1', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'NNMT', 'IER3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'PDLIM5', 'HSPA1A', 'REEP5', 'TMSB10', 'IL32', 'GLRX', 'NAP1L1', 'NOL7', 'ATP5G1', 'TOP2A', 'TUBA1B', 'DERL1', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'PPP1R14A', 'RND1', 'HSPA5', 'EREG', 'F12', 'SCG5', 'CHCHD10', 'GALNT14', 'CSRP1', 'SLC3A2', 'S100A11', 'ANPEP', 'TSPAN5', 'CTPS1', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'MTHFD1', 'ENO1', 'NUDC', 'TNS3', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'TIMP2', 'TRIML2', 'TRAM1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'S100A3', 'RPL26', 'CDC42SE1', 'ASPH', 'CCNB1', 'KRT7', 'NUP37', 'MT2A', 'PSME2', 'COL4A1', 'CA8', 'PKM', 'TKT', 'S100A16', 'IGFBP4', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'FTL', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'LCE3D', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'MRPS22', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'BICC1', 'PERP', 'PGM2L1', 'ALDH3A1', 'STMN1', 'DLGAP5', 'CEP170', 'ARHGAP29', 'FABP5', 'AREG', 'TXN', 'HMGB1', 'HSPA2', 'SMTN', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'VTN', 'FSCN1', 'FBXO2', 'TUBA1A', 'APLP2', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'MICAL2', 'GPX1', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'CYB5A', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'LRRC75A', 'CD9', 'SULT2B1', 'MYL12B', 'PPP3CA', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'GSTO1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'FAM89B', 'PSMB1', 'COTL1', 'PBX1', 'PSMD2', 'BDNF', 'ARPC3', 'SFPQ', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'UBXN4', 'SAT1', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'ELF3', 'COL5A2', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'RSU1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'CBR1', 'TAGLN2', 'MT1X', 'PHKG1', 'AP1M2', 'TUBA1C', 'KRT19', 'RGS3', 'CAPG', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'P4HA3', 'ITGA2', 'FN1', 'RDX', 'TP53I3', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'IL11', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'THRA', 'AGR2', 'DDX39A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'KRT81', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'BCL3', 'CDKN3', 'MLXIP', 'BLVRA', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'PHLDA3', 'AURKB', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'CDCA4', 'HBEGF', 'SQSTM1', 'PLEK2', 'C1QBP', 'AP2M1', 'FDXR', 'PRDX1']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['ISS'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['HTP'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['TAS']]</t>
+          <t>[['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['HTP'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['ISS'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0003711599189123512</v>
+        <v>0.0004206369576825941</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2365,19 +2365,19 @@
         <v>2222</v>
       </c>
       <c r="H12" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I12" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J12" t="n">
         <v>2717</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9041666666666667</v>
+        <v>0.9039665970772442</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1953195319531953</v>
+        <v>0.1948694869486949</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2391,12 +2391,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['TCEAL1', 'SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'ZBED2', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'PPP1R14A', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'NSMCE2', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'LRRC75A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'OSBPL8', 'PLAUR', 'CDK6', 'EDN1', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'NNMT', 'ANXA2', 'TKT', 'ANPEP', 'SAP30BP', 'TRIB3', 'TK1', 'SPOCK1', 'SRGAP1', 'HMGA2', 'P4HA3', 'CKS1B', 'PHLDA3', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'CSTF3', 'CNN3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MYL12B', 'TPM1', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'PHKG1', 'CDH2', 'NEAT1', 'CAV1', 'MT2A', 'MRPL13', 'TMEM92', 'PSMD1', 'SFN', 'CCDC59', 'ANXA4', 'WDR43', 'SAMD11', 'APLP2', 'MORC4', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'DSE', 'AKR1B10', 'ID3', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'FDXR', 'ACP2', 'PRMT5', 'TRIML2', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'SMTN', 'HBEGF', 'PSME2', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'MTHFD2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'AMIGO2', 'NUP37', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'LCE3D', 'GAPDH', 'GSN', 'S100A3', 'DUSP4', 'RPL22L1', 'AKAP12', 'MGLL', 'SNRPA1', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'CHST11', 'DHRS2', 'ENO1', 'TMSB10', 'PSMC4', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'CDCA4', 'RGS3', 'ACTN1', 'SRSF7', 'CTNNAL1', 'HACD3', 'PTGR1', 'TMSB4X', 'PPP3CA', 'DDX10', 'PRMT1', 'GPX1', 'PVR', 'TSPAN5', 'BLVRA', 'INO80C', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'CA8', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'MRPS22', 'TNS3', 'EPHB2', 'TCEAL8', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PDLIM5', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'LAMC2', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'KPNA2', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DOCK5', 'DERL1', 'HNRNPD', 'FKBP3', 'RASSF10', 'TGM2', 'TMEM59', 'SULT2B1', 'BOP1', 'SNAPC1', 'RPL26', 'PRSS23', 'FAM89B', 'SAT1', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'TAGLN', 'LDHB', 'TGFBI', 'TUBA1A', 'FOXM1', 'HSPA1A', 'TP53I3', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'SNHG10', 'HMGB3', 'PSMD8', 'CAPG', 'BICC1', 'CTSL', 'ARHGAP29', 'SLC35F6', 'MGST1', 'PGD', 'OCIAD2', 'GLRX', 'HOXB8', 'PLK2', 'GAL', 'MAP1LC3A', 'ISG20', 'GALNT1', 'IL11', 'CYB5A', 'ATF4', 'IL32', 'PGM2L1', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'BTG1', 'CENPA', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'TUBB2A', 'HPGD', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'NQO1', 'CBR1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'EBNA1BP2', 'SLC2A3', 'AGR2', 'ELF3', 'FTL', 'DHRS7', 'SPTSSA', 'IFITM2', 'AKR1C3', 'COPB1', 'PHF19', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'EZH2', 'MRPL13', 'LDHB', 'SRSF7', 'TAGLN', 'CD63', 'ANXA3', 'SPOCK1', 'FKBP3', 'LDHA', 'LAMC2', 'NQO1', 'PTGR1', 'DYNLL1', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'BOP1', 'NNMT', 'IER3', 'GNL3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'PDLIM5', 'HSPA1A', 'REEP5', 'JUN', 'TMSB10', 'IL32', 'GLRX', 'NAP1L1', 'NOL7', 'TMEM92', 'ATP5G1', 'TOP2A', 'TUBA1B', 'DERL1', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'PPP1R14A', 'RND1', 'HSPA5', 'EREG', 'F12', 'SCG5', 'CHCHD10', 'GALNT14', 'CSRP1', 'SLC3A2', 'S100A11', 'ANPEP', 'TSPAN5', 'CTPS1', 'CSTF3', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'MTHFD1', 'ENO1', 'NUDC', 'TNS3', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'TIMP2', 'TRIML2', 'TRAM1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'MORC4', 'S100A3', 'RPL26', 'CDC42SE1', 'ASPH', 'CCNB1', 'KRT7', 'NUP37', 'MT2A', 'PSME2', 'COL4A1', 'CA8', 'PKM', 'TKT', 'S100A16', 'CD24', 'IGFBP4', 'TCEAL8', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'FTL', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'LCE3D', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'MRPS22', 'SNHG10', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'NEAT1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'BICC1', 'PERP', 'DDX10', 'PGM2L1', 'ALDH3A1', 'STMN1', 'DLGAP5', 'CEP170', 'ARHGAP29', 'FABP5', 'AREG', 'TXN', 'HMGB1', 'HSPA2', 'SMTN', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'ADAM19', 'VTN', 'FSCN1', 'FBXO2', 'TUBA1A', 'APLP2', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'WDR43', 'MICAL2', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'SAMD11', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'HELLS', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'ZBED2', 'CYB5A', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'LRRC75A', 'CD9', 'SULT2B1', 'MYL12B', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'GSTO1', 'FOXD1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'FAM89B', 'PSMB1', 'COTL1', 'PBX1', 'PHF19', 'SAP30BP', 'PSMD2', 'BDNF', 'ARPC3', 'SFPQ', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'UBXN4', 'SAT1', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'HOXB8', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'EBNA1BP2', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'SNAPC1', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'RSU1', 'TCEAL1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'SNRPA1', 'CBR1', 'TAGLN2', 'MT1X', 'PHKG1', 'AP1M2', 'TUBA1C', 'KRT19', 'NSMCE2', 'RGS3', 'CAPG', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'P4HA3', 'ITGA2', 'FN1', 'AMIGO2', 'RDX', 'JUNB', 'TP53I3', 'RPL22L1', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'IL11', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'THRA', 'AGR2', 'NSMCE4A', 'DDX39A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'KRT81', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'MKI67', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'CCDC59', 'BCL3', 'CDKN3', 'MLXIP', 'BLVRA', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'PHLDA3', 'AURKB', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'CDCA4', 'HBEGF', 'INO80C', 'SQSTM1', 'PLEK2', 'C1QBP', 'AP2M1', 'FDXR', 'CKS1B', 'PRDX1']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS'], ['IBA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IGI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['EXP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['TAS']]</t>
+          <t>[['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['ISS'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['EXP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0004052206311006189</v>
+        <v>0.0004757412107023383</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2431,19 +2431,19 @@
         <v>1997</v>
       </c>
       <c r="H13" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I13" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J13" t="n">
         <v>2717</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8354166666666667</v>
+        <v>0.8350730688935282</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2008012018027041</v>
+        <v>0.200300450676014</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['TCEAL1', 'SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'ZBED2', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'TXNRD2', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'NSMCE2', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'OSBPL8', 'LTBP3', 'PLAUR', 'CDK6', 'EDN1', 'UPP1', 'LBH', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'ANXA2', 'TKT', 'ANPEP', 'SAP30BP', 'TRIB3', 'TK1', 'HMGA2', 'P4HA3', 'CKS1B', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'CSTF3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MYL12B', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'CDH2', 'NEAT1', 'CAV1', 'MT2A', 'MRPL13', 'TMEM92', 'PSMD1', 'SFN', 'CCDC59', 'ANXA4', 'WDR43', 'SAMD11', 'APLP2', 'MORC4', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'ATP1B1', 'DSE', 'AKR1B10', 'ID3', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'FDXR', 'ACP2', 'PRMT5', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'HBEGF', 'PSME2', 'ULK1', 'NUP93', 'NR0B1', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'MTHFD2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'AMIGO2', 'TSPAN4', 'NUP37', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'SEMA3C', 'GAPDH', 'GSN', 'S100A3', 'DUSP4', 'MGLL', 'SNRPA1', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'CHST11', 'DHRS2', 'ENO1', 'PSMC4', 'ANTXR1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'CDCA4', 'RGS3', 'ACTN1', 'SRSF7', 'HACD3', 'PTGR1', 'TMSB4X', 'PPP3CA', 'DDX10', 'PRMT1', 'GPX1', 'TSPAN5', 'BLVRA', 'INO80C', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'MRPS22', 'EPHB2', 'TCEAL8', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'MYL12A', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'GNG4', 'KPNA2', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DERL1', 'HNRNPD', 'FKBP3', 'TGM2', 'TMEM59', 'SULT2B1', 'BOP1', 'SNAPC1', 'RPL26', 'PRSS23', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'LDHB', 'TGFBI', 'TUBA1A', 'FOXM1', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'SNHG10', 'HMGB3', 'PSMD8', 'CAPG', 'CTSL', 'SLC35F6', 'MGST1', 'PGD', 'OCIAD2', 'GLRX', 'HOXB8', 'PLK2', 'GAL', 'MAP1LC3A', 'ISG20', 'GALNT1', 'CYB5A', 'ATF4', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'BTG1', 'CENPA', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'TUBB2A', 'HPGD', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'NQO1', 'CBR1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'EBNA1BP2', 'SLC2A3', 'AGR2', 'ELF3', 'FTL', 'DHRS7', 'SPTSSA', 'IFITM2', 'SLC26A2', 'RBP4', 'AKR1C3', 'COPB1', 'PHF19', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'EZH2', 'MRPL13', 'TM7SF3', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'FKBP3', 'LDHA', 'NQO1', 'PTGR1', 'DYNLL1', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'BOP1', 'IER3', 'GNL3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'HSPA1A', 'REEP5', 'JUN', 'GLRX', 'NAP1L1', 'NOL7', 'TMEM92', 'ATP5G1', 'TOP2A', 'DERL1', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'RND1', 'HSPA5', 'EREG', 'F12', 'TSPAN4', 'SCG5', 'CHCHD10', 'GALNT14', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'ANPEP', 'TSPAN5', 'CSTF3', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'SEMA3C', 'MTHFD1', 'ENO1', 'NUDC', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'TIMP2', 'TRAM1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'MORC4', 'S100A3', 'RPL26', 'ASPH', 'CCNB1', 'KRT7', 'NUP37', 'MT2A', 'PSME2', 'COL4A1', 'PKM', 'TKT', 'S100A16', 'CD24', 'IGFBP4', 'TCEAL8', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'ATP1B1', 'FTL', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'MRPS22', 'SNHG10', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'NUAK1', 'NEAT1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'PERP', 'DDX10', 'ALDH3A1', 'STMN1', 'DLGAP5', 'CEP170', 'FABP5', 'AREG', 'TXN', 'HMGB1', 'HSPA2', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'ADAM19', 'VTN', 'SLC26A2', 'FSCN1', 'FBXO2', 'TUBA1A', 'APLP2', 'RBP4', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'WDR43', 'MICAL2', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'SAMD11', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'HELLS', 'RAET1G', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'ZBED2', 'CYB5A', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'LTBP3', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'CD9', 'SULT2B1', 'MYL12B', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'GSTO1', 'FOXD1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'PSMB1', 'COTL1', 'PBX1', 'PHF19', 'SAP30BP', 'PSMD2', 'BDNF', 'ARPC3', 'SFPQ', 'PUS1', 'MGST3', 'NPTX1', 'UBXN4', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'HOXB8', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'EBNA1BP2', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'SNAPC1', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'CCNB2', 'ECH1', 'RSU1', 'TCEAL1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'SNRPA1', 'CBR1', 'TAGLN2', 'MT1X', 'AP1M2', 'TUBA1C', 'KRT19', 'NSMCE2', 'RGS3', 'CAPG', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'P4HA3', 'FN1', 'AMIGO2', 'RDX', 'JUNB', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'THRA', 'AGR2', 'NSMCE4A', 'DDX39A', 'BCL2A1', 'VIM', 'PRMT1', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'MKI67', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'CCDC59', 'BCL3', 'CDKN3', 'MLXIP', 'BLVRA', 'SOX4', 'NUPR1', 'GSTP1', 'AURKB', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'CDCA4', 'HBEGF', 'INO80C', 'SQSTM1', 'C1QBP', 'AP2M1', 'FDXR', 'CKS1B', 'PRDX1']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IDA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['HDA', 'TAS'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS'], ['IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IGI', 'HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['HDA'], ['EXP', 'IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'ISS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['EXP', 'HDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IC', 'IEA'], ['HDA', 'TAS']]</t>
+          <t>[['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA', 'IBA'], ['IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IC', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IGI', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['EXP', 'HDA', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IBA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['EXP', 'IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.001143103711426164</v>
+        <v>0.001335520388303981</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2497,19 +2497,19 @@
         <v>2000</v>
       </c>
       <c r="H14" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I14" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J14" t="n">
         <v>2717</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8329853862212944</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2</v>
+        <v>0.1995</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['TCEAL1', 'SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'ZBED2', 'HMGA1', 'MYOF', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'NSMCE2', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'OSBPL8', 'PLAUR', 'CDK6', 'EDN1', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'NPTX1', 'ANXA2', 'TKT', 'ANPEP', 'SAP30BP', 'TRIB3', 'TK1', 'HMGA2', 'P4HA3', 'CKS1B', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'CSTF3', 'CNN3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MYL12B', 'TPM1', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'CDH2', 'NEAT1', 'CAV1', 'MT2A', 'MRPL13', 'TMEM92', 'PSMD1', 'SFN', 'CCDC59', 'ANXA4', 'WDR43', 'SAMD11', 'APLP2', 'MORC4', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'DSE', 'AKR1B10', 'ID3', 'SDC4', 'JUP', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'FDXR', 'ACP2', 'PRMT5', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'SMTN', 'HBEGF', 'PSME2', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'MTHFD2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'AMIGO2', 'NUP37', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'GAPDH', 'GSN', 'S100A3', 'DUSP4', 'RPL22L1', 'AKAP12', 'MGLL', 'SNRPA1', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'CHST11', 'DHRS2', 'ENO1', 'TMSB10', 'PSMC4', 'ANTXR1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'CDCA4', 'RGS3', 'ACTN1', 'SRSF7', 'CTNNAL1', 'HACD3', 'TMSB4X', 'PPP3CA', 'DDX10', 'PRMT1', 'GPX1', 'TSPAN5', 'INO80C', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'MRPS22', 'TNS3', 'EPHB2', 'TCEAL8', 'PRNP', 'BCL2A1', 'SLC22A18', 'VTN', 'PKM', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PDLIM5', 'PYCARD', 'ACTB', 'PTTG1', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'KPNA2', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DOCK5', 'DERL1', 'HNRNPD', 'FKBP3', 'RASSF10', 'TGM2', 'TMEM59', 'SULT2B1', 'BOP1', 'SNAPC1', 'RPL26', 'PRSS23', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'LDHB', 'TGFBI', 'TUBA1A', 'FOXM1', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'SNHG10', 'HMGB3', 'PSMD8', 'CAPG', 'CTSL', 'SLC35F6', 'MGST1', 'PGD', 'OCIAD2', 'GLRX', 'HOXB8', 'PLK2', 'GAL', 'MAP1LC3A', 'ISG20', 'GALNT1', 'CYB5A', 'ATF4', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'BTG1', 'CENPA', 'AATF', 'LGALS1', 'S100A10', 'JUNB', 'TUBB2A', 'HPGD', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'NQO1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'EBNA1BP2', 'SLC2A3', 'AGR2', 'ELF3', 'FTL', 'DHRS7', 'SPTSSA', 'IFITM2', 'AKR1C3', 'COPB1', 'PHF19', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'EZH2', 'MRPL13', 'LDHB', 'SRSF7', 'CD63', 'ANXA3', 'FKBP3', 'LDHA', 'NQO1', 'DYNLL1', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'BOP1', 'IER3', 'GNL3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'PDLIM5', 'HSPA1A', 'REEP5', 'JUN', 'TMSB10', 'GLRX', 'NAP1L1', 'NOL7', 'TMEM92', 'ATP5G1', 'TOP2A', 'TUBA1B', 'DERL1', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'RND1', 'HSPA5', 'EREG', 'F12', 'SCG5', 'CHCHD10', 'GALNT14', 'CSRP1', 'SLC3A2', 'S100A11', 'ANPEP', 'TSPAN5', 'CSTF3', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'MTHFD1', 'ENO1', 'NUDC', 'TNS3', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'TIMP2', 'TRAM1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'MORC4', 'S100A3', 'RPL26', 'CDC42SE1', 'ASPH', 'CCNB1', 'KRT7', 'NUP37', 'MT2A', 'PSME2', 'COL4A1', 'PKM', 'TKT', 'S100A16', 'CD24', 'IGFBP4', 'TCEAL8', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'RBP1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'FTL', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'MRPS22', 'SNHG10', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'NEAT1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'DSE', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'PERP', 'DDX10', 'ALDH3A1', 'STMN1', 'DLGAP5', 'CEP170', 'FABP5', 'AREG', 'TXN', 'HMGB1', 'HSPA2', 'SMTN', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'ADAM19', 'VTN', 'FSCN1', 'FBXO2', 'TUBA1A', 'APLP2', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'WDR43', 'MICAL2', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'SAMD11', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'HELLS', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'ZBED2', 'CYB5A', 'SVIP', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'CD9', 'SULT2B1', 'MYL12B', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'FOXD1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'PSMB1', 'COTL1', 'PBX1', 'PHF19', 'SAP30BP', 'PSMD2', 'BDNF', 'ARPC3', 'SFPQ', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'UBXN4', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'HOXB8', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'EBNA1BP2', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'SNAPC1', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'ECH1', 'TCEAL1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'SNRPA1', 'TAGLN2', 'MT1X', 'AP1M2', 'TUBA1C', 'KRT19', 'NSMCE2', 'RGS3', 'CAPG', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'P4HA3', 'FN1', 'AMIGO2', 'RDX', 'JUNB', 'RPL22L1', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'THRA', 'AGR2', 'NSMCE4A', 'DDX39A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'KRT81', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'TUBB2A', 'PPP1CB', 'MKI67', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'CCDC59', 'BCL3', 'CDKN3', 'MLXIP', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'AURKB', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'CDCA4', 'HBEGF', 'INO80C', 'SQSTM1', 'PLEK2', 'C1QBP', 'AP2M1', 'FDXR', 'CKS1B', 'PRDX1']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IGI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'HDA', 'IC', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['EXP', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['ISA', 'IC', 'IEA'], ['TAS']]</t>
+          <t>[['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['EXP', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA'], ['IDA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['EXP', 'IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISO', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'ISA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['EXP', 'IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.002661029557170904</v>
+        <v>0.002909759087712923</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -2563,19 +2563,19 @@
         <v>2402</v>
       </c>
       <c r="H15" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I15" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J15" t="n">
         <v>2717</v>
       </c>
       <c r="K15" t="n">
-        <v>0.95</v>
+        <v>0.9498956158663883</v>
       </c>
       <c r="L15" t="n">
-        <v>0.189841798501249</v>
+        <v>0.1894254787676936</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2589,12 +2589,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'ZBED2', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'PPP1R14A', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'NSMCE2', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'EMP3', 'OSBPL8', 'LTBP3', 'PLAUR', 'CDK6', 'EDN1', 'PMP22', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'NNMT', 'ANXA2', 'TKT', 'TFPI2', 'ANPEP', 'SAP30BP', 'TRIB3', 'TK1', 'SPOCK1', 'SRGAP1', 'HMGA2', 'CKS1B', 'PHLDA3', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'CKS2', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'AVPI1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'CSTF3', 'CNN3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MALAT1', 'TPM1', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'PHKG1', 'CDH2', 'RSPO3', 'CAV1', 'MT2A', 'MRPL13', 'NRP2', 'LCE3E', 'PSMD1', 'SFN', 'ANXA4', 'WDR43', 'SAMD11', 'APLP2', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'ATP1B1', 'DSE', 'AKR1B10', 'ID3', 'CCDC80', 'SDC4', 'JUP', 'CADM1', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'IGFBP6', 'FDXR', 'ACP2', 'PRMT5', 'TRIML2', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'SMTN', 'HBEGF', 'PSME2', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'CXCL5', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'MTHFD2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'AMIGO2', 'CXCL8', 'TSPAN4', 'NUP37', 'ITGA11', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'MEG3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'SEMA3C', 'LCE3D', 'GAPDH', 'GSN', 'DUSP4', 'RPL22L1', 'AKAP12', 'MGLL', 'SNRPA1', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'FXYD5', 'CHST11', 'DHRS2', 'ENO1', 'TMSB10', 'PSMC4', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'KCNMA1', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'RGS3', 'ACTN1', 'SRSF7', 'CTNNAL1', 'HACD3', 'PTGR1', 'TMSB4X', 'PPP3CA', 'DDX10', 'PRMT1', 'GPX1', 'PVR', 'TSPAN5', 'BLVRA', 'INO80C', 'MAP2K3', 'EIF4A3', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'CA8', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'CCPG1', 'MRPS22', 'TNS3', 'EPHB2', 'ANGPTL4', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PDLIM5', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'LAMC2', 'MOB3B', 'NPC2', 'CDKN3', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'GNG4', 'KPNA2', 'C1orf56', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DOCK5', 'DERL1', 'HNRNPD', 'RASSF10', 'TGM2', 'TMEM59', 'SULT2B1', 'BOP1', 'SNAPC1', 'RPL26', 'PRSS23', 'FAM89B', 'CA12', 'SAT1', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'TAGLN', 'LDHB', 'TGFBI', 'TUBA1A', 'FOXM1', 'HSPA1A', 'TP53I3', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'SNHG10', 'GNG11', 'HMGB3', 'PSMD8', 'CAPG', 'BICC1', 'TNFRSF12A', 'CTSL', 'ARHGAP29', 'SLC35F6', 'MGST1', 'SLAMF9', 'PGD', 'OCIAD2', 'GLRX', 'HOXB8', 'PLK2', 'GAL', 'MAP1LC3A', 'KCNG1', 'ISG20', 'GALNT1', 'IL11', 'CYB5A', 'ATF4', 'IL32', 'NTN4', 'PGM2L1', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'CCL2', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'BTG1', 'CENPA', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'TUBB2A', 'HPGD', 'DMKN', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'OSGIN1', 'NQO1', 'CBR1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'EBNA1BP2', 'SLC2A3', 'AGR2', 'ELF3', 'DHRS7', 'SPTSSA', 'IFITM2', 'SLC26A2', 'RBP4', 'AKR1C3', 'COPB1', 'PHF19', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'EZH2', 'MRPL13', 'TM7SF3', 'LDHB', 'SRSF7', 'TAGLN', 'CD63', 'ANXA3', 'SPOCK1', 'LDHA', 'LAMC2', 'NQO1', 'PTGR1', 'DYNLL1', 'ITGA11', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'BOP1', 'NNMT', 'IER3', 'GNL3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'PDLIM5', 'HSPA1A', 'REEP5', 'CCL2', 'JUN', 'TMSB10', 'IL32', 'CCDC80', 'GLRX', 'NAP1L1', 'NOL7', 'ATP5G1', 'TOP2A', 'TUBA1B', 'DERL1', 'RSPO3', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'PPP1R14A', 'RND1', 'HSPA5', 'EREG', 'F12', 'TSPAN4', 'SCG5', 'CHCHD10', 'GALNT14', 'KCNMA1', 'GNG11', 'CSRP1', 'SLC3A2', 'GNG4', 'DMKN', 'S100A11', 'CXCL5', 'ANPEP', 'TSPAN5', 'CTPS1', 'CSTF3', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'SEMA3C', 'MTHFD1', 'ENO1', 'NUDC', 'EMP3', 'TNS3', 'TFPI2', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'CKS2', 'TIMP2', 'TRIML2', 'TRAM1', 'CCPG1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'RPL26', 'CDC42SE1', 'ASPH', 'LCE3E', 'CCNB1', 'KRT7', 'NUP37', 'NRP2', 'MT2A', 'PSME2', 'COL4A1', 'CA8', 'PKM', 'TKT', 'AVPI1', 'CD24', 'IGFBP4', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'OSGIN1', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'ATP1B1', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'LCE3D', 'SDC1', 'TOB1', 'AKR1C3', 'MRPS22', 'SNHG10', 'C1orf56', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'CCNE1', 'EIF4A3', 'MEG3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'BICC1', 'PERP', 'DDX10', 'KCNG1', 'PGM2L1', 'ALDH3A1', 'STMN1', 'DLGAP5', 'ARHGAP29', 'FABP5', 'AREG', 'TXN', 'ANGPTL4', 'HMGB1', 'HSPA2', 'SMTN', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'ADAM19', 'VTN', 'SLC26A2', 'FSCN1', 'NTN4', 'FBXO2', 'CADM1', 'TUBA1A', 'APLP2', 'RBP4', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'WDR43', 'MICAL2', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'SAMD11', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'HELLS', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'ZBED2', 'CYB5A', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'LTBP3', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'CD9', 'SULT2B1', 'SLAMF9', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'GSTO1', 'FOXD1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'FAM89B', 'PSMB1', 'COTL1', 'PBX1', 'PHF19', 'SAP30BP', 'PSMD2', 'BDNF', 'ARPC3', 'PMP22', 'SFPQ', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'UBXN4', 'SAT1', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'HOXB8', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'EBNA1BP2', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'MALAT1', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'SNAPC1', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'RSU1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'SNRPA1', 'CBR1', 'TAGLN2', 'MT1X', 'PHKG1', 'AP1M2', 'TUBA1C', 'KRT19', 'NSMCE2', 'RGS3', 'CAPG', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'ITGA2', 'FN1', 'AMIGO2', 'RDX', 'JUNB', 'TP53I3', 'IGFBP6', 'RPL22L1', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'IL11', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'TNFRSF12A', 'THRA', 'AGR2', 'NSMCE4A', 'DDX39A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'FXYD5', 'KRT81', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'CXCL8', 'TUBB2A', 'PPP1CB', 'MKI67', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'BCL3', 'CDKN3', 'MLXIP', 'BLVRA', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'PHLDA3', 'AURKB', 'CA12', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'HBEGF', 'INO80C', 'SQSTM1', 'PLEK2', 'C1QBP', 'AP2M1', 'FDXR', 'CKS1B', 'PRDX1']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IC', 'IEA'], ['IEP', 'IBA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IBA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'HMP', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IEP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'ISS', 'IBA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS'], ['TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'IMP', 'ISS'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IEP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.008820164585534805</v>
+        <v>0.009520306203969212</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -2629,19 +2629,19 @@
         <v>2459</v>
       </c>
       <c r="H16" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I16" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J16" t="n">
         <v>2717</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9625</v>
+        <v>0.9624217118997912</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1878812525416836</v>
+        <v>0.1874745831638878</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'PSMB1', 'AJUBA', 'PBX1', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'ZBED2', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'ECH1', 'STC1', 'PPP1R14A', 'TXNRD2', 'TMEM205', 'ILK', 'SQSTM1', 'AURKB', 'PSMA5', 'TUBB', 'NSMCE2', 'REEP5', 'VCAN', 'OLFM2', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'EMP3', 'OSBPL8', 'LTBP3', 'PLAUR', 'CDK6', 'EDN1', 'PMP22', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'ENO3', 'IGFBP4', 'NPTX1', 'NNMT', 'ANXA2', 'TKT', 'TFPI2', 'ANPEP', 'SAP30BP', 'TRIB3', 'TK1', 'SPOCK1', 'SRGAP1', 'HMGA2', 'CKS1B', 'PHLDA3', 'SMAD3', 'VIM', 'PSMA4', 'TRAM1', 'COL1A1', 'CTTN', 'CKS2', 'EIF2S3', 'ADH5', 'SH3BGRL3', 'ATP5G1', 'AVPI1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'CSTF3', 'CNN3', 'MGST3', 'TAGLN2', 'CCT5', 'TRIM7', 'PRC1', 'MALAT1', 'MYL12B', 'TPM1', 'CCT3', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'PHKG1', 'CDH2', 'RSPO3', 'CAV1', 'MT2A', 'MRPL13', 'NRP2', 'LCE3E', 'PSMD1', 'SFN', 'ANXA4', 'WDR43', 'SAMD11', 'APLP2', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'MYL6', 'FN1', 'ATP1B1', 'DSE', 'AKR1B10', 'ID3', 'CCDC80', 'SDC4', 'JUP', 'CADM1', 'BDNF', 'GSTP1', 'CCDC85B', 'CES1', 'IGFBP6', 'FDXR', 'ACP2', 'PRMT5', 'TRIML2', 'RHOU', 'MTHFD1', 'CREM', 'PERP', 'UBB', 'SMTN', 'HBEGF', 'PSME2', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'CXCL5', 'LIMD2', 'CDC25B', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'MTHFD2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'AMIGO2', 'CXCL8', 'TSPAN4', 'NUP37', 'ITGA11', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'KRR1', 'PCSK1N', 'PACSIN3', 'MEG3', 'KRT7', 'THRA', 'ORMDL2', 'PRDX1', 'RAB3B', 'RND1', 'SEMA3C', 'LCE3D', 'GAPDH', 'GSN', 'DUSP4', 'RPL22L1', 'AKAP12', 'MGLL', 'SNRPA1', 'LMNA', 'CCT2', 'HMGB1', 'MALSU1', 'NEMF', 'GALNT14', 'DDX56', 'FXYD5', 'CHST11', 'DHRS2', 'ENO1', 'TMSB10', 'PSMC4', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'NAMPT', 'HEXA', 'YWHAE', 'KCNMA1', 'TNFRSF1A', 'CD44', 'CDC20', 'DDX39A', 'AP1M2', 'CTNNB1', 'FSCN1', 'NUDT19', 'MT-ND6', 'EMG1', 'RGS3', 'ACTN1', 'SRSF7', 'CTNNAL1', 'HACD3', 'PTGR1', 'TMSB4X', 'PPP3CA', 'DDX10', 'PRMT1', 'GPX1', 'PVR', 'TSPAN5', 'BLVRA', 'INO80C', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'PUS1', 'TXNRD1', 'BAX', 'C1QBP', 'AP2M1', 'ZFAS1', 'ARL4A', 'KRT19', 'S100A4', 'SLN', 'EIF1', 'CA8', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'CCPG1', 'MRPS22', 'TNS3', 'EPHB2', 'ANGPTL4', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LDHA', 'RGS2', 'CPLX2', 'TNFAIP6', 'PDLIM5', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'LAMC2', 'MOB3B', 'TM4SF1', 'NPC2', 'CDKN3', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'NOL7', 'FSTL3', 'GNG4', 'KPNA2', 'C1orf56', 'SCG5', 'NPM1', 'CCNE1', 'REXO2', 'PSMD2', 'DOCK5', 'DERL1', 'HNRNPD', 'RASSF10', 'TGM2', 'TMEM59', 'SULT2B1', 'BOP1', 'SNAPC1', 'RPL26', 'PRSS23', 'FAM89B', 'CA12', 'SAT1', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'TAGLN', 'LDHB', 'TGFBI', 'TUBA1A', 'FOXM1', 'HSPA1A', 'TP53I3', 'PDCD5', 'EREG', 'TIMP2', 'TM4SF20', 'DYNLL1', 'ETS2', 'PLOD2', 'SNHG10', 'GNG11', 'HMGB3', 'PSMD8', 'CAPG', 'BICC1', 'TNFRSF12A', 'CTSL', 'ARHGAP29', 'SLC35F6', 'MGST1', 'SLAMF9', 'PGD', 'OCIAD2', 'GLRX', 'HOXB8', 'PLK2', 'GAL', 'MAP1LC3A', 'KCNG1', 'ISG20', 'GALNT1', 'IL11', 'CYB5A', 'ATF4', 'IL32', 'NTN4', 'PGM2L1', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'RPL28', 'STMN1', 'TXNDC9', 'CCL2', 'DLGAP5', 'TUBB4B', 'ARPC3', 'AKR1B1', 'BTG1', 'CENPA', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'TUBB2A', 'HPGD', 'DMKN', 'CDA', 'MT1X', 'AREG', 'DKC1', 'UBC', 'UBE2C', 'NAP1L1', 'SYT1', 'MYO10', 'TSFM', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NME1', 'RNF26', 'PMEPA1', 'OSGIN1', 'NQO1', 'CBR1', 'TUBA4A', 'TOP2A', 'HNRNPH1', 'UBE2S', 'C15orf48', 'MICAL2', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'EBNA1BP2', 'SLC2A3', 'AGR2', 'ELF3', 'FTL', 'DHRS7', 'SPTSSA', 'IFITM2', 'SLC26A2', 'RBP4', 'AKR1C3', 'COPB1', 'PHF19', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'TXNDC9', 'CD44', 'EZH2', 'TMEM205', 'MRPL13', 'TM7SF3', 'LDHB', 'SRSF7', 'TAGLN', 'CD63', 'ANXA3', 'SPOCK1', 'LDHA', 'LAMC2', 'NQO1', 'PTGR1', 'DYNLL1', 'ITGA11', 'EDN1', 'OCIAD2', 'ISG20', 'PGD', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'HNRNPH1', 'BOP1', 'NNMT', 'IER3', 'GNL3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'PDLIM5', 'HSPA1A', 'REEP5', 'CCL2', 'JUN', 'TMSB10', 'IL32', 'CCDC80', 'GLRX', 'NAP1L1', 'NOL7', 'ATP5G1', 'TOP2A', 'TUBA1B', 'DERL1', 'RSPO3', 'MAP1B', 'AATF', 'TMEM59', 'ACTB', 'RAN', 'MAP1LC3A', 'PPP1R14A', 'RND1', 'HSPA5', 'EREG', 'F12', 'TSPAN4', 'SCG5', 'CHCHD10', 'GALNT14', 'KCNMA1', 'GNG11', 'CSRP1', 'SLC3A2', 'GNG4', 'DMKN', 'S100A11', 'CXCL5', 'ANPEP', 'TSPAN5', 'CTPS1', 'CSTF3', 'AKR1B1', 'TM4SF20', 'NAMPT', 'NT5E', 'MYL12A', 'CDC25B', 'RPL28', 'HLA-C', 'PSMD8', 'SEMA3C', 'MTHFD1', 'ENO1', 'NUDC', 'EMP3', 'TNS3', 'TFPI2', 'ID3', 'POLR2L', 'HSP90AB1', 'PLOD2', 'TM4SF1', 'CTTN', 'IGFBP3', 'CKS2', 'TIMP2', 'TRIML2', 'TRAM1', 'CCPG1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'ACTN1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'RPL26', 'CDC42SE1', 'ASPH', 'LCE3E', 'CCNB1', 'KRT7', 'NUP37', 'NRP2', 'MT2A', 'PSME2', 'COL4A1', 'CA8', 'PKM', 'TKT', 'S100A16', 'AVPI1', 'CD24', 'IGFBP4', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'OSGIN1', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'UBE2S', 'CCT2', 'HMGA1', 'CXCL1', 'ATP1B1', 'FTL', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PRSS23', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'LCE3D', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'MRPS22', 'SNHG10', 'C1orf56', 'CES1', 'HACD3', 'BTG1', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'NUDT19', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'CYP24A1', 'MTHFD2', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'ENO3', 'DSE', 'CCNE1', 'EIF4A3', 'MEG3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'BICC1', 'PERP', 'DDX10', 'KCNG1', 'PGM2L1', 'ALDH3A1', 'STMN1', 'DLGAP5', 'ARHGAP29', 'FABP5', 'AREG', 'TXN', 'ANGPTL4', 'HMGB1', 'HSPA2', 'SMTN', 'ANXA1', 'UBE2C', 'ARL6IP1', 'TGM2', 'SLN', 'TSFM', 'AJUBA', 'ADAM19', 'VTN', 'SLC26A2', 'FSCN1', 'NTN4', 'FBXO2', 'CADM1', 'TUBA1A', 'APLP2', 'RBP4', 'EIF1', 'FLNB', 'RHOF', 'FGFR1', 'WDR43', 'MICAL2', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'SAMD11', 'CREM', 'SH3BGRL3', 'PDCD5', 'DHRS3', 'EMG1', 'AHNAK2', 'NMI', 'HELLS', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'MYL6', 'FTH1', 'LGALS1', 'MALSU1', 'ZBED2', 'CYB5A', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'ORMDL2', 'PSMC4', 'LTBP3', 'DHRS7', 'TK1', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'ZFAS1', 'COPB1', 'CD9', 'SULT2B1', 'MYL12B', 'SLAMF9', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'KRR1', 'MAP2K3', 'ACP2', 'GSTO1', 'FOXD1', 'NME1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'FAM89B', 'PSMB1', 'COTL1', 'PBX1', 'PHF19', 'SAP30BP', 'PSMD2', 'BDNF', 'ARPC3', 'PMP22', 'SFPQ', 'PUS1', 'TPM2', 'MGST3', 'NPTX1', 'UBXN4', 'SAT1', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'HOXB8', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'EBNA1BP2', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'MALAT1', 'S100A6', 'ANTXR1', 'SLC35F6', 'TUBB', 'CNN3', 'TUBA4A', 'CDK1', 'MGST1', 'MT-ND6', 'SNAPC1', 'GALNT1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'RSU1', 'PRC1', 'MOB3B', 'UBC', 'HMGB3', 'NEMF', 'HMGB2', 'CCDC85B', 'DKC1', 'PSMA4', 'ETS2', 'SNRPA1', 'CBR1', 'TAGLN2', 'MT1X', 'PHKG1', 'AP1M2', 'TUBA1C', 'KRT19', 'NSMCE2', 'RGS3', 'CAPG', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'VCAN', 'NPC2', 'ITGA2', 'FN1', 'AMIGO2', 'RDX', 'JUNB', 'TP53I3', 'IGFBP6', 'RPL22L1', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'IL11', 'PSMA5', 'DUSP4', 'PSMD1', 'CCT3', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SPTSSA', 'SFN', 'TNFRSF12A', 'THRA', 'AGR2', 'NSMCE4A', 'DDX39A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'FXYD5', 'KRT81', 'REXO2', 'HEXA', 'HSP90AA1', 'GSN', 'CXCL8', 'TUBB2A', 'PPP1CB', 'MKI67', 'STC1', 'RAB3B', 'LIMD2', 'COL4A2', 'ARL4A', 'UPP1', 'BCL3', 'CDKN3', 'MLXIP', 'BLVRA', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'PHLDA3', 'AURKB', 'CA12', 'PACSIN3', 'KPNA2', 'SLC2A3', 'CENPA', 'ID1', 'HBEGF', 'INO80C', 'SQSTM1', 'PLEK2', 'C1QBP', 'AP2M1', 'FDXR', 'CKS1B', 'PRDX1']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'HEP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ND'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'ND'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'ND', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['NAS', 'ND'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IMP', 'IBA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IBA', 'ND'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'ND'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IEP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'ISS', 'IBA'], ['IBA', 'ND'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ND'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'HEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HEP', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'ND'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'TAS'], ['ND', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS', 'ND'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'TAS', 'ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['HEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'ND'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IEP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01283320542755427</v>
+        <v>0.01607679701341985</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2695,19 +2695,19 @@
         <v>1455</v>
       </c>
       <c r="H17" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I17" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J17" t="n">
         <v>2717</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6395833333333333</v>
+        <v>0.6388308977035491</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2109965635738832</v>
+        <v>0.2103092783505155</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'AJUBA', 'SVIP', 'CALM2', 'RAN', 'FTH1', 'F12', 'HSP90B1', 'HMGA1', 'MYOF', 'RSU1', 'GCLC', 'MAP1B', 'RHOF', 'STC1', 'TXNRD2', 'ILK', 'SQSTM1', 'AURKB', 'TUBB', 'NSMCE2', 'OLFM2', 'GRAMD1A', 'HSPD1', 'CMTM3', 'SGK1', 'FLOT1', 'KRT8', 'NUPR1', 'NUDC', 'OSBPL8', 'LTBP3', 'PLAUR', 'CDK6', 'EDN1', 'UPP1', 'GPX2', 'LBH', 'RIN2', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'NPTX1', 'NNMT', 'ANXA2', 'TFPI2', 'SAP30BP', 'TRIB3', 'SRGAP1', 'HMGA2', 'PHLDA3', 'SMAD3', 'VIM', 'TRAM1', 'COL1A1', 'CTTN', 'ADH5', 'AVPI1', 'PDGFC', 'RBP1', 'DNER', 'NCOA7', 'CD24', 'HELLS', 'MGST3', 'CCT5', 'TRIM7', 'TPM1', 'PRSS3', 'S100A6', 'CCNB1', 'NRG1', 'FH', 'RAET1G', 'TOB1', 'CDH2', 'RSPO3', 'CAV1', 'MT2A', 'NRP2', 'SFN', 'ANXA4', 'APLP2', 'B4GALT1', 'HSPB1', 'EZH2', 'SFPQ', 'DHRS3', 'MAF', 'HSP90AB1', 'COL4A1', 'FN1', 'ATP1B1', 'AKR1B10', 'ID3', 'CCDC80', 'SDC4', 'JUP', 'CADM1', 'BDNF', 'GSTP1', 'CES1', 'IGFBP6', 'PRMT5', 'TRIML2', 'RHOU', 'CREM', 'PERP', 'UBB', 'HBEGF', 'PLEK2', 'ULK1', 'NUP93', 'NR0B1', 'TUBA1B', 'CXCL5', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'KRT18', 'EIF2S1', 'NSMCE4A', 'IER3', 'JUN', 'G6PD', 'SOX4', 'ALDH3A1', 'ANXA1', 'CXCL8', 'ITGA11', 'COL4A2', 'CD63', 'PCSK1N', 'THRA', 'PRDX1', 'RND1', 'SEMA3C', 'GAPDH', 'GSN', 'DUSP4', 'AKAP12', 'MGLL', 'LMNA', 'HMGB1', 'DDX56', 'CHST11', 'DHRS2', 'ENO1', 'CTPS1', 'HSP90AA1', 'NAMPT', 'YWHAE', 'KCNMA1', 'TNFRSF1A', 'CD44', 'CDC20', 'CTNNB1', 'MT-ND6', 'RGS3', 'SRSF7', 'CTNNAL1', 'HACD3', 'TMSB4X', 'PPP3CA', 'PRMT1', 'GPX1', 'PVR', 'TSPAN5', 'INO80C', 'MAP2K3', 'S100A16', 'EIF4A3', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'FLNB', 'S100A11', 'CSRP1', 'BCL3', 'PTPRJ', 'BLOC1S2', 'TXNRD1', 'BAX', 'C1QBP', 'KRT19', 'S100A4', 'CA8', 'HMGB2', 'PPP1CB', 'AXL', 'CHCHD10', 'EPHB2', 'ANGPTL4', 'PRNP', 'BCL2A1', 'SLC22A18', 'GSTO1', 'VTN', 'PKM', 'ITGA2', 'MYL12A', 'RGS2', 'CPLX2', 'TNFAIP6', 'PYCARD', 'ACTB', 'KCNN4', 'PTTG1', 'MOB3B', 'NPC2', 'IGFBP7', 'CDC42SE1', 'ANXA3', 'FBXO2', 'FABP5', 'FSTL3', 'GNG4', 'SCG5', 'NPM1', 'CCNE1', 'DOCK5', 'DERL1', 'HNRNPD', 'RASSF10', 'TGM2', 'BOP1', 'RPL26', 'FAM89B', 'CYBA', 'COL5A2', 'ID1', 'NUAK1', 'ARHGAP11A', 'TUBA1A', 'FOXM1', 'HSPA1A', 'PDCD5', 'EREG', 'TIMP2', 'DYNLL1', 'PLOD2', 'GNG11', 'HMGB3', 'BICC1', 'TNFRSF12A', 'CTSL', 'ARHGAP29', 'SLC35F6', 'MGST1', 'OCIAD2', 'PLK2', 'GAL', 'MAP1LC3A', 'ISG20', 'IL11', 'ATF4', 'IL32', 'RDX', 'UBXN4', 'MORF4L2', 'HLA-C', 'STMN1', 'CCL2', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'AATF', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'HPGD', 'CDA', 'MT1X', 'AREG', 'SYT1', 'MYO10', 'SERPINE2', 'CLU', 'ACTG1', 'RNF26', 'PMEPA1', 'OSGIN1', 'NQO1', 'CBR1', 'TOP2A', 'C15orf48', 'TSPAN15', 'CDK1', 'NMI', 'ASPH', 'AGR2', 'ELF3', 'IFITM2', 'RBP4', 'AKR1C3', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'SDC1']</t>
+          <t>['OLFM2', 'CD44', 'EZH2', 'TM7SF3', 'SRSF7', 'CD63', 'ANXA3', 'NQO1', 'DYNLL1', 'ITGA11', 'EDN1', 'OCIAD2', 'ISG20', 'ACTG1', 'UBB', 'BIRC5', 'GCLC', 'BOP1', 'NNMT', 'IER3', 'SDC4', 'CLU', 'CAV1', 'PLAUR', 'HSPA1A', 'CCL2', 'JUN', 'IL32', 'CCDC80', 'TOP2A', 'TUBA1B', 'DERL1', 'RSPO3', 'MAP1B', 'AATF', 'ACTB', 'RAN', 'MAP1LC3A', 'RND1', 'HSPA5', 'EREG', 'F12', 'SCG5', 'CHCHD10', 'KCNMA1', 'GNG11', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'CXCL5', 'TSPAN5', 'CTPS1', 'AKR1B1', 'NAMPT', 'NT5E', 'MYL12A', 'HLA-C', 'SEMA3C', 'ENO1', 'NUDC', 'TFPI2', 'ID3', 'HSP90AB1', 'PLOD2', 'CTTN', 'IGFBP3', 'TIMP2', 'TRIML2', 'TRAM1', 'AKR1B10', 'TNFAIP6', 'IGFBP7', 'B4GALT1', 'SGK1', 'HSP90B1', 'HPGD', 'MAF', 'HSPD1', 'GRAMD1A', 'RPL26', 'CDC42SE1', 'ASPH', 'CCNB1', 'NRP2', 'MT2A', 'COL4A1', 'CA8', 'PKM', 'S100A16', 'AVPI1', 'CD24', 'IGFBP4', 'SLC22A18', 'PTTG1', 'NUP93', 'PCSK1N', 'OSGIN1', 'RBP1', 'PGK1', 'OSBPL8', 'DDX56', 'HMGA1', 'CXCL1', 'ATP1B1', 'CPLX2', 'CMTM3', 'DNER', 'MGLL', 'S100A10', 'KRT8', 'PLK2', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'SDC1', 'C15orf48', 'TOB1', 'AKR1C3', 'CES1', 'HACD3', 'EIF2S1', 'RHOU', 'NRG1', 'GAL', 'CYBA', 'KRT18', 'DOCK5', 'CTNNAL1', 'NUAK1', 'CYP24A1', 'DHRS2', 'KYNU', 'YWHAE', 'PMEPA1', 'IFITM2', 'SERPINE2', 'ANXA4', 'ALDH1A1', 'CCNE1', 'EIF4A3', 'G6PD', 'MYO10', 'PRNP', 'MYOF', 'BICC1', 'PERP', 'ALDH3A1', 'STMN1', 'ARHGAP29', 'FABP5', 'AREG', 'TXN', 'ANGPTL4', 'HMGB1', 'HSPA2', 'ANXA1', 'TGM2', 'AJUBA', 'VTN', 'FBXO2', 'CADM1', 'TUBA1A', 'APLP2', 'RBP4', 'FLNB', 'RHOF', 'FGFR1', 'GPX1', 'MORF4L2', 'AXL', 'LMNA', 'CDC42', 'CDK6', 'FH', 'KCNN4', 'CREM', 'PDCD5', 'DHRS3', 'NMI', 'HELLS', 'RAET1G', 'RASSF10', 'FSTL3', 'S100A4', 'FTH1', 'LGALS1', 'SVIP', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'LTBP3', 'SMAD3', 'RGS2', 'RIN2', 'NPM1', 'CD9', 'PPP3CA', 'FOXM1', 'CDC20', 'LBH', 'ILK', 'JUP', 'ARHGAP11A', 'MAP2K3', 'GSTO1', 'FOXD1', 'TXNRD1', 'TXNRD2', 'FAM89B', 'COTL1', 'SAP30BP', 'BDNF', 'ARPC3', 'SFPQ', 'MGST3', 'NPTX1', 'UBXN4', 'ADH5', 'CHST11', 'TRIB3', 'BLOC1S2', 'CDH2', 'ANXA2', 'NR0B1', 'ATF4', 'NCOA7', 'HMGA2', 'ELF3', 'COL5A2', 'S100A6', 'SLC35F6', 'TUBB', 'CDK1', 'MGST1', 'MT-ND6', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'PVR', 'RSU1', 'MOB3B', 'HMGB3', 'HMGB2', 'CBR1', 'MT1X', 'KRT19', 'NSMCE2', 'RGS3', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'RNF26', 'PDGFC', 'SYT1', 'NPC2', 'ITGA2', 'FN1', 'RDX', 'JUNB', 'IGFBP6', 'TUBB4B', 'FLOT1', 'TMSB4X', 'TRIM7', 'IL11', 'DUSP4', 'PTPRJ', 'CTNNB1', 'COL1A1', 'HNRNPD', 'PYCARD', 'SFN', 'TNFRSF12A', 'THRA', 'AGR2', 'NSMCE4A', 'GPX2', 'BCL2A1', 'VIM', 'PRMT1', 'HSP90AA1', 'GSN', 'CXCL8', 'PPP1CB', 'STC1', 'COL4A2', 'UPP1', 'BCL3', 'SOX4', 'TPM1', 'NUPR1', 'GSTP1', 'PHLDA3', 'AURKB', 'ID1', 'HBEGF', 'INO80C', 'SQSTM1', 'PLEK2', 'C1QBP', 'PRDX1']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS'], ['NAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISS'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['IEA'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEP', 'ISS'], ['TAS'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IEP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IEP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IC'], ['IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IGI', 'IEP'], ['TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['ISO', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['HMP'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'NAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS'], ['IDA', 'TAS'], ['IEA'], ['IMP', 'IBA'], ['IEP'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IEP', 'IBA'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEP', 'TAS', 'NAS'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HMP', 'IEA'], ['NAS'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IC', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA']]</t>
+          <t>[['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEP', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IBA', 'TAS', 'IEA'], ['HMP'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IMP'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HMP'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IEP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEP'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IEP', 'IBA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['NAS'], ['IEA'], ['HMP', 'ISS', 'TAS', 'IEA'], ['IEP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP'], ['IMP', 'TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['TAS'], ['IMP', 'IEP', 'TAS', 'NAS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IC'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA', 'HMP', 'IEA'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEP', 'IBA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS'], ['IEP', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IGI', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'TAS'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEP'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['NAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'ISS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.03050883646956874</v>
+        <v>0.02761063960713716</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>312</v>
       </c>
       <c r="H18" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I18" t="n">
         <v>88</v>
@@ -2770,7 +2770,7 @@
         <v>2717</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.1837160751565762</v>
       </c>
       <c r="L18" t="n">
         <v>0.282051282051282</v>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'F12', 'SQSTM1', 'AURKB', 'TUBB', 'HSPD1', 'FLOT1', 'KRT8', 'CDK6', 'EDN1', 'CXCL1', 'SLC3A2', 'ANPEP', 'SAP30BP', 'HMGA2', 'SMAD3', 'VIM', 'ADH5', 'CD24', 'CCT5', 'TRIM7', 'PRSS3', 'RAET1G', 'CAV1', 'SFN', 'HSPB1', 'SFPQ', 'HSP90AB1', 'FN1', 'ATP1B1', 'CCDC80', 'CADM1', 'GSTP1', 'TRIML2', 'CXCL5', 'KYNU', 'IER3', 'JUN', 'ANXA1', 'CXCL8', 'PRDX1', 'GAPDH', 'GSN', 'AKAP12', 'HMGB1', 'DDX56', 'ENO1', 'HSP90AA1', 'YWHAE', 'TNFRSF1A', 'GPX1', 'PVR', 'MAP2K3', 'CDC42', 'FLNB', 'BCL3', 'BAX', 'C1QBP', 'HMGB2', 'AXL', 'EPHB2', 'ITGA2', 'PYCARD', 'NPC2', 'ANXA3', 'KPNA2', 'CYBA', 'HSPA1A', 'EREG', 'HMGB3', 'CTSL', 'OCIAD2', 'ISG20', 'HLA-C', 'STMN1', 'CCL2', 'TUBB4B', 'LGALS1', 'HPGD', 'CLU', 'ACTG1', 'RNF26', 'NQO1', 'C15orf48', 'CDK1', 'NMI', 'IFITM2', 'COTL1']</t>
+          <t>['ANXA3', 'NQO1', 'EDN1', 'OCIAD2', 'ISG20', 'ACTG1', 'IER3', 'CLU', 'CAV1', 'HSPA1A', 'CCL2', 'JUN', 'CCDC80', 'EREG', 'F12', 'SLC3A2', 'CXCL5', 'ANPEP', 'HLA-C', 'ENO1', 'HSP90AB1', 'TRIML2', 'HPGD', 'HSPD1', 'CD24', 'DDX56', 'CXCL1', 'ATP1B1', 'KRT8', 'CCT5', 'EPHB2', 'HSPB1', 'BAX', 'C15orf48', 'CYBA', 'KYNU', 'YWHAE', 'IFITM2', 'STMN1', 'HMGB1', 'ANXA1', 'CADM1', 'FLNB', 'GPX1', 'AXL', 'CDC42', 'CDK6', 'NMI', 'RAET1G', 'LGALS1', 'CTSL', 'GAPDH', 'SMAD3', 'MAP2K3', 'COTL1', 'SAP30BP', 'SFPQ', 'ADH5', 'HMGA2', 'TUBB', 'CDK1', 'SERPINE1', 'AKAP12', 'PVR', 'HMGB3', 'HMGB2', 'TNFRSF1A', 'PRSS3', 'RNF26', 'NPC2', 'ITGA2', 'FN1', 'TUBB4B', 'FLOT1', 'TRIM7', 'PYCARD', 'SFN', 'VIM', 'HSP90AA1', 'GSN', 'CXCL8', 'BCL3', 'GSTP1', 'AURKB', 'KPNA2', 'SQSTM1', 'C1QBP', 'PRDX1']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IMP', 'IGI'], ['TAS'], ['IDA'], ['IDA'], ['NAS'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IEP'], ['IEA'], ['IBA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEP'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS'], ['IEP'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI'], ['IDA'], ['IEP'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IBA'], ['IBA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IEP'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IEP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEP', 'ISS', 'IBA', 'NAS'], ['NAS'], ['IDA'], ['IEA'], ['IEP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA']]</t>
+          <t>[['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA', 'NAS'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP'], ['IBA'], ['IEA'], ['IEA'], ['IEP'], ['IMP'], ['IBA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IMP'], ['IBA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEP'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IEP'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['NAS'], ['IEA'], ['IMP', 'IGI'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEP'], ['IEA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IEA'], ['ISS'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.03773988900869955</v>
+        <v>0.03488599278220982</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>202</v>
       </c>
       <c r="H19" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I19" t="n">
         <v>63</v>
@@ -2836,7 +2836,7 @@
         <v>2717</v>
       </c>
       <c r="K19" t="n">
-        <v>0.13125</v>
+        <v>0.1315240083507307</v>
       </c>
       <c r="L19" t="n">
         <v>0.3118811881188119</v>
@@ -2853,59 +2853,59 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'PSMB1', 'SVIP', 'FTH1', 'RHOF', 'PSMA5', 'TUBB', 'HSPD1', 'PLAUR', 'EDN1', 'CXCL1', 'CD9', 'ANXA2', 'ANPEP', 'COL1A1', 'PRSS3', 'CAV1', 'PSMD1', 'ANXA4', 'APLP2', 'B4GALT1', 'HSP90AB1', 'FN1', 'JUP', 'GSTP1', 'CD63', 'PCSK1N', 'GSN', 'CCT2', 'HMGB1', 'HSP90AA1', 'HEXA', 'CD44', 'ACTN1', 'TMSB4X', 'CDC42', 'S100A11', 'PTPRJ', 'PKM', 'TNFAIP6', 'PYCARD', 'NPC2', 'ANXA3', 'FABP5', 'SCG5', 'PSMD2', 'CYBA', 'HSPA1A', 'TIMP2', 'DYNLL1', 'CTSL', 'MGST1', 'GAL', 'HLA-C', 'TUBB4B', 'CDA', 'SYT1', 'SERPINE2', 'CLU', 'SLC2A3', 'FTL', 'COPB1', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'DYNLL1', 'EDN1', 'CLU', 'CAV1', 'PLAUR', 'HSPA1A', 'SCG5', 'S100A11', 'ANPEP', 'HLA-C', 'HSP90AB1', 'TIMP2', 'TNFAIP6', 'B4GALT1', 'ACTN1', 'HSPD1', 'PKM', 'PCSK1N', 'CCT2', 'CXCL1', 'FTL', 'GAL', 'CYBA', 'SERPINE2', 'ANXA4', 'FABP5', 'HMGB1', 'APLP2', 'RHOF', 'CDC42', 'FTH1', 'SVIP', 'CTSL', 'COPB1', 'CD9', 'JUP', 'PSMB1', 'COTL1', 'PSMD2', 'ANXA2', 'TUBB', 'MGST1', 'SERPINE1', 'CDA', 'PRSS3', 'SYT1', 'NPC2', 'FN1', 'TUBB4B', 'TMSB4X', 'PSMA5', 'PSMD1', 'PTPRJ', 'COL1A1', 'PYCARD', 'HEXA', 'HSP90AA1', 'GSN', 'GSTP1', 'SLC2A3']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['TAS']]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GO:BP</t>
+          <t>GO:CC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GO:0051246</t>
+          <t>GO:0030055</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>regulation of protein metabolic process</t>
+          <t>cell-substrate junction</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.038960952578848</v>
+        <v>0.04141964385164288</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>"Any process that modulates the frequency, rate or extent of the chemical reactions and pathways involving a protein." [GOC:ai]</t>
+          <t>"A cell junction that forms a connection between a cell and the extracellular matrix." [GOC:aruk, GOC:bc, GOC:hb, GOC:mah, PMID:10419689, PMID:1643657, PMID:16805308, PMID:26923917, PMID:8314002]</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>393</v>
+        <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I20" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="J20" t="n">
         <v>2717</v>
       </c>
       <c r="K20" t="n">
-        <v>0.21875</v>
+        <v>0.09394572025052192</v>
       </c>
       <c r="L20" t="n">
-        <v>0.267175572519084</v>
+        <v>0.3515625</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2914,17 +2914,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['GO:0019538', 'GO:0060255', 'GO:0080090']</t>
+          <t>['GO:0070161']</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'AJUBA', 'SVIP', 'CALM2', 'F12', 'GCLC', 'ILK', 'SQSTM1', 'FLOT1', 'NUPR1', 'PLAUR', 'EDN1', 'NNMT', 'ANXA2', 'TFPI2', 'TRIB3', 'SPOCK1', 'HMGA2', 'SMAD3', 'PDGFC', 'NCOA7', 'CD24', 'NRG1', 'TOB1', 'CAV1', 'MRPL13', 'PSMD1', 'SFN', 'HSPB1', 'EZH2', 'HSP90AB1', 'FN1', 'BDNF', 'GSTP1', 'PERP', 'UBB', 'HBEGF', 'PSME2', 'ULK1', 'TXN', 'EIF2S1', 'IER3', 'G6PD', 'SOX4', 'PCSK1N', 'PACSIN3', 'GAPDH', 'GSN', 'MALSU1', 'ENO1', 'PSMC4', 'HSP90AA1', 'TNFRSF1A', 'CD44', 'CDC20', 'CTNNB1', 'PRMT1', 'GPX1', 'TSPAN5', 'MAP2K3', 'EIF4A3', 'GNL3', 'IGFBP3', 'HSPA5', 'FGFR1', 'BCL3', 'PTPRJ', 'BAX', 'C1QBP', 'EIF1', 'EPHB2', 'PRNP', 'VTN', 'PKM', 'ITGA2', 'RGS2', 'PYCARD', 'ACTB', 'CDKN3', 'FBXO2', 'NPM1', 'PSMD2', 'DERL1', 'HNRNPD', 'RPL26', 'HSPA1A', 'EREG', 'TIMP2', 'TM4SF20', 'PLK2', 'IL11', 'ATF4', 'RDX', 'AATF', 'S100A10', 'AREG', 'UBE2C', 'TSFM', 'SERPINE2', 'CLU', 'NQO1', 'UBE2S', 'TSPAN15', 'NMI', 'ASPH']</t>
+          <t>['CD44', 'ITGA11', 'ACTG1', 'SDC4', 'CAV1', 'PLAUR', 'HSPA1A', 'ACTB', 'HSPA5', 'TSPAN4', 'CSRP1', 'TM4SF20', 'TNS3', 'CTTN', 'ACTN1', 'HSP90B1', 'HMGA1', 'HSPB1', 'HACD3', 'RHOU', 'YWHAE', 'ANXA1', 'TGM2', 'AJUBA', 'FLNB', 'CDC42', 'ITGA3', 'NPM1', 'CD9', 'ILK', 'JUP', 'ARPC3', 'CDH2', 'CNN3', 'AKAP12', 'PVR', 'RSU1', 'ITGA2', 'RDX', 'FLOT1', 'CTNNB1', 'VIM', 'REXO2', 'GSN', 'PPP1CB']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'NAS'], ['IMP'], ['IMP', 'IBA'], ['TAS'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IMP', 'ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IGI'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IEA'], ['IDA', 'IGI'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['TAS'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['ISS'], ['IGI'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IEA'], ['IDA']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['ISS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -2936,30 +2936,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GO:0030055</t>
+          <t>GO:0005925</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cell-substrate junction</t>
+          <t>focal adhesion</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.04407518735654439</v>
+        <v>0.04141964385164288</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>"A cell junction that forms a connection between a cell and the extracellular matrix." [GOC:aruk, GOC:bc, GOC:hb, GOC:mah, PMID:10419689, PMID:1643657, PMID:16805308, PMID:26923917, PMID:8314002]</t>
+          <t>"A cell-substrate junction that anchors the cell to the extracellular matrix and that forms a point of termination of actin filaments. In insects focal adhesion has also been referred to as hemi-adherens junction (HAJ)." [GOC:aruk, GOC:bc, ISBN:0124325653, ISBN:0815316208, PMID:10419689, PMID:12191915, PMID:15246682, PMID:1643657, PMID:16805308, PMID:19197329, PMID:23033047, PMID:26923917, PMID:28796323, PMID:8314002]</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I21" t="n">
         <v>45</v>
@@ -2968,7 +2968,7 @@
         <v>2717</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09375</v>
+        <v>0.09394572025052192</v>
       </c>
       <c r="L21" t="n">
         <v>0.3515625</v>
@@ -2980,83 +2980,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['GO:0070161']</t>
+          <t>['GO:0030055']</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['AJUBA', 'HSP90B1', 'HMGA1', 'RSU1', 'ILK', 'FLOT1', 'PLAUR', 'CD9', 'VIM', 'CTTN', 'CNN3', 'CDH2', 'CAV1', 'HSPB1', 'SDC4', 'JUP', 'RHOU', 'ANXA1', 'TSPAN4', 'ITGA11', 'GSN', 'AKAP12', 'YWHAE', 'CD44', 'CTNNB1', 'ACTN1', 'HACD3', 'PVR', 'CDC42', 'HSPA5', 'FLNB', 'CSRP1', 'PPP1CB', 'TNS3', 'ITGA2', 'ACTB', 'NPM1', 'REXO2', 'TGM2', 'HSPA1A', 'TM4SF20', 'RDX', 'ARPC3', 'ITGA3', 'ACTG1']</t>
+          <t>['CD44', 'ITGA11', 'ACTG1', 'SDC4', 'CAV1', 'PLAUR', 'HSPA1A', 'ACTB', 'HSPA5', 'TSPAN4', 'CSRP1', 'TM4SF20', 'TNS3', 'CTTN', 'ACTN1', 'HSP90B1', 'HMGA1', 'HSPB1', 'HACD3', 'RHOU', 'YWHAE', 'ANXA1', 'TGM2', 'AJUBA', 'FLNB', 'CDC42', 'ITGA3', 'NPM1', 'CD9', 'ILK', 'JUP', 'ARPC3', 'CDH2', 'CNN3', 'AKAP12', 'PVR', 'RSU1', 'ITGA2', 'RDX', 'FLOT1', 'CTNNB1', 'VIM', 'REXO2', 'GSN', 'PPP1CB']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['IEA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['ISS']]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GO:CC</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>GO:0005925</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>focal adhesion</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.04407518735654439</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>"A cell-substrate junction that anchors the cell to the extracellular matrix and that forms a point of termination of actin filaments. In insects focal adhesion has also been referred to as hemi-adherens junction (HAJ)." [GOC:aruk, GOC:bc, ISBN:0124325653, ISBN:0815316208, PMID:10419689, PMID:12191915, PMID:15246682, PMID:1643657, PMID:16805308, PMID:19197329, PMID:23033047, PMID:26923917, PMID:28796323, PMID:8314002]</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>128</v>
-      </c>
-      <c r="H22" t="n">
-        <v>480</v>
-      </c>
-      <c r="I22" t="n">
-        <v>45</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2717</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.3515625</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>query_1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>['GO:0030055']</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>['AJUBA', 'HSP90B1', 'HMGA1', 'RSU1', 'ILK', 'FLOT1', 'PLAUR', 'CD9', 'VIM', 'CTTN', 'CNN3', 'CDH2', 'CAV1', 'HSPB1', 'SDC4', 'JUP', 'RHOU', 'ANXA1', 'TSPAN4', 'ITGA11', 'GSN', 'AKAP12', 'YWHAE', 'CD44', 'CTNNB1', 'ACTN1', 'HACD3', 'PVR', 'CDC42', 'HSPA5', 'FLNB', 'CSRP1', 'PPP1CB', 'TNS3', 'ITGA2', 'ACTB', 'NPM1', 'REXO2', 'TGM2', 'HSPA1A', 'TM4SF20', 'RDX', 'ARPC3', 'ITGA3', 'ACTG1']</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>[['IEA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['ISS']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['ISS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3152,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['GOLIM4', 'SERPINE1', 'HSPA2', 'TUBA1C', 'CALM2', 'RAN', 'FTH1', 'MYOF', 'ECH1', 'RHOF', 'DKK1', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'CMTM3', 'GRAMD1A', 'FLOT1', 'SRGN', 'BMP1', 'LTBP3', 'PLAUR', 'PDIA6', 'RIN2', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'NPTX1', 'ANXA2', 'TKT', 'VIM', 'TGFBR1', 'COL1A1', 'PSMA4', 'CTTN', 'EIF2S3', 'SH3BGRL3', 'MFSD12', 'PRSS3', 'MYL12B', 'S100A6', 'NTS', 'GLIPR1', 'HSPA8', 'CAV1', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'GIP', 'MYL6', 'FN1', 'MT3', 'CNTN1', 'COPZ2', 'DSE', 'SDC4', 'JUP', 'ACP2', 'RHOD', 'PSMB3', 'UBB', 'PSME2', 'ULK1', 'TM7SF3', 'TXN', 'G6PD', 'TSPAN4', 'COL4A2', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'PSMD14', 'KRT7', 'JAK1', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'HMGB1', 'EIF6', 'ENO1', 'ANTXR1', 'HSP90AA1', 'YWHAE', 'ADGRG1', 'CD44', 'SH3KBP1', 'QPCT', 'CTNNB1', 'FSCN1', 'SCCPDH', 'PTGR1', 'TMSB4X', 'S100A16', 'CDC42', 'HSPA5', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'AP2M1', 'S100A4', 'RAP1GAP', 'PPP1CB', 'GPRC5A', 'AXL', 'SPP1', 'PKM', 'MYL12A', 'LGALS3', 'SKIL', 'PYCARD', 'ACTB', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'GNG4', 'SYT13', 'PSMD2', 'RUVBL2', 'TGM2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'CYBA', 'ITGA5', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'TIMP2', 'CTSL', 'MGST1', 'OCIAD2', 'GLRX', 'GAL', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'ARPC3', 'AKR1B1', 'F2RL1', 'PGK1', 'GABARAPL1', 'ITGA3', 'LGALS1', 'S100A10', 'CDA', 'UBC', 'NAP1L1', 'SYT1', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'PMEPA1', 'TUBA4A', 'TSPAN15', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'GNPNAT1', 'ILF2', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'PTGR1', 'FURIN', 'OCIAD2', 'ACTG1', 'UBB', 'GNPNAT1', 'SDC4', 'CAV1', 'CLU', 'PLAUR', 'GLRX', 'NAP1L1', 'GLIPR1', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'TSPAN4', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'COPZ2', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'HSP90AB1', 'BMP1', 'PSMB3', 'TIMP2', 'CTTN', 'IGFBP7', 'B4GALT1', 'GRAMD1A', 'KRT7', 'PSME2', 'HSPA8', 'PSMD14', 'PKM', 'TKT', 'S100A16', 'GIP', 'PDIA6', 'PCSK1N', 'PGK1', 'CCT2', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'CMTM3', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'JAK1', 'GAL', 'SCCPDH', 'CYBA', 'GABARAPL1', 'F2RL1', 'YWHAE', 'PMEPA1', 'SERPINE2', 'ALDH1A1', 'DSE', 'G6PD', 'MYOF', 'STMN1', 'ADGRG1', 'HMGB1', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'TGM2', 'RUVBL2', 'GPRC5A', 'TGFBR1', 'FSCN1', 'APLP2', 'DKK1', 'FLNB', 'RHOF', 'FGFR1', 'EIF6', 'RHOD', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MT3', 'ILF2', 'MYL6', 'CALM2', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SYT13', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'LTBP3', 'RIN2', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'TXNRD1', 'TGFBI', 'COTL1', 'MFSD12', 'EZR', 'PSMD2', 'ARPC3', 'SH3KBP1', 'NPTX1', 'GOLIM4', 'PODXL', 'ANXA2', 'ANTXR1', 'TUBB', 'S100A6', 'TUBA4A', 'CDK1', 'MGST1', 'SERPINE1', 'CDA', 'ECH1', 'UBC', 'SKIL', 'RAP2B', 'PSMA4', 'TUBA1C', 'TSPAN15', 'PRSS3', 'SYT1', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'TMSB4X', 'PSMA5', 'PTPRJ', 'CTNNB1', 'COL1A1', 'RAP1GAP', 'SRGN', 'PYCARD', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'RAB3B', 'COL4A2', 'ITGA5', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1', 'PDIA4']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['IBA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'IBA'], ['TAS'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['ISS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS']]</t>
+          <t>[['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['TAS'], ['IBA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['HDA'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['TAS'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IBA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -3284,12 +3218,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'RAN', 'FTH1', 'MYOF', 'STC1', 'ECH1', 'RHOF', 'DKK1', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'VCAN', 'CMTM3', 'FLOT1', 'SRGN', 'BMP1', 'LTBP3', 'PDIA6', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'ANXA2', 'TFPI2', 'TKT', 'SPOCK1', 'VIM', 'COL1A1', 'PSMA4', 'EIF2S3', 'SH3BGRL3', 'PRSS3', 'MYL12B', 'S100A6', 'GLIPR1', 'RAET1G', 'HSPA8', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'GIP', 'MYL6', 'FN1', 'COL4A1', 'MT3', 'CNTN1', 'SDC4', 'JUP', 'ACP2', 'PSMB3', 'UBB', 'PSME2', 'CXCL5', 'TM7SF3', 'TXN', 'G6PD', 'ALDH3A1', 'CXCL8', 'COL4A2', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'KRT7', 'NMB', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'HMGB1', 'EIF6', 'ENO1', 'HSP90AA1', 'TIMP4', 'YWHAE', 'TNFRSF1A', 'ADGRG1', 'CD44', 'QPCT', 'CTNNB1', 'FSCN1', 'PTGR1', 'PVR', 'S100A16', 'CDC42', 'IGFBP3', 'HSPA5', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'PTHLH', 'AP2M1', 'S100A4', 'HMGB2', 'PPP1CB', 'CXCL2', 'GPRC5A', 'AXL', 'SPP1', 'ANGPTL4', 'S100A13', 'PKM', 'MYL12A', 'LGALS3', 'HAPLN3', 'ACTB', 'COL5A1', 'COL22A1', 'LAMC2', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'FSTL3', 'GNG4', 'PSMD2', 'RUVBL2', 'TGM2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'COL5A2', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'TIMP2', 'CTSL', 'GLRX', 'GAL', 'IL11', 'IL32', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'CCL2', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'MMP15', 'METRN', 'DMKN', 'UBC', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'LTBP4', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'SPOCK1', 'LAMC2', 'PTGR1', 'FURIN', 'ACTG1', 'UBB', 'COL5A1', 'SDC4', 'CLU', 'CCL2', 'IL32', 'GLRX', 'GLIPR1', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'CXCL5', 'DMKN', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'TFPI2', 'HSP90AB1', 'BMP1', 'PSMB3', 'IGFBP3', 'TIMP2', 'IGFBP7', 'B4GALT1', 'KRT7', 'PSME2', 'HSPA8', 'HAPLN3', 'COL4A1', 'LTBP4', 'PKM', 'TKT', 'S100A16', 'IGFBP4', 'GIP', 'PDIA6', 'PCSK1N', 'PGK1', 'CCT2', 'CXCL1', 'MFGE8', 'FTL', 'PTHLH', 'CMTM3', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'GAL', 'CXCL2', 'MMP15', 'YWHAE', 'SERPINE2', 'ALDH1A1', 'TIMP4', 'G6PD', 'MYOF', 'ALDH3A1', 'STMN1', 'ADGRG1', 'HMGB1', 'FABP5', 'TXN', 'ANGPTL4', 'PPIB', 'HSPA2', 'NMB', 'TGM2', 'RUVBL2', 'GPRC5A', 'FSCN1', 'APLP2', 'DKK1', 'FLNB', 'RHOF', 'EIF6', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MT3', 'RAET1G', 'FSTL3', 'MYL6', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'COL22A1', 'TXNRD1', 'TGFBI', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'PODXL', 'ANXA2', 'TUBB', 'S100A6', 'COL5A2', 'TUBA4A', 'CDK1', 'SERPINE1', 'PVR', 'ECH1', 'UBC', 'METRN', 'HMGB2', 'RAP2B', 'PSMA4', 'TNFRSF1A', 'PRSS3', 'VCAN', 'NPC2', 'FN1', 'S100A13', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'IL11', 'PSMA5', 'PTPRJ', 'CTNNB1', 'COL1A1', 'SRGN', 'VIM', 'KRT81', 'HSP90AA1', 'CXCL8', 'PPP1CB', 'SPP1', 'STC1', 'RAB3B', 'COL4A2', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1', 'PDIA4']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IEA'], ['HDA'], ['IDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA'], ['HDA', 'IEA'], ['IDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['IBA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IBA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['ISS'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IBA'], ['IBA'], ['IEA'], ['HDA'], ['IMP', 'HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IBA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['TAS'], ['IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['ISS'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['IDA', 'IBA'], ['HDA', 'IBA'], ['IMP', 'HDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -3350,12 +3284,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'ADAM19', 'ILK', 'ITGB5', 'MFGE8', 'VCAN', 'FLOT1', 'PLAUR', 'RIN2', 'NT5E', 'CD9', 'TESC', 'ANXA2', 'SPOCK1', 'COL1A1', 'CTTN', 'CD24', 'GTPBP4', 'CNN3', 'TPM1', 'ESAM', 'CDH2', 'CAV1', 'RND3', 'B4GALT1', 'HSPB1', 'FN1', 'CNTN1', 'CCDC80', 'SDC4', 'JUP', 'CADM1', 'RHOD', 'SOX4', 'AMIGO2', 'CXCL8', 'ITGA11', 'CD63', 'PTPRS', 'JAK1', 'RND1', 'HMGB1', 'FXYD5', 'ANTXR1', 'ADGRG1', 'CD44', 'CTNNB1', 'CTNNAL1', 'PPP3CA', 'PVR', 'CLDN4', 'CDC42', 'S100A11', 'CSRP1', 'PTPRJ', 'CEBPB', 'C1QBP', 'SLC7A11', 'PPP1CB', 'AXL', 'SPP1', 'ITGA2', 'MYL12A', 'LGALS3', 'PDLIM5', 'HAPLN3', 'PYCARD', 'ACTB', 'COL5A1', 'LAMC2', 'IGFBP7', 'PODXL', 'FSTL3', 'PCDH9', 'DOCK5', 'TGM2', 'SPINT2', 'EZR', 'ITGA5', 'NUAK1', 'HES1', 'TGFBI', 'ZFP36L1', 'TNFRSF12A', 'IL32', 'NTN4', 'RDX', 'CCL2', 'ITGA3', 'LGALS1', 'S100A10', 'MYO10', 'SERPINE2', 'ACTG1', 'SGCE', 'RAP2B']</t>
+          <t>['CD44', 'CD63', 'SPOCK1', 'LAMC2', 'CLDN4', 'ITGA11', 'ACTG1', 'COL5A1', 'SDC4', 'CAV1', 'PDLIM5', 'PLAUR', 'CCL2', 'IL32', 'CCDC80', 'ACTB', 'RND1', 'CNTN1', 'CSRP1', 'S100A11', 'NT5E', 'MYL12A', 'CTTN', 'IGFBP7', 'B4GALT1', 'HAPLN3', 'CD24', 'MFGE8', 'ITGB5', 'S100A10', 'HSPB1', 'LGALS3', 'JAK1', 'SPINT2', 'DOCK5', 'CTNNAL1', 'NUAK1', 'RND3', 'SERPINE2', 'MYO10', 'SLC7A11', 'ADGRG1', 'HMGB1', 'TGM2', 'ADAM19', 'NTN4', 'CADM1', 'CEBPB', 'RHOD', 'AXL', 'CDC42', 'ZFP36L1', 'FSTL3', 'LGALS1', 'PTPRS', 'ITGA3', 'TESC', 'RIN2', 'CD9', 'PPP3CA', 'ILK', 'JUP', 'TGFBI', 'EZR', 'PODXL', 'CDH2', 'ANXA2', 'ANTXR1', 'CNN3', 'SERPINE1', 'PVR', 'HES1', 'RAP2B', 'SGCE', 'VCAN', 'FN1', 'ITGA2', 'GTPBP4', 'AMIGO2', 'RDX', 'FLOT1', 'PTPRJ', 'CTNNB1', 'COL1A1', 'PYCARD', 'TNFRSF12A', 'ESAM', 'FXYD5', 'PCDH9', 'CXCL8', 'PPP1CB', 'SPP1', 'ITGA5', 'TPM1', 'SOX4', 'C1QBP']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA'], ['IMP', 'IGI', 'HMP', 'IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'NAS'], ['IEA'], ['ISS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['HMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['NAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['HMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['IDA', 'ISS'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['HMP', 'NAS'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IEP'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IBA'], ['IMP'], ['ISS', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'HMP'], ['TAS'], ['IDA']]</t>
+          <t>[['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'HMP'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP'], ['ISS', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['HMP', 'NAS'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['HMP'], ['IEA'], ['IDA'], ['HMP'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['HMP'], ['IDA', 'ISS'], ['IMP', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IGI', 'HMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3350,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'RAN', 'FTH1', 'MYOF', 'ECH1', 'RHOF', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'FLOT1', 'LTBP3', 'PDIA6', 'NT5E', 'CD9', 'SLC3A2', 'ANXA2', 'TKT', 'VIM', 'PSMA4', 'EIF2S3', 'SH3BGRL3', 'MYL12B', 'S100A6', 'HSPA8', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'CNTN1', 'SDC4', 'JUP', 'ACP2', 'PSMB3', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'G6PD', 'COL4A2', 'CD63', 'PTPRS', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'EIF6', 'ENO1', 'HSP90AA1', 'YWHAE', 'ADGRG1', 'CD44', 'QPCT', 'CTNNB1', 'FSCN1', 'PTGR1', 'S100A16', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'AP2M1', 'S100A4', 'PPP1CB', 'GPRC5A', 'AXL', 'SPP1', 'PKM', 'MYL12A', 'LGALS3', 'ACTB', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'GNG4', 'PSMD2', 'RUVBL2', 'TGM2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'CTSL', 'GLRX', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'UBC', 'CLU', 'ACTG1', 'TUBB6', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'PTGR1', 'FURIN', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'GLRX', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'HSP90AB1', 'PSMB3', 'IGFBP7', 'B4GALT1', 'KRT7', 'PSME2', 'HSPA8', 'PKM', 'TKT', 'S100A16', 'PDIA6', 'PGK1', 'CCT2', 'MFGE8', 'FTL', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'YWHAE', 'ALDH1A1', 'G6PD', 'MYOF', 'STMN1', 'ADGRG1', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'TGM2', 'RUVBL2', 'GPRC5A', 'FSCN1', 'APLP2', 'FLNB', 'RHOF', 'EIF6', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MYL6', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'TXNRD1', 'TGFBI', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'PODXL', 'ANXA2', 'TUBB', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'UBC', 'RAP2B', 'PSMA4', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'PTPRJ', 'CTNNB1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'RAB3B', 'COL4A2', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3416,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'RAN', 'FTH1', 'MYOF', 'STC1', 'ECH1', 'RHOF', 'DKK1', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'VCAN', 'CMTM3', 'FLOT1', 'SRGN', 'BMP1', 'LTBP3', 'PLAUR', 'PDIA6', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'IGFBP4', 'NPTX1', 'ANXA2', 'TFPI2', 'TKT', 'SPOCK1', 'VIM', 'COL1A1', 'PSMA4', 'EIF2S3', 'SH3BGRL3', 'PRSS3', 'MYL12B', 'S100A6', 'NTS', 'GLIPR1', 'RAET1G', 'HSPA8', 'RSPO3', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'GIP', 'MYL6', 'FN1', 'COL4A1', 'MT3', 'CNTN1', 'AKR1B10', 'CCDC80', 'SDC4', 'JUP', 'ACP2', 'PSMB3', 'UBB', 'PSME2', 'CXCL5', 'TM7SF3', 'TXN', 'G6PD', 'ALDH3A1', 'CXCL8', 'COL4A2', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'PSMD14', 'KRT7', 'NMB', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'HMGB1', 'EIF6', 'ENO1', 'HSP90AA1', 'TIMP4', 'YWHAE', 'TNFRSF1A', 'ADGRG1', 'CD44', 'QPCT', 'CTNNB1', 'FSCN1', 'SCCPDH', 'PTGR1', 'TMSB4X', 'PVR', 'S100A16', 'CDC42', 'IGFBP3', 'HSPA5', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'PTHLH', 'AP2M1', 'C1QBP', 'S100A4', 'HMGB2', 'PPP1CB', 'CXCL2', 'GPRC5A', 'AXL', 'SPP1', 'ANGPTL4', 'S100A13', 'PKM', 'MYL12A', 'LGALS3', 'HAPLN3', 'PYCARD', 'ACTB', 'COL5A1', 'COL22A1', 'LAMC2', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'FSTL3', 'GNG4', 'C1orf56', 'PSMD2', 'RUVBL2', 'TGM2', 'SPINT2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'COL5A2', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'TIMP2', 'CTSL', 'GLRX', 'GAL', 'IL11', 'IL32', 'NTN4', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'CCL2', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'MMP15', 'METRN', 'DMKN', 'CDA', 'UBC', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'LTBP4', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'ILF2', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'SPOCK1', 'LAMC2', 'PTGR1', 'FURIN', 'ACTG1', 'UBB', 'COL5A1', 'SDC4', 'CLU', 'PLAUR', 'CCL2', 'IL32', 'CCDC80', 'GLRX', 'GLIPR1', 'RSPO3', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'CXCL5', 'DMKN', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'TFPI2', 'HSP90AB1', 'BMP1', 'PSMB3', 'IGFBP3', 'TIMP2', 'AKR1B10', 'IGFBP7', 'B4GALT1', 'KRT7', 'PSME2', 'HSPA8', 'HAPLN3', 'COL4A1', 'LTBP4', 'PSMD14', 'PKM', 'TKT', 'S100A16', 'IGFBP4', 'GIP', 'PDIA6', 'PCSK1N', 'PGK1', 'CCT2', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'PTHLH', 'CMTM3', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'C1orf56', 'GAL', 'SPINT2', 'SCCPDH', 'CXCL2', 'MMP15', 'YWHAE', 'SERPINE2', 'ALDH1A1', 'TIMP4', 'G6PD', 'MYOF', 'ALDH3A1', 'STMN1', 'ADGRG1', 'HMGB1', 'FABP5', 'TXN', 'ANGPTL4', 'PPIB', 'HSPA2', 'NMB', 'TGM2', 'RUVBL2', 'GPRC5A', 'FSCN1', 'NTN4', 'APLP2', 'DKK1', 'FLNB', 'RHOF', 'FGFR1', 'EIF6', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MT3', 'RAET1G', 'ILF2', 'FSTL3', 'MYL6', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'COL22A1', 'TXNRD1', 'TGFBI', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'NPTX1', 'PODXL', 'ANXA2', 'TUBB', 'S100A6', 'COL5A2', 'TUBA4A', 'CDK1', 'SERPINE1', 'CDA', 'PVR', 'ECH1', 'UBC', 'METRN', 'HMGB2', 'RAP2B', 'PSMA4', 'TNFRSF1A', 'PRSS3', 'VCAN', 'NPC2', 'FN1', 'S100A13', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'IL11', 'TMSB4X', 'PSMA5', 'PTPRJ', 'CTNNB1', 'COL1A1', 'SRGN', 'PYCARD', 'VIM', 'KRT81', 'HSP90AA1', 'CXCL8', 'PPP1CB', 'SPP1', 'STC1', 'RAB3B', 'COL4A2', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'C1QBP', 'QPCT', 'PRDX1', 'PDIA4']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['NAS'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'TAS']]</t>
+          <t>[['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['NAS'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3482,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'RAN', 'FTH1', 'MYOF', 'ECH1', 'RHOF', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'FLOT1', 'LTBP3', 'PDIA6', 'NT5E', 'CD9', 'SLC3A2', 'ANXA2', 'TKT', 'VIM', 'PSMA4', 'EIF2S3', 'SH3BGRL3', 'MYL12B', 'S100A6', 'HSPA8', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'CNTN1', 'SDC4', 'JUP', 'ACP2', 'PSMB3', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'G6PD', 'COL4A2', 'CD63', 'PTPRS', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'EIF6', 'ENO1', 'HSP90AA1', 'YWHAE', 'ADGRG1', 'CD44', 'QPCT', 'CTNNB1', 'FSCN1', 'PTGR1', 'S100A16', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'AP2M1', 'S100A4', 'PPP1CB', 'GPRC5A', 'AXL', 'SPP1', 'PKM', 'MYL12A', 'LGALS3', 'ACTB', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'GNG4', 'PSMD2', 'RUVBL2', 'TGM2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'CTSL', 'GLRX', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'UBC', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'PTGR1', 'FURIN', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'GLRX', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'HSP90AB1', 'PSMB3', 'IGFBP7', 'B4GALT1', 'KRT7', 'PSME2', 'HSPA8', 'PKM', 'TKT', 'S100A16', 'PDIA6', 'PGK1', 'CCT2', 'MFGE8', 'FTL', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'YWHAE', 'SERPINE2', 'ALDH1A1', 'G6PD', 'MYOF', 'STMN1', 'ADGRG1', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'TGM2', 'RUVBL2', 'GPRC5A', 'FSCN1', 'APLP2', 'FLNB', 'RHOF', 'EIF6', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MYL6', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'TXNRD1', 'TGFBI', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'PODXL', 'ANXA2', 'TUBB', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'UBC', 'RAP2B', 'PSMA4', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'PTPRJ', 'CTNNB1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'RAB3B', 'COL4A2', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3614,12 +3548,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['HSPA2', 'CALM2', 'RAN', 'SMC4', 'FTH1', 'HMGA1', 'MAP1B', 'ECH1', 'RHOF', 'PPP1R14A', 'TXNRD2', 'ILK', 'FHL1', 'GLS', 'PSMA5', 'TUBB', 'CMTM3', 'GRAMD1A', 'SGK1', 'PIR', 'OSBPL8', 'FOS', 'SSB', 'DAAM1', 'UPP1', 'GPX2', 'PDIA6', 'ZWINT', 'RIN2', 'NT5E', 'TESC', 'ANXA2', 'PNPT1', 'TKT', 'TK1', 'SRGAP1', 'RPS27L', 'VIM', 'PSMA4', 'CTTN', 'EIF2S3', 'SH3BGRL3', 'HJURP', 'RBP1', 'GTPBP4', 'CNN3', 'KLF6', 'PRC1', 'TPM1', 'MYL12B', 'PSMD4', 'S100A6', 'CCNB1', 'PDLIM7', 'PHKG1', 'HSPA8', 'MT2A', 'RND3', 'ZFP36', 'CDC42EP3', 'HSPB1', 'HSP90AB1', 'MYL6', 'FBXO22', 'MT3', 'COPZ2', 'AKR1B10', 'JUP', 'CES1', 'PRMT5', 'LACTB', 'RHOD', 'PSMB3', 'UBB', 'PSME2', 'ULK1', 'CDC25B', 'TRIM47', 'BIRC5', 'KYNU', 'TXN', 'POLR2L', 'G6PD', 'ALDH3A1', 'AHNAK2', 'CCNB2', 'PTPRS', 'PACSIN3', 'PSMD14', 'KRT7', 'TPX2', 'JAK1', 'PRDX1', 'RND1', 'LCE3D', 'GAPDH', 'S100A3', 'MGLL', 'AKAP12', 'CCT2', 'LMNA', 'EIF6', 'ENO1', 'CTPS1', 'HSP90AA1', 'YWHAE', 'CD44', 'CDC20', 'SH3KBP1', 'CTNNB1', 'FSCN1', 'NUDT19', 'RGS3', 'RQCD1', 'CTNNAL1', 'TMSB4X', 'PPP3CA', 'PRMT1', 'GPX1', 'S100A16', 'CDC42', 'HSPA5', 'GRB10', 'FGFR1', 'PPIB', 'FLNB', 'TXNRD1', 'PTHLH', 'AP2M1', 'C1QBP', 'MLLT11', 'S100A4', 'UBA6', 'RAP1GAP', 'ARL6IP1', 'PPP1CB', 'BCL2A1', 'S100A13', 'MPRIP', 'AURKA', 'PKM', 'MYL12A', 'TPM2', 'LGALS3', 'CPLX2', 'PDLIM5', 'PYCARD', 'ACTB', 'PTTG1', 'CCT5', 'CDKN3', 'AKR1C2', 'FABP5', 'SPATS2', 'KPNA2', 'NPM1', 'PSMD2', 'DOCK5', 'EPAS1', 'RUVBL2', 'TGM2', 'RASSF10', 'SULT2B1', 'NEK6', 'EZR', 'CDCA3', 'LDHB', 'MCL1', 'SLC2A1', 'SLU7', 'TP53I3', 'PDCD5', 'ODC1', 'ETS2', 'ZFP36L1', 'PSMD8', 'FBXO32', 'GLRX', 'CXXC5', 'CYB5A', 'IL32', 'PGM2L1', 'STMN1', 'RPL28', 'TXNDC9', 'PLK1', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'CENPA', 'PGK1', 'GABARAPL1', 'LGALS1', 'CDA', 'UBC', 'SYT1', 'MYO10', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'NQO1', 'TUBA4A', 'UBE2S', 'HNRNPH1', 'TSPAN15', 'CDK1', 'ELF3', 'FTL', 'AKR1C3', 'GNPNAT1', 'ILF2', 'RAP2B', 'ALDH1A1', 'COTL1', 'KMT5A', 'CDKN1A']</t>
+          <t>['TXNDC9', 'CD44', 'LDHB', 'SSB', 'FOS', 'NQO1', 'RQCD1', 'ACTG1', 'UBB', 'BIRC5', 'HNRNPH1', 'GNPNAT1', 'KLF6', 'CLU', 'PDLIM5', 'IL32', 'GLRX', 'DAAM1', 'MAP1B', 'ACTB', 'RAN', 'PPP1R14A', 'RND1', 'HSPA5', 'COPZ2', 'CTPS1', 'AKR1B1', 'MLLT11', 'NT5E', 'CDC25B', 'MYL12A', 'TPX2', 'RPL28', 'PSMD8', 'ENO1', 'GRB10', 'POLR2L', 'HSP90AB1', 'PSMB3', 'CTTN', 'AKR1B10', 'SGK1', 'S100A3', 'GRAMD1A', 'CCNB1', 'KRT7', 'MT2A', 'PSME2', 'HSPA8', 'PSMD14', 'PKM', 'TKT', 'S100A16', 'PTTG1', 'PDIA6', 'OSBPL8', 'PGK1', 'CCT2', 'RBP1', 'UBE2S', 'KMT5A', 'HMGA1', 'FTL', 'PTHLH', 'CPLX2', 'CMTM3', 'FBXO22', 'MGLL', 'CCT5', 'HSPB1', 'LGALS3', 'LCE3D', 'AKR1C3', 'CES1', 'JAK1', 'UBA6', 'DOCK5', 'NUDT19', 'GABARAPL1', 'CTNNAL1', 'RND3', 'ZWINT', 'FBXO32', 'KYNU', 'YWHAE', 'PIR', 'CDCA3', 'GLS', 'SERPINE2', 'ALDH1A1', 'PNPT1', 'G6PD', 'MYO10', 'PGM2L1', 'ALDH3A1', 'STMN1', 'CEP170', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'RPS27L', 'ARL6IP1', 'TGM2', 'RUVBL2', 'ODC1', 'FSCN1', 'AKR1C2', 'FLNB', 'RHOF', 'NEK6', 'FGFR1', 'GPX1', 'EIF6', 'RHOD', 'CDC42', 'LMNA', 'SLU7', 'SH3BGRL3', 'PDCD5', 'ZFP36L1', 'AHNAK2', 'CDKN1A', 'MT3', 'RASSF10', 'ILF2', 'CXXC5', 'MYL6', 'CALM2', 'S100A4', 'FTH1', 'LGALS1', 'PTPRS', 'CYB5A', 'GAPDH', 'ULK1', 'SMC4', 'TESC', 'TK1', 'TRIM47', 'RIN2', 'NPM1', 'CDC20', 'ETS2', 'MYL12B', 'PPP3CA', 'SULT2B1', 'ILK', 'JUP', 'FHL1', 'HJURP', 'TXNRD1', 'MPRIP', 'TXNRD2', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'PSMD4', 'TPM2', 'SH3KBP1', 'ANXA2', 'ELF3', 'TUBB', 'S100A6', 'CNN3', 'TUBA4A', 'AURKA', 'CDK1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'ECH1', 'PRC1', 'UBC', 'SPATS2', 'RAP2B', 'PSMA4', 'PHKG1', 'PDLIM7', 'RGS3', 'SRGAP1', 'TSPAN15', 'SYT1', 'GTPBP4', 'S100A13', 'EPAS1', 'TP53I3', 'LACTB', 'EIF2S3', 'TUBB4B', 'TMSB4X', 'PSMA5', 'CTNNB1', 'RAP1GAP', 'PYCARD', 'GPX2', 'BCL2A1', 'VIM', 'KRT81', 'PRMT1', 'HSP90AA1', 'PPP1CB', 'MCL1', 'ZFP36', 'CDC42EP3', 'UPP1', 'CDKN3', 'TPM1', 'CENPA', 'KPNA2', 'PACSIN3', 'SLC2A1', 'AP2M1', 'C1QBP', 'PRDX1', 'PLK1']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS'], ['IEA'], ['IBA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'NAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['IBA'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA']]</t>
+          <t>[['IDA'], ['IDA'], ['IDA', 'TAS'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IBA', 'TAS'], ['IEA'], ['IBA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['IBA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'NAS'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3614,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'RAN', 'FTH1', 'MYOF', 'ECH1', 'RHOF', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'FLOT1', 'LTBP3', 'PDIA6', 'NT5E', 'CD9', 'SLC3A2', 'ANXA2', 'TKT', 'VIM', 'PSMA4', 'EIF2S3', 'SH3BGRL3', 'MYL12B', 'S100A6', 'HSPA8', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'CNTN1', 'SDC4', 'JUP', 'ACP2', 'PSMB3', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'G6PD', 'COL4A2', 'CD63', 'PTPRS', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'EIF6', 'ENO1', 'HSP90AA1', 'YWHAE', 'ADGRG1', 'CD44', 'QPCT', 'CTNNB1', 'FSCN1', 'PTGR1', 'S100A16', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'AP2M1', 'S100A4', 'PPP1CB', 'GPRC5A', 'AXL', 'SPP1', 'PKM', 'MYL12A', 'LGALS3', 'ACTB', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'GNG4', 'PSMD2', 'RUVBL2', 'TGM2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'CTSL', 'GLRX', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'UBC', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'PTGR1', 'FURIN', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'GLRX', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'HSP90AB1', 'PSMB3', 'IGFBP7', 'B4GALT1', 'KRT7', 'PSME2', 'HSPA8', 'PKM', 'TKT', 'S100A16', 'PDIA6', 'PGK1', 'CCT2', 'MFGE8', 'FTL', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'YWHAE', 'SERPINE2', 'ALDH1A1', 'G6PD', 'MYOF', 'STMN1', 'ADGRG1', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'TGM2', 'RUVBL2', 'GPRC5A', 'FSCN1', 'APLP2', 'FLNB', 'RHOF', 'EIF6', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MYL6', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'TXNRD1', 'TGFBI', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'PODXL', 'ANXA2', 'TUBB', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'UBC', 'RAP2B', 'PSMA4', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'PTPRJ', 'CTNNB1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'RAB3B', 'COL4A2', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3680,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'RAN', 'FTH1', 'MYOF', 'ECH1', 'RHOF', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'FLOT1', 'LTBP3', 'PDIA6', 'NT5E', 'CD9', 'SLC3A2', 'ANXA2', 'TKT', 'VIM', 'PSMA4', 'EIF2S3', 'SH3BGRL3', 'MYL12B', 'S100A6', 'HSPA8', 'B4GALT1', 'APLP2', 'HSPB1', 'HSP90AB1', 'MYL6', 'FN1', 'CNTN1', 'SDC4', 'JUP', 'ACP2', 'PSMB3', 'UBB', 'PSME2', 'TM7SF3', 'TXN', 'G6PD', 'COL4A2', 'CD63', 'PTPRS', 'PACSIN3', 'KRT7', 'PRDX1', 'RAB3B', 'SEMA3C', 'GAPDH', 'SLPI', 'CCT2', 'EIF6', 'ENO1', 'HSP90AA1', 'YWHAE', 'ADGRG1', 'CD44', 'QPCT', 'CTNNB1', 'FSCN1', 'PTGR1', 'S100A16', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'TXNRD1', 'AP2M1', 'S100A4', 'PPP1CB', 'GPRC5A', 'AXL', 'SPP1', 'PKM', 'MYL12A', 'LGALS3', 'ACTB', 'CCT5', 'NPC2', 'IGFBP7', 'ANXA3', 'FABP5', 'PODXL', 'GNG4', 'PSMD2', 'RUVBL2', 'TGM2', 'SULT2B1', 'FURIN', 'PRSS23', 'EZR', 'LDHB', 'SLC2A1', 'TGFBI', 'PDCD5', 'CTSL', 'GLRX', 'RDX', 'STMN1', 'RPL28', 'TUBB4B', 'ARPC3', 'AKR1B1', 'PGK1', 'ITGA3', 'LGALS1', 'S100A10', 'UBC', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'TUBA4A', 'CDK1', 'SLC2A3', 'FTL', 'AKR1C3', 'RAP2B', 'ALDH1A1', 'COTL1']</t>
+          <t>['CD44', 'LDHB', 'TM7SF3', 'CD63', 'ANXA3', 'PTGR1', 'FURIN', 'ACTG1', 'UBB', 'SDC4', 'CLU', 'GLRX', 'ACTB', 'RAN', 'HSPA5', 'CNTN1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'AKR1B1', 'NT5E', 'MYL12A', 'RPL28', 'SEMA3C', 'ENO1', 'HSP90AB1', 'PSMB3', 'IGFBP7', 'B4GALT1', 'KRT7', 'PSME2', 'HSPA8', 'PKM', 'TKT', 'S100A16', 'PDIA6', 'PGK1', 'CCT2', 'MFGE8', 'FTL', 'ITGB5', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'AKR1C3', 'YWHAE', 'SERPINE2', 'ALDH1A1', 'G6PD', 'MYOF', 'STMN1', 'ADGRG1', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'TGM2', 'RUVBL2', 'GPRC5A', 'FSCN1', 'APLP2', 'FLNB', 'RHOF', 'EIF6', 'AXL', 'CDC42', 'SH3BGRL3', 'PDCD5', 'MYL6', 'S100A4', 'FTH1', 'TUBB6', 'LGALS1', 'PTPRS', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'LTBP3', 'CD9', 'MYL12B', 'SULT2B1', 'JUP', 'ACP2', 'TXNRD1', 'TGFBI', 'COTL1', 'EZR', 'PSMD2', 'ARPC3', 'PODXL', 'ANXA2', 'TUBB', 'S100A6', 'TUBA4A', 'CDK1', 'SERPINE1', 'ECH1', 'UBC', 'RAP2B', 'PSMA4', 'NPC2', 'FN1', 'RDX', 'EIF2S3', 'TUBB4B', 'FLOT1', 'PSMA5', 'PTPRJ', 'CTNNB1', 'VIM', 'HSP90AA1', 'PPP1CB', 'SPP1', 'RAB3B', 'COL4A2', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3746,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['GOLIM4', 'SERPINE1', 'HSPA2', 'TUBA1C', 'SLC25A37', 'CALM2', 'RAN', 'SMC4', 'FTH1', 'FRMD6', 'MYOF', 'HMGA1', 'MAP1B', 'STC1', 'ECH1', 'SUCLG1', 'RHOF', 'DKK1', 'PPP1R14A', 'TXNRD2', 'ILK', 'FHL1', 'GLS', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'MYC', 'VCAN', 'LRRC75A', 'CMTM3', 'GRAMD1A', 'SGK1', 'RASSF1', 'FLOT1', 'SRGN', 'NUPR1', 'PIR', 'BMP1', 'OSBPL8', 'FOS', 'SSB', 'PLAUR', 'DAAM1', 'UPP1', 'GPX2', 'LBH', 'PDIA6', 'ZWINT', 'RIN2', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'PYCR1', 'TESC', 'IGFBP4', 'NPTX1', 'ANXA2', 'PNPT1', 'TKT', 'TK1', 'SPOCK1', 'SRGAP1', 'P4HA3', 'PHLDA3', 'RPS27L', 'VIM', 'TRAM1', 'TGFBR1', 'COL1A1', 'PSMA4', 'CTTN', 'EIF2S3', 'SH3BGRL3', 'BAMBI', 'ATP5G1', 'HJURP', 'RBP1', 'TMEM41B', 'MFSD12', 'GTPBP4', 'CNN3', 'KLF6', 'PRC1', 'PRSS3', 'TPM1', 'MYL12B', 'PSMD4', 'S100A6', 'CCNB1', 'NTS', 'GLIPR1', 'PDLIM7', 'RAET1G', 'PHKG1', 'CDH2', 'HSPA8', 'CAV1', 'MT2A', 'TMBIM6', 'RND3', 'ZFP36', 'B4GALT1', 'APLP2', 'CDC42EP3', 'HSPB1', 'DHRS3', 'MAF', 'HSP90AB1', 'GIP', 'MYL6', 'FN1', 'COL4A1', 'SCD', 'MBOAT2', 'FBXO22', 'MT3', 'COPZ2', 'DSE', 'CLPTM1L', 'AKR1B10', 'ID3', 'SDC4', 'JUP', 'CCDC85B', 'CES1', 'PRMT5', 'FDXR', 'ACP2', 'LACTB', 'RHOD', 'PSMB3', 'CREM', 'UBB', 'BCAT2', 'PLEK2', 'PSME2', 'ULK1', 'NAA38', 'NR0B1', 'TUBA1B', 'ACOT9', 'CDC25B', 'TRIM47', 'PRR11', 'BIRC5', 'KYNU', 'TXN', 'ETFB', 'MLXIP', 'POLR2L', 'G6PD', 'ALDH3A1', 'SOX4', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'PSMD14', 'KRT7', 'TPX2', 'JAK1', 'PRDX1', 'RAB3B', 'RND1', 'LCE3D', 'GAPDH', 'SLPI', 'S100A3', 'GADD45A', 'MGLL', 'EVA1A', 'AKAP12', 'CCT2', 'LMNA', 'HMGB1', 'EIF6', 'GALNT14', 'DHRS2', 'ENO1', 'TMSB10', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'PLGRKT', 'YWHAE', 'TNFRSF1A', 'CD44', 'CDC20', 'SH3KBP1', 'QPCT', 'CTNNB1', 'FSCN1', 'NUDT19', 'EMG1', 'RGS3', 'RQCD1', 'CTNNAL1', 'SCCPDH', 'PTGR1', 'TMSB4X', 'PPP3CA', 'PRMT1', 'PVR', 'GPX1', 'TSPAN5', 'S100A16', 'CDC42', 'IGFBP3', 'HSPA5', 'GRB10', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'PUS1', 'TXNRD1', 'CEBPB', 'PTHLH', 'AP2M1', 'C1QBP', 'MLLT11', 'S100A4', 'UBA6', 'RAP1GAP', 'SLN', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'GPRC5A', 'MRPS22', 'SPP1', 'APOBEC3C', 'BCL2A1', 'SLC22A18', 'S100A13', 'MPRIP', 'AURKA', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LGALS3', 'CPLX2', 'PDLIM5', 'ELK3', 'SKIL', 'PYCARD', 'ACTB', 'COL5A1', 'PTTG1', 'COL22A1', 'LAMC2', 'CCT5', 'NPC2', 'CDKN3', 'IGFBP7', 'ANXA3', 'CDC42SE1', 'AKR1C2', 'FABP5', 'PODXL', 'SPATS2', 'FSTL3', 'PDLIM2', 'KPNA2', 'NPM1', 'SYT13', 'PSMD2', 'DOCK5', 'EPAS1', 'RUVBL2', 'TGM2', 'SPINT2', 'RASSF10', 'SULT2B1', 'FURIN', 'PRSS23', 'NEK6', 'FAM89B', 'EZR', 'CYBA', 'COL5A2', 'ITGA5', 'NUAK1', 'TAGLN', 'CDCA3', 'LDHB', 'HES1', 'MCL1', 'SLC2A1', 'TGFBI', 'SLU7', 'ST3GAL5', 'TP53I3', 'PDCD5', 'TIMP2', 'ODC1', 'ETS2', 'ZFP36L1', 'PSMD8', 'CTSL', 'FBXO32', 'MGST1', 'SSR3', 'OCIAD2', 'GLRX', 'GAL', 'CXXC5', 'IL11', 'ISG20', 'CYB5A', 'IL32', 'PGM2L1', 'RDX', 'CDK2AP2', 'STMN1', 'RPL28', 'TXNDC9', 'PLK1', 'DOLK', 'TUBB4B', 'ARPC3', 'AKR1B1', 'CEP170', 'CENPA', 'BTG1', 'F2RL1', 'PGK1', 'GABARAPL1', 'ITGA3', 'LGALS1', 'S100A10', 'CDA', 'MT1X', 'DKC1', 'UBC', 'NAP1L1', 'SYT1', 'MYO10', 'ZNF185', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'PMEPA1', 'NQO1', 'TUBA4A', 'TOP2A', 'NUSAP1', 'UBE2S', 'HNRNPH1', 'SGCE', 'C15orf48', 'TSPAN15', 'CDK1', 'SLC2A3', 'ELF3', 'FTL', 'DHRS7', 'AKR1C3', 'GNPNAT1', 'ILF2', 'RAP2B', 'ALDH1A1', 'COTL1', 'CYP24A1', 'KMT5A', 'CDKN1A']</t>
+          <t>['TXNDC9', 'CD44', 'LDHB', 'TAGLN', 'CD63', 'ANXA3', 'SPOCK1', 'LAMC2', 'SSB', 'FOS', 'NQO1', 'RQCD1', 'PTGR1', 'FURIN', 'ISG20', 'OCIAD2', 'ACTG1', 'UBB', 'BIRC5', 'HNRNPH1', 'GNPNAT1', 'KLF6', 'COL5A1', 'SDC4', 'CAV1', 'GADD45A', 'CLU', 'PDLIM5', 'PLAUR', 'TMSB10', 'IL32', 'GLRX', 'NAP1L1', 'ATP5G1', 'GLIPR1', 'TOP2A', 'RASSF1', 'TUBA1B', 'DAAM1', 'MAP1B', 'CDK2AP2', 'ACTB', 'RAN', 'PPP1R14A', 'RND1', 'HSPA5', 'GALNT14', 'CSRP1', 'SLC3A2', 'S100A11', 'COPZ2', 'CTPS1', 'TSPAN5', 'AKR1B1', 'MLLT11', 'NT5E', 'CDC25B', 'MYL12A', 'TPX2', 'RPL28', 'PSMD8', 'ENO1', 'TMBIM6', 'GRB10', 'ID3', 'POLR2L', 'HSP90AB1', 'BMP1', 'MBOAT2', 'PSMB3', 'IGFBP3', 'TRAM1', 'TIMP2', 'CTTN', 'AKR1B10', 'IGFBP7', 'B4GALT1', 'SGK1', 'MAF', 'BCAT2', 'S100A3', 'CDC42SE1', 'GRAMD1A', 'CCNB1', 'KRT7', 'FRMD6', 'ELK3', 'MT2A', 'PSME2', 'HSPA8', 'COL4A1', 'SCD', 'PSMD14', 'PKM', 'TKT', 'S100A16', 'IGFBP4', 'SLC22A18', 'PTTG1', 'GIP', 'PDIA6', 'PCSK1N', 'OSBPL8', 'PGK1', 'CCT2', 'RBP1', 'UBE2S', 'KMT5A', 'HMGA1', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'PTHLH', 'CPLX2', 'CMTM3', 'ITGB5', 'FBXO22', 'MGLL', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'LCE3D', 'BTG1', 'C15orf48', 'AKR1C3', 'MRPS22', 'CES1', 'JAK1', 'GAL', 'UBA6', 'SPINT2', 'SCCPDH', 'CYBA', 'DOCK5', 'NUDT19', 'GABARAPL1', 'CTNNAL1', 'NUAK1', 'SLC25A37', 'CYP24A1', 'ST3GAL5', 'F2RL1', 'BAMBI', 'RND3', 'ZNF185', 'ZWINT', 'FBXO32', 'DHRS2', 'KYNU', 'YWHAE', 'PIR', 'CDCA3', 'PMEPA1', 'GLS', 'SERPINE2', 'ALDH1A1', 'PNPT1', 'DSE', 'G6PD', 'MYO10', 'ETFB', 'MYOF', 'PYCR1', 'PGM2L1', 'ALDH3A1', 'STMN1', 'CEP170', 'NUSAP1', 'HMGB1', 'FABP5', 'TXN', 'PPIB', 'HSPA2', 'MYC', 'RPS27L', 'ARL6IP1', 'TGM2', 'SLN', 'EVA1A', 'RUVBL2', 'ODC1', 'GPRC5A', 'TGFBR1', 'FSCN1', 'PDLIM2', 'APLP2', 'AKR1C2', 'DKK1', 'FLNB', 'RHOF', 'NEK6', 'FGFR1', 'CEBPB', 'GPX1', 'EIF6', 'RHOD', 'CDC42', 'LMNA', 'SLU7', 'SH3BGRL3', 'CREM', 'PDCD5', 'PLGRKT', 'DHRS3', 'ZFP36L1', 'AHNAK2', 'EMG1', 'CDKN1A', 'MT3', 'RAET1G', 'RASSF10', 'ILF2', 'CXXC5', 'FSTL3', 'MYL6', 'CALM2', 'S100A4', 'FTH1', 'TUBB6', 'TMEM41B', 'LGALS1', 'PTPRS', 'PRR11', 'CYB5A', 'SYT13', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'SMC4', 'TESC', 'DHRS7', 'TK1', 'TRIM47', 'RIN2', 'NPM1', 'CD9', 'LRRC75A', 'CDC20', 'ETS2', 'MYL12B', 'PPP3CA', 'SULT2B1', 'LBH', 'ILK', 'JUP', 'FHL1', 'HJURP', 'ACP2', 'COL22A1', 'TXNRD1', 'MPRIP', 'TGFBI', 'TXNRD2', 'FAM89B', 'COTL1', 'MFSD12', 'EZR', 'PSMD2', 'ARPC3', 'PSMD4', 'PUS1', 'APOBEC3C', 'TPM2', 'SH3KBP1', 'NPTX1', 'GOLIM4', 'PODXL', 'CDH2', 'ANXA2', 'ELF3', 'ACOT9', 'ANTXR1', 'TUBB', 'S100A6', 'COL5A2', 'CNN3', 'TUBA4A', 'AURKA', 'CDK1', 'MGST1', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'PRC1', 'UBC', 'SKIL', 'HES1', 'SPATS2', 'HMGB2', 'DKC1', 'NAA38', 'RAP2B', 'CCDC85B', 'PSMA4', 'MT1X', 'SGCE', 'PHKG1', 'TUBA1C', 'PDLIM7', 'RGS3', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'SYT1', 'VCAN', 'NPC2', 'P4HA3', 'FN1', 'ITGA2', 'GTPBP4', 'S100A13', 'RDX', 'EPAS1', 'TP53I3', 'LACTB', 'EIF2S3', 'TUBB4B', 'FLOT1', 'IL11', 'TMSB4X', 'PSMA5', 'PTPRJ', 'CTNNB1', 'COL1A1', 'RAP1GAP', 'SRGN', 'PYCARD', 'GPX2', 'SSR3', 'BCL2A1', 'VIM', 'KRT81', 'PRMT1', 'HSP90AA1', 'PPP1CB', 'SPP1', 'MCL1', 'STC1', 'ZFP36', 'RAB3B', 'COL4A2', 'CDC42EP3', 'ITGA5', 'UPP1', 'CDKN3', 'MLXIP', 'NR0B1', 'TPM1', 'SOX4', 'NUPR1', 'PHLDA3', 'CENPA', 'KPNA2', 'SUCLG1', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'DOLK', 'CLPTM1L', 'PLEK2', 'AP2M1', 'C1QBP', 'FDXR', 'QPCT', 'PRDX1', 'PDIA4', 'PLK1']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['ISS'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'HDA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['HDA', 'IBA'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['HTP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['ISS'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['HTP', 'HDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['HTP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['ISS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3878,12 +3812,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['FRMD6', 'HMGA1', 'ILK', 'FHL1', 'ITGB5', 'FLOT1', 'PLAUR', 'CD9', 'SLC3A2', 'ANXA2', 'VIM', 'TGFBR1', 'CTTN', 'CNN3', 'ESAM', 'PDLIM7', 'CDH2', 'HSPA8', 'CAV1', 'RND3', 'B4GALT1', 'HSPB1', 'SDC4', 'JUP', 'CADM1', 'CCDC85B', 'TSPAN4', 'ITGA11', 'JAK1', 'RND1', 'AKAP12', 'YWHAE', 'CD44', 'SH3KBP1', 'CTNNB1', 'FSCN1', 'PPP3CA', 'PVR', 'CLDN4', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'PPP1CB', 'MPRIP', 'ITGA2', 'PDLIM5', 'ACTB', 'PODXL', 'PDLIM2', 'PCDH9', 'NPM1', 'DOCK5', 'TGM2', 'EZR', 'ITGA5', 'CDCA3', 'SLC2A1', 'RDX', 'ARPC3', 'ITGA3', 'ZNF185', 'ACTG1', 'RAP2B']</t>
+          <t>['CD44', 'CLDN4', 'ITGA11', 'ACTG1', 'SDC4', 'CAV1', 'PDLIM5', 'PLAUR', 'ACTB', 'RND1', 'HSPA5', 'TSPAN4', 'CSRP1', 'SLC3A2', 'S100A11', 'CTTN', 'B4GALT1', 'FRMD6', 'HSPA8', 'HMGA1', 'ITGB5', 'HSPB1', 'JAK1', 'DOCK5', 'RND3', 'ZNF185', 'YWHAE', 'CDCA3', 'PPIB', 'TGM2', 'TGFBR1', 'FSCN1', 'CADM1', 'PDLIM2', 'FLNB', 'CDC42', 'ITGA3', 'NPM1', 'CD9', 'PPP3CA', 'ILK', 'JUP', 'FHL1', 'MPRIP', 'EZR', 'ARPC3', 'SH3KBP1', 'PODXL', 'CDH2', 'ANXA2', 'CNN3', 'AKAP12', 'PVR', 'RAP2B', 'CCDC85B', 'PDLIM7', 'ITGA2', 'RDX', 'FLOT1', 'PTPRJ', 'CTNNB1', 'VIM', 'ESAM', 'PCDH9', 'PPP1CB', 'ITGA5', 'SLC2A1']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IMP', 'HDA', 'ISS'], ['ISS'], ['IBA'], ['IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA']]</t>
+          <t>[['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IBA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IEA'], ['ISS'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3878,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['TUBA1C', 'CALM2', 'MAP1B', 'ILK', 'TUBB', 'RASSF1', 'SSB', 'ZWINT', 'VIM', 'COL1A1', 'PSMA4', 'CTTN', 'HJURP', 'PRC1', 'TPM1', 'MYL12B', 'CCNB1', 'PDLIM7', 'HSPA8', 'ZFP36', 'HSPB1', 'COL4A1', 'FBXO22', 'MT3', 'SDC4', 'JUP', 'TUBA1B', 'BIRC5', 'AHNAK2', 'COL4A2', 'KRT7', 'TPX2', 'CCT2', 'LMNA', 'EIF6', 'ENO1', 'CTPS1', 'CDC20', 'CTNNB1', 'RQCD1', 'PPP3CA', 'CDC42', 'FLNB', 'CSRP1', 'APOBEC3C', 'CENPW', 'AURKA', 'TPM2', 'PDLIM5', 'PYCARD', 'ACTB', 'COL5A1', 'CCT5', 'PDLIM2', 'NEK6', 'EZR', 'COL5A2', 'SLC2A1', 'ZFP36L1', 'FBXO32', 'ISG20', 'CDK2AP2', 'STMN1', 'RPL28', 'PLK1', 'TUBB4B', 'ARPC3', 'CEP170', 'GABARAPL1', 'KRT81', 'ACTG1', 'TUBB6', 'LTBP4', 'TUBA4A', 'NUSAP1', 'CDK1', 'COTL1']</t>
+          <t>['CENPW', 'SSB', 'RQCD1', 'ISG20', 'ACTG1', 'BIRC5', 'COL5A1', 'SDC4', 'PDLIM5', 'RASSF1', 'TUBA1B', 'MAP1B', 'CDK2AP2', 'ACTB', 'CSRP1', 'CTPS1', 'TPX2', 'RPL28', 'ENO1', 'CTTN', 'CCNB1', 'KRT7', 'HSPA8', 'COL4A1', 'LTBP4', 'CCT2', 'FBXO22', 'CCT5', 'HSPB1', 'GABARAPL1', 'ZWINT', 'FBXO32', 'STMN1', 'CEP170', 'NUSAP1', 'PDLIM2', 'FLNB', 'NEK6', 'EIF6', 'CDC42', 'LMNA', 'ZFP36L1', 'AHNAK2', 'MT3', 'CALM2', 'TUBB6', 'CDC20', 'MYL12B', 'PPP3CA', 'ILK', 'JUP', 'HJURP', 'COTL1', 'EZR', 'ARPC3', 'APOBEC3C', 'TPM2', 'TUBB', 'COL5A2', 'TUBA4A', 'AURKA', 'CDK1', 'PRC1', 'PSMA4', 'TUBA1C', 'PDLIM7', 'TUBB4B', 'CTNNB1', 'COL1A1', 'PYCARD', 'VIM', 'KRT81', 'ZFP36', 'COL4A2', 'TPM1', 'SLC2A1', 'PLK1']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['NAS'], ['IDA', 'IBA', 'NAS'], ['IMP', 'IBA', 'TAS', 'NAS'], ['IDA'], ['IBA'], ['IEA'], ['IDA'], ['IMP', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA']]</t>
+          <t>[['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4010,12 +3944,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'SLC25A37', 'CALM2', 'RAN', 'SMC4', 'FTH1', 'FRMD6', 'ZBED2', 'MYOF', 'HMGA1', 'MAP1B', 'STC1', 'ECH1', 'SUCLG1', 'RHOF', 'DKK1', 'PPP1R14A', 'TXNRD2', 'ILK', 'FHL1', 'GLS', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'MYC', 'VCAN', 'CMTM3', 'GRAMD1A', 'SGK1', 'RASSF1', 'FLOT1', 'SRGN', 'NUPR1', 'PIR', 'BMP1', 'OSBPL8', 'EMP3', 'FOS', 'LTBP3', 'SSB', 'PLAUR', 'DAAM1', 'UPP1', 'GPX2', 'LBH', 'PDIA6', 'ZWINT', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'PYCR1', 'TESC', 'IGFBP4', 'NPTX1', 'ANXA2', 'PNPT1', 'TFPI2', 'TKT', 'BBX', 'TK1', 'SPOCK1', 'SRGAP1', 'HMGA2', 'CKS1B', 'PHLDA3', 'RPS27L', 'VIM', 'TRAM1', 'TGFBR1', 'COL1A1', 'PSMA4', 'CTTN', 'CKS2', 'EIF2S3', 'SH3BGRL3', 'BAMBI', 'ATP5G1', 'AVPI1', 'HJURP', 'RBP1', 'TMEM41B', 'MFSD12', 'CD24', 'GTPBP4', 'CNN3', 'KLF6', 'PRC1', 'MALAT1', 'PRSS3', 'TPM1', 'PSMD4', 'S100A6', 'CCNB1', 'ESAM', 'NTS', 'PDLIM7', 'RAET1G', 'PHKG1', 'CDH2', 'HSPA8', 'RSPO3', 'CAV1', 'MT2A', 'LCE3E', 'TMBIM6', 'RND3', 'WDR43', 'ZFP36', 'B4GALT1', 'APLP2', 'CDC42EP3', 'HSPB1', 'DHRS3', 'MAF', 'HSP90AB1', 'GIP', 'MYL6', 'FN1', 'COL4A1', 'SCD', 'MBOAT2', 'FBXO22', 'SLC7A7', 'NUAK2', 'MT3', 'CNTN1', 'COPZ2', 'DSE', 'CLPTM1L', 'AKR1B10', 'ID3', 'CCDC80', 'SDC4', 'JUP', 'CBX6', 'CADM1', 'CCDC85B', 'CES1', 'PRMT5', 'FDXR', 'ACP2', 'LACTB', 'RHOD', 'PSMB3', 'CREM', 'UBB', 'BCAT2', 'PLEK2', 'PSME2', 'ULK1', 'NAA38', 'NR0B1', 'TUBA1B', 'CXCL5', 'ACOT9', 'CDC25B', 'TRIM47', 'PRR11', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'ETFB', 'DDB2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'ALDH3A1', 'SOX4', 'AMIGO2', 'CXCL8', 'TSPAN4', 'ITGA11', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'MEG3', 'PSMD14', 'KRT7', 'TPX2', 'GINS2', 'NMB', 'JAK1', 'PRDX1', 'RAB3B', 'RND1', 'SEMA3C', 'LCE3D', 'GAPDH', 'RPL22L1', 'GADD45A', 'MGLL', 'EVA1A', 'AKAP12', 'CCT2', 'LMNA', 'HMGB1', 'EIF6', 'GALNT14', 'FXYD5', 'SLC35F2', 'DHRS2', 'ENO1', 'TMSB10', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'PLGRKT', 'TIMP4', 'YWHAE', 'KCNMA1', 'TNFRSF1A', 'ADGRG1', 'CD44', 'CDC20', 'SH3KBP1', 'QPCT', 'CTNNB1', 'FSCN1', 'NUDT19', 'EMG1', 'RGS3', 'TRA2A', 'RQCD1', 'CTNNAL1', 'SCCPDH', 'PTGR1', 'TMSB4X', 'PPP3CA', 'PRMT1', 'PVR', 'GPX1', 'TSPAN5', 'INO80C', 'CLDN4', 'CDC42', 'IGFBP3', 'HSPA5', 'GRB10', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'PUS1', 'TXNRD1', 'CEBPB', 'PTHLH', 'AP2M1', 'C1QBP', 'MLLT11', 'SNW1', 'S100A4', 'UBA6', 'RAP1GAP', 'SLN', 'SLC7A11', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'CXCL2', 'GPRC5A', 'AXL', 'MDM4', 'MRPS22', 'SPP1', 'APOBEC3C', 'ANGPTL4', 'FAM64A', 'BCL2A1', 'SLC22A18', 'CENPW', 'S100A13', 'AURKA', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LGALS3', 'CPLX2', 'PDLIM5', 'HAPLN3', 'ELK3', 'SKIL', 'PYCARD', 'ACTB', 'COL5A1', 'PTTG1', 'PAQR5', 'COL22A1', 'LAMC2', 'CCT5', 'NPC2', 'CDKN3', 'IGFBP7', 'ANXA3', 'CDC42SE1', 'AKR1C2', 'FABP5', 'PODXL', 'FSTL3', 'GNG4', 'PDLIM2', 'PCDH9', 'KPNA2', 'C1orf56', 'NPM1', 'SYT13', 'PSMD2', 'DOCK5', 'EPAS1', 'RUVBL2', 'TGM2', 'SPINT2', 'RASSF10', 'SULT2B1', 'FURIN', 'BOP1', 'PRSS23', 'NEK6', 'CA12', 'FAM89B', 'EZR', 'CYBA', 'COL5A2', 'ITGA5', 'NUAK1', 'TAGLN', 'CDCA3', 'LDHB', 'HES1', 'MCL1', 'SNHG8', 'SLC2A1', 'TGFBI', 'SLU7', 'ST3GAL5', 'TP53I3', 'PDCD5', 'HAGHL', 'TIMP2', 'ODC1', 'TMEM120B', 'ETS2', 'ZFP36L1', 'PSMD8', 'TNFRSF12A', 'CTSL', 'FBXO32', 'MGST1', 'SLAMF9', 'SSR3', 'OCIAD2', 'GLRX', 'GAL', 'CXXC5', 'KCNG1', 'IL11', 'ISG20', 'CYB5A', 'IL32', 'NTN4', 'UTP18', 'PGM2L1', 'RDX', 'MORF4L2', 'CDK2AP2', 'STMN1', 'RPL28', 'TXNDC9', 'PLK1', 'DOLK', 'TUBB4B', 'CCL2', 'ARPC3', 'AKR1B1', 'MIS18BP1', 'CENPA', 'BTG1', 'F2RL1', 'PGK1', 'GABARAPL1', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'MMP15', 'METRN', 'DMKN', 'CDA', 'MT1X', 'DKC1', 'UBC', 'NAP1L1', 'SYT1', 'MYO10', 'KRT81', 'SERPINE2', 'CLU', 'ACTG1', 'TUBB6', 'LMO4', 'PMEPA1', 'LTBP4', 'NQO1', 'TUBA4A', 'TOP2A', 'NUSAP1', 'UBE2S', 'HNRNPH1', 'SGCE', 'TSPAN15', 'CDK1', 'SLC2A3', 'ELF3', 'DHRS7', 'AKR1C3', 'GNPNAT1', 'ILF2', 'RAP2B', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'KMT5A', 'CDKN1A']</t>
+          <t>['TXNDC9', 'CD44', 'LDHB', 'TM7SF3', 'TAGLN', 'CENPW', 'CD63', 'ANXA3', 'SPOCK1', 'UTP18', 'LAMC2', 'SSB', 'CLDN4', 'FOS', 'NQO1', 'RQCD1', 'PTGR1', 'FURIN', 'ITGA11', 'ISG20', 'OCIAD2', 'ACTG1', 'UBB', 'BIRC5', 'BOP1', 'HNRNPH1', 'GNPNAT1', 'KLF6', 'COL5A1', 'SDC4', 'CAV1', 'GADD45A', 'CLU', 'PDLIM5', 'LMO4', 'PLAUR', 'CCL2', 'MIS18BP1', 'JUN', 'TMSB10', 'IL32', 'CCDC80', 'GLRX', 'NAP1L1', 'ATP5G1', 'TOP2A', 'RASSF1', 'TUBA1B', 'DAAM1', 'BBX', 'RSPO3', 'MAP1B', 'CDK2AP2', 'ACTB', 'RAN', 'PPP1R14A', 'RND1', 'HSPA5', 'CNTN1', 'TSPAN4', 'GALNT14', 'KCNMA1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'CXCL5', 'DMKN', 'COPZ2', 'CTPS1', 'TSPAN5', 'AKR1B1', 'MLLT11', 'NT5E', 'CDC25B', 'MYL12A', 'TPX2', 'RPL28', 'PSMD8', 'SEMA3C', 'ENO1', 'EMP3', 'TMBIM6', 'GRB10', 'TFPI2', 'ID3', 'POLR2L', 'HSP90AB1', 'BMP1', 'MBOAT2', 'PSMB3', 'CKS2', 'IGFBP3', 'TRAM1', 'TIMP2', 'CTTN', 'AKR1B10', 'TMEM120B', 'IGFBP7', 'B4GALT1', 'SGK1', 'MAF', 'BCAT2', 'CDC42SE1', 'GRAMD1A', 'PAQR5', 'LCE3E', 'CCNB1', 'KRT7', 'FRMD6', 'ELK3', 'MT2A', 'PSME2', 'HSPA8', 'HAPLN3', 'COL4A1', 'LTBP4', 'SCD', 'PSMD14', 'PKM', 'TKT', 'AVPI1', 'CD24', 'IGFBP4', 'SLC22A18', 'PTTG1', 'GIP', 'PDIA6', 'PCSK1N', 'OSBPL8', 'PGK1', 'CCT2', 'RBP1', 'UBE2S', 'KMT5A', 'HMGA1', 'CXCL1', 'NTS', 'MFGE8', 'PTHLH', 'CPLX2', 'CMTM3', 'ITGB5', 'FBXO22', 'MGLL', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'LCE3D', 'BTG1', 'AKR1C3', 'MRPS22', 'C1orf56', 'CES1', 'JAK1', 'GAL', 'UBA6', 'SPINT2', 'SCCPDH', 'CYBA', 'DOCK5', 'NUDT19', 'GABARAPL1', 'CTNNAL1', 'NUAK1', 'CXCL2', 'SLC25A37', 'CYP24A1', 'ST3GAL5', 'F2RL1', 'BAMBI', 'RND3', 'ZWINT', 'FBXO32', 'MMP15', 'DHRS2', 'KYNU', 'YWHAE', 'PIR', 'CDCA3', 'PMEPA1', 'CBX6', 'GLS', 'TRA2A', 'SERPINE2', 'ALDH1A1', 'PNPT1', 'DSE', 'MEG3', 'TIMP4', 'G6PD', 'MYO10', 'ETFB', 'MYOF', 'PYCR1', 'SLC7A11', 'KCNG1', 'PGM2L1', 'ALDH3A1', 'STMN1', 'ADGRG1', 'MDM4', 'NUSAP1', 'HMGB1', 'FABP5', 'TXN', 'ANGPTL4', 'PPIB', 'HSPA2', 'NMB', 'MYC', 'RPS27L', 'ARL6IP1', 'TGM2', 'SLN', 'ADAM19', 'EVA1A', 'RUVBL2', 'ODC1', 'GPRC5A', 'TGFBR1', 'FSCN1', 'NTN4', 'CADM1', 'PDLIM2', 'APLP2', 'AKR1C2', 'DKK1', 'FLNB', 'RHOF', 'NEK6', 'FGFR1', 'WDR43', 'CEBPB', 'GPX1', 'EIF6', 'MORF4L2', 'RHOD', 'AXL', 'CDC42', 'LMNA', 'SLU7', 'SH3BGRL3', 'CREM', 'PDCD5', 'PLGRKT', 'DHRS3', 'ZFP36L1', 'AHNAK2', 'EMG1', 'CDKN1A', 'MT3', 'RAET1G', 'RASSF10', 'ILF2', 'CXXC5', 'FSTL3', 'MYL6', 'CALM2', 'S100A4', 'FTH1', 'TUBB6', 'TMEM41B', 'LGALS1', 'PTPRS', 'PRR11', 'ZBED2', 'CYB5A', 'SYT13', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'SMC4', 'TESC', 'LTBP3', 'DHRS7', 'TK1', 'TRIM47', 'RIN2', 'NPM1', 'CD9', 'CDC20', 'ETS2', 'PPP3CA', 'SLAMF9', 'SULT2B1', 'LBH', 'ILK', 'JUP', 'FHL1', 'HJURP', 'ACP2', 'FOXD1', 'COL22A1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'FAM89B', 'COTL1', 'SNHG8', 'MFSD12', 'SLC35F2', 'EZR', 'PSMD2', 'ARPC3', 'PSMD4', 'PUS1', 'APOBEC3C', 'TPM2', 'SH3KBP1', 'NPTX1', 'PODXL', 'CDH2', 'ANXA2', 'HMGA2', 'ELF3', 'ACOT9', 'ANTXR1', 'TUBB', 'S100A6', 'FAM64A', 'MALAT1', 'COL5A2', 'CNN3', 'TUBA4A', 'AURKA', 'CDK1', 'MGST1', 'NUAK2', 'DDB2', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'PRC1', 'UBC', 'METRN', 'SKIL', 'HES1', 'HMGB2', 'DKC1', 'NAA38', 'RAP2B', 'CCDC85B', 'PSMA4', 'MT1X', 'SGCE', 'PHKG1', 'TUBA1C', 'PDLIM7', 'RGS3', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'SYT1', 'VCAN', 'NPC2', 'FN1', 'ITGA2', 'GTPBP4', 'S100A13', 'AMIGO2', 'RDX', 'JUNB', 'EPAS1', 'TP53I3', 'RPL22L1', 'LACTB', 'EIF2S3', 'TUBB4B', 'FLOT1', 'IL11', 'TMSB4X', 'PSMA5', 'PTPRJ', 'CTNNB1', 'COL1A1', 'RAP1GAP', 'SRGN', 'PYCARD', 'TNFRSF12A', 'GPX2', 'HAGHL', 'SSR3', 'BCL2A1', 'VIM', 'ESAM', 'GINS2', 'FXYD5', 'KRT81', 'PRMT1', 'HSP90AA1', 'PCDH9', 'CXCL8', 'PPP1CB', 'SLC7A7', 'SPP1', 'MKI67', 'MCL1', 'STC1', 'ZFP36', 'RAB3B', 'COL4A2', 'CDC42EP3', 'ITGA5', 'UPP1', 'SNW1', 'CDKN3', 'MLXIP', 'NR0B1', 'TPM1', 'SOX4', 'NUPR1', 'PHLDA3', 'CENPA', 'CA12', 'KPNA2', 'SUCLG1', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'DOLK', 'CLPTM1L', 'INO80C', 'PLEK2', 'AP2M1', 'C1QBP', 'FDXR', 'QPCT', 'CKS1B', 'PRDX1', 'PDIA4', 'PLK1']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IC', 'IEA'], ['IEP', 'IBA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['ISS'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'HMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IBA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IMP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IGI', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'IEA'], ['IMP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['EXP', 'IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4010,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['HMGA1', 'ILK', 'FHL1', 'ITGB5', 'FLOT1', 'PLAUR', 'CD9', 'VIM', 'CTTN', 'CNN3', 'PDLIM7', 'CDH2', 'HSPA8', 'CAV1', 'RND3', 'HSPB1', 'SDC4', 'JUP', 'TSPAN4', 'ITGA11', 'JAK1', 'AKAP12', 'YWHAE', 'CD44', 'SH3KBP1', 'CTNNB1', 'PVR', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'CSRP1', 'PPP1CB', 'MPRIP', 'ITGA2', 'ACTB', 'NPM1', 'TGM2', 'EZR', 'ITGA5', 'RDX', 'ARPC3', 'ITGA3', 'ZNF185', 'ACTG1']</t>
+          <t>['CD44', 'ITGA11', 'ACTG1', 'SDC4', 'CAV1', 'PLAUR', 'ACTB', 'HSPA5', 'TSPAN4', 'CSRP1', 'CTTN', 'HSPA8', 'HMGA1', 'ITGB5', 'HSPB1', 'JAK1', 'RND3', 'ZNF185', 'YWHAE', 'PPIB', 'TGM2', 'FLNB', 'CDC42', 'ITGA3', 'NPM1', 'CD9', 'ILK', 'JUP', 'FHL1', 'MPRIP', 'EZR', 'ARPC3', 'SH3KBP1', 'CDH2', 'CNN3', 'AKAP12', 'PVR', 'PDLIM7', 'ITGA2', 'RDX', 'FLOT1', 'CTNNB1', 'VIM', 'PPP1CB', 'ITGA5']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IEA'], ['ISS']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['ISS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4142,12 +4076,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['HMGA1', 'ILK', 'FHL1', 'ITGB5', 'FLOT1', 'PLAUR', 'CD9', 'VIM', 'CTTN', 'CNN3', 'PDLIM7', 'CDH2', 'HSPA8', 'CAV1', 'RND3', 'HSPB1', 'SDC4', 'JUP', 'TSPAN4', 'ITGA11', 'JAK1', 'AKAP12', 'YWHAE', 'CD44', 'SH3KBP1', 'CTNNB1', 'PVR', 'CDC42', 'HSPA5', 'PPIB', 'FLNB', 'CSRP1', 'PPP1CB', 'MPRIP', 'ITGA2', 'ACTB', 'NPM1', 'TGM2', 'EZR', 'ITGA5', 'RDX', 'ARPC3', 'ITGA3', 'ZNF185', 'ACTG1']</t>
+          <t>['CD44', 'ITGA11', 'ACTG1', 'SDC4', 'CAV1', 'PLAUR', 'ACTB', 'HSPA5', 'TSPAN4', 'CSRP1', 'CTTN', 'HSPA8', 'HMGA1', 'ITGB5', 'HSPB1', 'JAK1', 'RND3', 'ZNF185', 'YWHAE', 'PPIB', 'TGM2', 'FLNB', 'CDC42', 'ITGA3', 'NPM1', 'CD9', 'ILK', 'JUP', 'FHL1', 'MPRIP', 'EZR', 'ARPC3', 'SH3KBP1', 'CDH2', 'CNN3', 'AKAP12', 'PVR', 'PDLIM7', 'ITGA2', 'RDX', 'FLOT1', 'CTNNB1', 'VIM', 'PPP1CB', 'ITGA5']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IEA'], ['ISS']]</t>
+          <t>[['HDA'], ['IDA', 'HDA'], ['ISS'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4142,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['GOLIM4', 'SERPINE1', 'RAN', 'FTH1', 'MYOF', 'RHOF', 'DKK1', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'CMTM3', 'GRAMD1A', 'FLOT1', 'SRGN', 'PLAUR', 'PDIA6', 'RIN2', 'CXCL1', 'CD9', 'SLC3A2', 'NPTX1', 'ANXA2', 'VIM', 'TGFBR1', 'COL1A1', 'CTTN', 'MFSD12', 'PRSS3', 'NTS', 'GLIPR1', 'HSPA8', 'CAV1', 'B4GALT1', 'APLP2', 'HSP90AB1', 'GIP', 'FN1', 'MT3', 'COPZ2', 'DSE', 'JUP', 'RHOD', 'UBB', 'ULK1', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'PSMD14', 'JAK1', 'PRDX1', 'RAB3B', 'SLPI', 'CCT2', 'HMGB1', 'ANTXR1', 'HSP90AA1', 'YWHAE', 'CD44', 'SH3KBP1', 'QPCT', 'SCCPDH', 'TMSB4X', 'CDC42', 'HSPA5', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'PTPRJ', 'AP2M1', 'RAP1GAP', 'GPRC5A', 'PKM', 'LGALS3', 'SKIL', 'PYCARD', 'NPC2', 'ANXA3', 'FABP5', 'SYT13', 'PSMD2', 'FURIN', 'EZR', 'CYBA', 'ITGA5', 'SLC2A1', 'TIMP2', 'CTSL', 'MGST1', 'OCIAD2', 'GAL', 'TUBB4B', 'F2RL1', 'GABARAPL1', 'CDA', 'UBC', 'NAP1L1', 'SYT1', 'SERPINE2', 'CLU', 'ACTG1', 'PMEPA1', 'TSPAN15', 'SLC2A3', 'FTL', 'GNPNAT1', 'ILF2', 'RAP2B', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'FURIN', 'OCIAD2', 'ACTG1', 'UBB', 'GNPNAT1', 'CAV1', 'CLU', 'PLAUR', 'NAP1L1', 'GLIPR1', 'RAN', 'HSPA5', 'SLC3A2', 'S100A11', 'COPZ2', 'HSP90AB1', 'TIMP2', 'CTTN', 'B4GALT1', 'GRAMD1A', 'HSPA8', 'PSMD14', 'PKM', 'GIP', 'PDIA6', 'PCSK1N', 'CCT2', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'CMTM3', 'ITGB5', 'LGALS3', 'JAK1', 'GAL', 'SCCPDH', 'CYBA', 'GABARAPL1', 'F2RL1', 'YWHAE', 'PMEPA1', 'SERPINE2', 'DSE', 'MYOF', 'HMGB1', 'FABP5', 'PPIB', 'GPRC5A', 'TGFBR1', 'APLP2', 'DKK1', 'FLNB', 'RHOF', 'FGFR1', 'RHOD', 'CDC42', 'MT3', 'ILF2', 'FTH1', 'PTPRS', 'SYT13', 'SLPI', 'CTSL', 'ULK1', 'RIN2', 'CD9', 'JUP', 'COTL1', 'MFSD12', 'EZR', 'PSMD2', 'SH3KBP1', 'NPTX1', 'GOLIM4', 'ANXA2', 'ANTXR1', 'TUBB', 'MGST1', 'SERPINE1', 'CDA', 'UBC', 'SKIL', 'RAP2B', 'TSPAN15', 'PRSS3', 'SYT1', 'NPC2', 'FN1', 'TUBB4B', 'FLOT1', 'TMSB4X', 'PSMA5', 'PTPRJ', 'COL1A1', 'RAP1GAP', 'SRGN', 'PYCARD', 'VIM', 'HSP90AA1', 'RAB3B', 'ITGA5', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1', 'PDIA4']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['IBA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['TAS']]</t>
+          <t>[['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4274,12 +4208,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['TUBA1C', 'CALM2', 'MAP1B', 'ILK', 'TUBB', 'RASSF1', 'VIM', 'COL1A1', 'CTTN', 'PRC1', 'TPM1', 'MYL12B', 'PDLIM7', 'HSPA8', 'HSPB1', 'COL4A1', 'FBXO22', 'MT3', 'SDC4', 'JUP', 'TUBA1B', 'BIRC5', 'AHNAK2', 'COL4A2', 'KRT7', 'TPX2', 'CCT2', 'LMNA', 'EIF6', 'ENO1', 'CTPS1', 'CTNNB1', 'PPP3CA', 'FLNB', 'CSRP1', 'AURKA', 'TPM2', 'PDLIM5', 'PYCARD', 'ACTB', 'COL5A1', 'CCT5', 'PDLIM2', 'NEK6', 'EZR', 'COL5A2', 'SLC2A1', 'FBXO32', 'CDK2AP2', 'STMN1', 'PLK1', 'TUBB4B', 'ARPC3', 'CEP170', 'GABARAPL1', 'KRT81', 'ACTG1', 'TUBB6', 'LTBP4', 'TUBA4A', 'NUSAP1', 'CDK1', 'COTL1']</t>
+          <t>['ACTG1', 'BIRC5', 'COL5A1', 'SDC4', 'PDLIM5', 'RASSF1', 'TUBA1B', 'MAP1B', 'CDK2AP2', 'ACTB', 'CSRP1', 'CTPS1', 'TPX2', 'ENO1', 'CTTN', 'KRT7', 'HSPA8', 'COL4A1', 'LTBP4', 'CCT2', 'FBXO22', 'CCT5', 'HSPB1', 'GABARAPL1', 'FBXO32', 'STMN1', 'CEP170', 'NUSAP1', 'PDLIM2', 'FLNB', 'NEK6', 'EIF6', 'LMNA', 'AHNAK2', 'MT3', 'CALM2', 'TUBB6', 'MYL12B', 'PPP3CA', 'ILK', 'JUP', 'COTL1', 'EZR', 'ARPC3', 'TPM2', 'TUBB', 'COL5A2', 'TUBA4A', 'AURKA', 'CDK1', 'PRC1', 'TUBA1C', 'PDLIM7', 'TUBB4B', 'CTNNB1', 'COL1A1', 'PYCARD', 'VIM', 'KRT81', 'COL4A2', 'TPM1', 'SLC2A1', 'PLK1']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['NAS'], ['IBA'], ['IMP', 'IBA', 'TAS', 'NAS'], ['IDA'], ['IBA'], ['IEA'], ['IDA'], ['IMP', 'IBA', 'NAS'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -4340,12 +4274,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['GOLIM4', 'SERPINE1', 'RAN', 'FTH1', 'MYOF', 'RHOF', 'DKK1', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'CMTM3', 'GRAMD1A', 'FLOT1', 'SRGN', 'PLAUR', 'PDIA6', 'RIN2', 'CXCL1', 'CD9', 'SLC3A2', 'NPTX1', 'ANXA2', 'VIM', 'TGFBR1', 'COL1A1', 'CTTN', 'MFSD12', 'PRSS3', 'NTS', 'GLIPR1', 'HSPA8', 'CAV1', 'B4GALT1', 'APLP2', 'HSP90AB1', 'GIP', 'FN1', 'MT3', 'COPZ2', 'DSE', 'JUP', 'RHOD', 'UBB', 'ULK1', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'PSMD14', 'JAK1', 'PRDX1', 'RAB3B', 'SLPI', 'CCT2', 'HMGB1', 'ANTXR1', 'HSP90AA1', 'YWHAE', 'CD44', 'SH3KBP1', 'QPCT', 'SCCPDH', 'TMSB4X', 'CDC42', 'HSPA5', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'PTPRJ', 'AP2M1', 'RAP1GAP', 'GPRC5A', 'PKM', 'LGALS3', 'SKIL', 'PYCARD', 'NPC2', 'ANXA3', 'FABP5', 'SYT13', 'PSMD2', 'FURIN', 'EZR', 'CYBA', 'ITGA5', 'SLC2A1', 'TIMP2', 'CTSL', 'MGST1', 'OCIAD2', 'GAL', 'TUBB4B', 'F2RL1', 'GABARAPL1', 'CDA', 'UBC', 'NAP1L1', 'SYT1', 'SERPINE2', 'CLU', 'ACTG1', 'PMEPA1', 'TSPAN15', 'SLC2A3', 'FTL', 'GNPNAT1', 'ILF2', 'RAP2B', 'COTL1']</t>
+          <t>['CD44', 'CD63', 'ANXA3', 'FURIN', 'OCIAD2', 'ACTG1', 'UBB', 'GNPNAT1', 'CAV1', 'CLU', 'PLAUR', 'NAP1L1', 'GLIPR1', 'RAN', 'HSPA5', 'SLC3A2', 'S100A11', 'COPZ2', 'HSP90AB1', 'TIMP2', 'CTTN', 'B4GALT1', 'GRAMD1A', 'HSPA8', 'PSMD14', 'PKM', 'GIP', 'PDIA6', 'PCSK1N', 'CCT2', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'CMTM3', 'ITGB5', 'LGALS3', 'JAK1', 'GAL', 'SCCPDH', 'CYBA', 'GABARAPL1', 'F2RL1', 'YWHAE', 'PMEPA1', 'SERPINE2', 'DSE', 'MYOF', 'HMGB1', 'FABP5', 'PPIB', 'GPRC5A', 'TGFBR1', 'APLP2', 'DKK1', 'FLNB', 'RHOF', 'FGFR1', 'RHOD', 'CDC42', 'MT3', 'ILF2', 'FTH1', 'PTPRS', 'SYT13', 'SLPI', 'CTSL', 'ULK1', 'RIN2', 'CD9', 'JUP', 'COTL1', 'MFSD12', 'EZR', 'PSMD2', 'SH3KBP1', 'NPTX1', 'GOLIM4', 'ANXA2', 'ANTXR1', 'TUBB', 'MGST1', 'SERPINE1', 'CDA', 'UBC', 'SKIL', 'RAP2B', 'TSPAN15', 'PRSS3', 'SYT1', 'NPC2', 'FN1', 'TUBB4B', 'FLOT1', 'TMSB4X', 'PSMA5', 'PTPRJ', 'COL1A1', 'RAP1GAP', 'SRGN', 'PYCARD', 'VIM', 'HSP90AA1', 'RAB3B', 'ITGA5', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'AP2M1', 'QPCT', 'PRDX1', 'PDIA4']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['IBA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['TAS']]</t>
+          <t>[['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4340,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['SERPINE1', 'HSPA2', 'TUBA1C', 'ADAM19', 'SLC25A37', 'CALM2', 'RAN', 'SMC4', 'FTH1', 'FRMD6', 'ZBED2', 'MYOF', 'HMGA1', 'MAP1B', 'STC1', 'ECH1', 'SUCLG1', 'RHOF', 'DKK1', 'PPP1R14A', 'TXNRD2', 'ILK', 'FHL1', 'GLS', 'ITGB5', 'MFGE8', 'PSMA5', 'TUBB', 'MYC', 'VCAN', 'CMTM3', 'GRAMD1A', 'SGK1', 'RASSF1', 'FLOT1', 'SRGN', 'NUPR1', 'PIR', 'BMP1', 'OSBPL8', 'EMP3', 'FOS', 'LTBP3', 'SSB', 'PLAUR', 'DAAM1', 'UPP1', 'GPX2', 'LBH', 'PDIA6', 'ZWINT', 'RIN2', 'MKI67', 'NT5E', 'CXCL1', 'CD9', 'SLC3A2', 'PYCR1', 'TESC', 'IGFBP4', 'NPTX1', 'ANXA2', 'PNPT1', 'TFPI2', 'TKT', 'BBX', 'TK1', 'SPOCK1', 'SRGAP1', 'HMGA2', 'CKS1B', 'PHLDA3', 'RPS27L', 'VIM', 'TRAM1', 'TGFBR1', 'COL1A1', 'PSMA4', 'CTTN', 'CKS2', 'EIF2S3', 'SH3BGRL3', 'BAMBI', 'ATP5G1', 'AVPI1', 'HJURP', 'RBP1', 'TMEM41B', 'MFSD12', 'CD24', 'GTPBP4', 'CNN3', 'KLF6', 'PRC1', 'MALAT1', 'PRSS3', 'TPM1', 'MYL12B', 'PSMD4', 'S100A6', 'CCNB1', 'ESAM', 'NTS', 'PDLIM7', 'RAET1G', 'PHKG1', 'CDH2', 'HSPA8', 'RSPO3', 'CAV1', 'MT2A', 'LCE3E', 'TMBIM6', 'RND3', 'WDR43', 'ZFP36', 'B4GALT1', 'APLP2', 'CDC42EP3', 'HSPB1', 'DHRS3', 'MAF', 'HSP90AB1', 'GIP', 'MYL6', 'FN1', 'COL4A1', 'SCD', 'MBOAT2', 'FBXO22', 'SLC7A7', 'NUAK2', 'MT3', 'CNTN1', 'COPZ2', 'DSE', 'CLPTM1L', 'AKR1B10', 'ID3', 'CCDC80', 'SDC4', 'JUP', 'CBX6', 'CADM1', 'CCDC85B', 'CES1', 'PRMT5', 'FDXR', 'ACP2', 'LACTB', 'RHOD', 'PSMB3', 'CREM', 'UBB', 'BCAT2', 'PLEK2', 'PSME2', 'ULK1', 'NAA38', 'NR0B1', 'TUBA1B', 'CXCL5', 'ACOT9', 'CDC25B', 'TRIM47', 'PRR11', 'BIRC5', 'KYNU', 'TM7SF3', 'TXN', 'ETFB', 'DDB2', 'MLXIP', 'JUN', 'POLR2L', 'G6PD', 'ALDH3A1', 'SOX4', 'AMIGO2', 'CXCL8', 'TSPAN4', 'ITGA11', 'AHNAK2', 'COL4A2', 'CCNB2', 'CD63', 'PTPRS', 'PDIA4', 'PCSK1N', 'PACSIN3', 'MEG3', 'PSMD14', 'KRT7', 'TPX2', 'GINS2', 'NMB', 'JAK1', 'PRDX1', 'RAB3B', 'RND1', 'SEMA3C', 'LCE3D', 'GAPDH', 'SLPI', 'RPL22L1', 'GADD45A', 'MGLL', 'EVA1A', 'AKAP12', 'CCT2', 'LMNA', 'HMGB1', 'EIF6', 'GALNT14', 'FXYD5', 'SLC35F2', 'DHRS2', 'ENO1', 'TMSB10', 'ANTXR1', 'CTPS1', 'HSP90AA1', 'PLGRKT', 'TIMP4', 'YWHAE', 'KCNMA1', 'TNFRSF1A', 'ADGRG1', 'CD44', 'CDC20', 'SH3KBP1', 'QPCT', 'CTNNB1', 'FSCN1', 'NUDT19', 'EMG1', 'RGS3', 'TRA2A', 'RQCD1', 'CTNNAL1', 'SCCPDH', 'PTGR1', 'TMSB4X', 'PPP3CA', 'PRMT1', 'PVR', 'GPX1', 'TSPAN5', 'INO80C', 'S100A16', 'CLDN4', 'CDC42', 'IGFBP3', 'HSPA5', 'GRB10', 'FGFR1', 'PPIB', 'FLNB', 'S100A11', 'CSRP1', 'PTPRJ', 'PUS1', 'TXNRD1', 'CEBPB', 'PTHLH', 'AP2M1', 'C1QBP', 'MLLT11', 'SNW1', 'S100A4', 'UBA6', 'RAP1GAP', 'SLN', 'SLC7A11', 'ARL6IP1', 'HMGB2', 'PPP1CB', 'CXCL2', 'GPRC5A', 'AXL', 'MDM4', 'MRPS22', 'SPP1', 'APOBEC3C', 'ANGPTL4', 'FAM64A', 'BCL2A1', 'SLC22A18', 'CENPW', 'S100A13', 'AURKA', 'PKM', 'ITGA2', 'MYL12A', 'TPM2', 'LGALS3', 'CPLX2', 'PDLIM5', 'HAPLN3', 'ELK3', 'SKIL', 'PYCARD', 'ACTB', 'COL5A1', 'PTTG1', 'PAQR5', 'COL22A1', 'LAMC2', 'CCT5', 'NPC2', 'CDKN3', 'IGFBP7', 'ANXA3', 'CDC42SE1', 'AKR1C2', 'FABP5', 'PODXL', 'FSTL3', 'GNG4', 'PDLIM2', 'PCDH9', 'KPNA2', 'C1orf56', 'NPM1', 'SYT13', 'PSMD2', 'DOCK5', 'EPAS1', 'RUVBL2', 'TGM2', 'SPINT2', 'RASSF10', 'SULT2B1', 'FURIN', 'BOP1', 'PRSS23', 'NEK6', 'CA12', 'FAM89B', 'EZR', 'CYBA', 'COL5A2', 'ITGA5', 'NUAK1', 'TAGLN', 'CDCA3', 'LDHB', 'HES1', 'MCL1', 'SNHG8', 'SLC2A1', 'TGFBI', 'SLU7', 'ST3GAL5', 'TP53I3', 'PDCD5', 'HAGHL', 'TIMP2', 'ODC1', 'TMEM120B', 'ETS2', 'ZFP36L1', 'PSMD8', 'TNFRSF12A', 'CTSL', 'FBXO32', 'MGST1', 'SLAMF9', 'SSR3', 'OCIAD2', 'GLRX', 'GAL', 'CXXC5', 'KCNG1', 'IL11', 'ISG20', 'CYB5A', 'IL32', 'NTN4', 'UTP18', 'PGM2L1', 'RDX', 'MORF4L2', 'CDK2AP2', 'STMN1', 'RPL28', 'TXNDC9', 'PLK1', 'DOLK', 'TUBB4B', 'CCL2', 'ARPC3', 'AKR1B1', 'MIS18BP1', 'CENPA', 'BTG1', 'F2RL1', 'PGK1', 'GABARAPL1', 'ITGA3', 'LGALS1', 'S100A10', 'JUNB', 'MMP15', 'METRN', 'DMKN', 'CDA', 'MT1X', 'DKC1', 'UBC', 'NAP1L1', 'SYT1', 'MYO10', 'KRT81', 'SERPINE2', 'CLU', 'NKAIN4', 'ACTG1', 'TUBB6', 'LMO4', 'PMEPA1', 'LTBP4', 'NQO1', 'TUBA4A', 'TOP2A', 'NUSAP1', 'UBE2S', 'HNRNPH1', 'SGCE', 'C15orf48', 'TSPAN15', 'CDK1', 'SLC2A3', 'ELF3', 'FTL', 'DHRS7', 'AKR1C3', 'GNPNAT1', 'ILF2', 'RAP2B', 'ALDH1A1', 'COTL1', 'CYP24A1', 'FOXD1', 'KMT5A', 'CDKN1A']</t>
+          <t>['TXNDC9', 'CD44', 'NKAIN4', 'LDHB', 'TM7SF3', 'TAGLN', 'CENPW', 'CD63', 'ANXA3', 'SPOCK1', 'UTP18', 'LAMC2', 'SSB', 'CLDN4', 'FOS', 'NQO1', 'RQCD1', 'PTGR1', 'FURIN', 'ITGA11', 'ISG20', 'OCIAD2', 'ACTG1', 'UBB', 'BIRC5', 'BOP1', 'HNRNPH1', 'GNPNAT1', 'KLF6', 'COL5A1', 'SDC4', 'CAV1', 'GADD45A', 'CLU', 'PDLIM5', 'LMO4', 'PLAUR', 'CCL2', 'MIS18BP1', 'JUN', 'TMSB10', 'IL32', 'CCDC80', 'GLRX', 'NAP1L1', 'ATP5G1', 'TOP2A', 'RASSF1', 'TUBA1B', 'DAAM1', 'BBX', 'RSPO3', 'MAP1B', 'CDK2AP2', 'ACTB', 'RAN', 'PPP1R14A', 'RND1', 'HSPA5', 'CNTN1', 'TSPAN4', 'GALNT14', 'KCNMA1', 'CSRP1', 'SLC3A2', 'GNG4', 'S100A11', 'CXCL5', 'DMKN', 'COPZ2', 'CTPS1', 'TSPAN5', 'AKR1B1', 'MLLT11', 'NT5E', 'CDC25B', 'MYL12A', 'TPX2', 'RPL28', 'PSMD8', 'SEMA3C', 'ENO1', 'EMP3', 'TMBIM6', 'GRB10', 'TFPI2', 'ID3', 'POLR2L', 'HSP90AB1', 'BMP1', 'MBOAT2', 'PSMB3', 'CKS2', 'IGFBP3', 'TRAM1', 'TIMP2', 'CTTN', 'AKR1B10', 'TMEM120B', 'IGFBP7', 'B4GALT1', 'SGK1', 'MAF', 'BCAT2', 'CDC42SE1', 'GRAMD1A', 'PAQR5', 'LCE3E', 'CCNB1', 'KRT7', 'FRMD6', 'ELK3', 'MT2A', 'PSME2', 'HSPA8', 'HAPLN3', 'COL4A1', 'LTBP4', 'SCD', 'PSMD14', 'PKM', 'TKT', 'AVPI1', 'S100A16', 'CD24', 'IGFBP4', 'SLC22A18', 'PTTG1', 'GIP', 'PDIA6', 'PCSK1N', 'OSBPL8', 'PGK1', 'CCT2', 'RBP1', 'UBE2S', 'KMT5A', 'HMGA1', 'CXCL1', 'NTS', 'MFGE8', 'FTL', 'PTHLH', 'CPLX2', 'CMTM3', 'ITGB5', 'FBXO22', 'MGLL', 'S100A10', 'PRSS23', 'CCT5', 'HSPB1', 'LGALS3', 'LCE3D', 'BTG1', 'C15orf48', 'AKR1C3', 'MRPS22', 'C1orf56', 'CES1', 'JAK1', 'GAL', 'UBA6', 'SPINT2', 'SCCPDH', 'CYBA', 'DOCK5', 'NUDT19', 'GABARAPL1', 'CTNNAL1', 'NUAK1', 'CXCL2', 'SLC25A37', 'CYP24A1', 'ST3GAL5', 'F2RL1', 'BAMBI', 'RND3', 'ZWINT', 'FBXO32', 'MMP15', 'DHRS2', 'KYNU', 'YWHAE', 'PIR', 'CDCA3', 'PMEPA1', 'CBX6', 'GLS', 'TRA2A', 'SERPINE2', 'ALDH1A1', 'PNPT1', 'DSE', 'MEG3', 'TIMP4', 'G6PD', 'MYO10', 'ETFB', 'MYOF', 'PYCR1', 'SLC7A11', 'KCNG1', 'PGM2L1', 'ALDH3A1', 'STMN1', 'ADGRG1', 'MDM4', 'NUSAP1', 'HMGB1', 'FABP5', 'TXN', 'ANGPTL4', 'PPIB', 'HSPA2', 'NMB', 'MYC', 'RPS27L', 'ARL6IP1', 'TGM2', 'SLN', 'ADAM19', 'EVA1A', 'RUVBL2', 'ODC1', 'GPRC5A', 'TGFBR1', 'FSCN1', 'NTN4', 'CADM1', 'PDLIM2', 'APLP2', 'AKR1C2', 'DKK1', 'FLNB', 'RHOF', 'NEK6', 'FGFR1', 'WDR43', 'CEBPB', 'GPX1', 'EIF6', 'MORF4L2', 'RHOD', 'AXL', 'CDC42', 'LMNA', 'SLU7', 'SH3BGRL3', 'CREM', 'PDCD5', 'PLGRKT', 'DHRS3', 'ZFP36L1', 'AHNAK2', 'EMG1', 'CDKN1A', 'MT3', 'RAET1G', 'RASSF10', 'ILF2', 'CXXC5', 'FSTL3', 'MYL6', 'CALM2', 'S100A4', 'FTH1', 'TUBB6', 'TMEM41B', 'LGALS1', 'PTPRS', 'PRR11', 'ZBED2', 'CYB5A', 'SYT13', 'SLPI', 'ITGA3', 'CTSL', 'GAPDH', 'ULK1', 'SMC4', 'TESC', 'LTBP3', 'DHRS7', 'TK1', 'TRIM47', 'RIN2', 'NPM1', 'CD9', 'CDC20', 'ETS2', 'MYL12B', 'PPP3CA', 'SLAMF9', 'SULT2B1', 'LBH', 'ILK', 'JUP', 'FHL1', 'HJURP', 'ACP2', 'FOXD1', 'COL22A1', 'TXNRD1', 'TGFBI', 'TXNRD2', 'FAM89B', 'COTL1', 'SNHG8', 'MFSD12', 'SLC35F2', 'EZR', 'PSMD2', 'ARPC3', 'PSMD4', 'PUS1', 'APOBEC3C', 'TPM2', 'SH3KBP1', 'NPTX1', 'PODXL', 'CDH2', 'ANXA2', 'HMGA2', 'ELF3', 'ACOT9', 'ANTXR1', 'TUBB', 'S100A6', 'FAM64A', 'MALAT1', 'COL5A2', 'CNN3', 'TUBA4A', 'AURKA', 'CDK1', 'MGST1', 'NUAK2', 'DDB2', 'SERPINE1', 'PRMT5', 'CDA', 'AKAP12', 'CCNB2', 'PVR', 'ECH1', 'PRC1', 'UBC', 'METRN', 'SKIL', 'HES1', 'HMGB2', 'DKC1', 'NAA38', 'RAP2B', 'CCDC85B', 'PSMA4', 'MT1X', 'SGCE', 'PHKG1', 'TUBA1C', 'PDLIM7', 'RGS3', 'SRGAP1', 'TSPAN15', 'TNFRSF1A', 'PRSS3', 'SYT1', 'VCAN', 'NPC2', 'FN1', 'ITGA2', 'GTPBP4', 'S100A13', 'AMIGO2', 'RDX', 'JUNB', 'EPAS1', 'TP53I3', 'RPL22L1', 'LACTB', 'EIF2S3', 'TUBB4B', 'FLOT1', 'IL11', 'TMSB4X', 'PSMA5', 'PTPRJ', 'CTNNB1', 'COL1A1', 'RAP1GAP', 'SRGN', 'PYCARD', 'TNFRSF12A', 'GPX2', 'HAGHL', 'SSR3', 'BCL2A1', 'VIM', 'ESAM', 'GINS2', 'FXYD5', 'KRT81', 'PRMT1', 'HSP90AA1', 'PCDH9', 'CXCL8', 'PPP1CB', 'SLC7A7', 'SPP1', 'MKI67', 'MCL1', 'STC1', 'ZFP36', 'RAB3B', 'COL4A2', 'CDC42EP3', 'ITGA5', 'UPP1', 'SNW1', 'CDKN3', 'MLXIP', 'NR0B1', 'TPM1', 'SOX4', 'NUPR1', 'PHLDA3', 'CENPA', 'CA12', 'KPNA2', 'SUCLG1', 'PACSIN3', 'SLC2A3', 'SLC2A1', 'DOLK', 'CLPTM1L', 'INO80C', 'PLEK2', 'AP2M1', 'C1QBP', 'FDXR', 'QPCT', 'CKS1B', 'PRDX1', 'PDIA4', 'PLK1']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'ND', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'ND', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS', 'ND'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['ND', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'ND'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'ND'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IBA', 'ND'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISO', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'HMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'HMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS', 'ND'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'TAS', 'ND', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'HEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'ND', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'NAS'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'HEP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'ND'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'ND', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['EXP', 'IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISO', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4472,12 +4406,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['ADAM19', 'ILK', 'ITGB5', 'FLOT1', 'PLAUR', 'NT5E', 'CD9', 'ANXA2', 'CD24', 'GTPBP4', 'CNN3', 'ESAM', 'CDH2', 'CAV1', 'HSPB1', 'CNTN1', 'SDC4', 'JUP', 'CADM1', 'SOX4', 'AMIGO2', 'ITGA11', 'PTPRS', 'JAK1', 'HMGB1', 'FXYD5', 'CD44', 'CTNNB1', 'PPP3CA', 'PVR', 'CLDN4', 'S100A11', 'CSRP1', 'CEBPB', 'SLC7A11', 'ITGA2', 'MYL12A', 'LGALS3', 'PDLIM5', 'PYCARD', 'ACTB', 'PODXL', 'FSTL3', 'PCDH9', 'SPINT2', 'EZR', 'ITGA5', 'HES1', 'ZFP36L1', 'RDX', 'CCL2', 'ITGA3', 'LGALS1', 'MYO10', 'SERPINE2', 'ACTG1', 'RAP2B']</t>
+          <t>['CD44', 'CLDN4', 'ITGA11', 'ACTG1', 'SDC4', 'CAV1', 'PDLIM5', 'PLAUR', 'CCL2', 'ACTB', 'CNTN1', 'CSRP1', 'S100A11', 'NT5E', 'MYL12A', 'CD24', 'ITGB5', 'HSPB1', 'LGALS3', 'JAK1', 'SPINT2', 'SERPINE2', 'MYO10', 'SLC7A11', 'HMGB1', 'ADAM19', 'CADM1', 'CEBPB', 'ZFP36L1', 'FSTL3', 'LGALS1', 'PTPRS', 'ITGA3', 'CD9', 'PPP3CA', 'ILK', 'JUP', 'EZR', 'PODXL', 'CDH2', 'ANXA2', 'CNN3', 'PVR', 'HES1', 'RAP2B', 'ITGA2', 'GTPBP4', 'AMIGO2', 'RDX', 'FLOT1', 'CTNNB1', 'PYCARD', 'ESAM', 'FXYD5', 'PCDH9', 'ITGA5', 'SOX4']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HMP'], ['IMP', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['HMP'], ['IBA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['ISS'], ['IBA'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IDA', 'IMP'], ['NAS'], ['IMP', 'NAS'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS'], ['IEA'], ['HMP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['HMP'], ['IDA', 'ISS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['HMP', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HMP'], ['IDA']]</t>
+          <t>[['IMP', 'NAS'], ['ISS'], ['IBA'], ['HMP'], ['IMP'], ['IDA'], ['IEA'], ['IMP'], ['ISS'], ['HMP', 'NAS'], ['IBA'], ['HMP'], ['IEA'], ['IDA'], ['HMP'], ['IDA', 'IBA', 'NAS'], ['IMP', 'IBA'], ['HMP'], ['IDA', 'ISS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IBA'], ['IDA'], ['ISS'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
